--- a/Week2/ManHinhChiTiet/SignIn.xlsx
+++ b/Week2/ManHinhChiTiet/SignIn.xlsx
@@ -559,7 +559,7 @@
     <t>Trường hợp email không đúng định dạng (example@mail.com) hoặc số điện thoại không đủ kí tự.</t>
   </si>
   <si>
-    <t>VALIDATION_EMAIL_E002</t>
+    <t>VALIDATION_LOGIN_E002</t>
   </si>
   <si>
     <t>"Email hoặc số điện thoại không đúng định dạng"</t>
@@ -571,7 +571,7 @@
     <t>VALIDATION_PASSWORD_E002</t>
   </si>
   <si>
-    <t>"Mật khẩu tối thiểu 6 kí tự có chứ chữ hoa, chữ thường và kí tự số"</t>
+    <t>"Mật khẩu tối thiểu 6 kí tự, có chứa chữ hoa, chữ thường và kí tự số"</t>
   </si>
   <si>
     <t>3. Xử lý đăng nhập</t>
@@ -2108,7 +2108,7 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="383">
+  <cellXfs count="380">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2764,12 +2764,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2796,9 +2790,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -15381,7 +15372,7 @@
     <col min="60" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="244" customFormat="1" ht="17" customHeight="1" spans="1:49">
+    <row r="1" s="241" customFormat="1" ht="17" customHeight="1" spans="1:49">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -15450,7 +15441,7 @@
       <c r="AV1" s="122"/>
       <c r="AW1" s="134"/>
     </row>
-    <row r="2" s="244" customFormat="1" ht="17" customHeight="1" spans="1:49">
+    <row r="2" s="241" customFormat="1" ht="17" customHeight="1" spans="1:49">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -15675,30 +15666,30 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="289"/>
-      <c r="J6" s="289"/>
-      <c r="K6" s="289"/>
-      <c r="L6" s="289"/>
-      <c r="M6" s="289"/>
-      <c r="N6" s="289"/>
-      <c r="O6" s="289"/>
-      <c r="P6" s="289"/>
-      <c r="Q6" s="289"/>
-      <c r="R6" s="289"/>
-      <c r="S6" s="289"/>
-      <c r="T6" s="289"/>
-      <c r="U6" s="289"/>
-      <c r="V6" s="289"/>
-      <c r="W6" s="289"/>
-      <c r="X6" s="289"/>
-      <c r="Y6" s="289"/>
-      <c r="Z6" s="289"/>
-      <c r="AA6" s="289"/>
-      <c r="AB6" s="289"/>
-      <c r="AC6" s="289"/>
-      <c r="AD6" s="289"/>
-      <c r="AE6" s="289"/>
-      <c r="AF6" s="289"/>
+      <c r="I6" s="286"/>
+      <c r="J6" s="286"/>
+      <c r="K6" s="286"/>
+      <c r="L6" s="286"/>
+      <c r="M6" s="286"/>
+      <c r="N6" s="286"/>
+      <c r="O6" s="286"/>
+      <c r="P6" s="286"/>
+      <c r="Q6" s="286"/>
+      <c r="R6" s="286"/>
+      <c r="S6" s="286"/>
+      <c r="T6" s="286"/>
+      <c r="U6" s="286"/>
+      <c r="V6" s="286"/>
+      <c r="W6" s="286"/>
+      <c r="X6" s="286"/>
+      <c r="Y6" s="286"/>
+      <c r="Z6" s="286"/>
+      <c r="AA6" s="286"/>
+      <c r="AB6" s="286"/>
+      <c r="AC6" s="286"/>
+      <c r="AD6" s="286"/>
+      <c r="AE6" s="286"/>
+      <c r="AF6" s="286"/>
       <c r="AG6" s="15"/>
       <c r="AH6" s="15"/>
       <c r="AI6" s="15"/>
@@ -15726,30 +15717,30 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="289"/>
-      <c r="J7" s="289"/>
-      <c r="K7" s="289"/>
-      <c r="L7" s="289"/>
-      <c r="M7" s="289"/>
-      <c r="N7" s="289"/>
-      <c r="O7" s="289"/>
-      <c r="P7" s="289"/>
-      <c r="Q7" s="289"/>
-      <c r="R7" s="289"/>
-      <c r="S7" s="289"/>
-      <c r="T7" s="289"/>
-      <c r="U7" s="289"/>
-      <c r="V7" s="289"/>
-      <c r="W7" s="289"/>
-      <c r="X7" s="289"/>
-      <c r="Y7" s="289"/>
-      <c r="Z7" s="289"/>
-      <c r="AA7" s="289"/>
-      <c r="AB7" s="289"/>
-      <c r="AC7" s="289"/>
-      <c r="AD7" s="289"/>
-      <c r="AE7" s="289"/>
-      <c r="AF7" s="289"/>
+      <c r="I7" s="286"/>
+      <c r="J7" s="286"/>
+      <c r="K7" s="286"/>
+      <c r="L7" s="286"/>
+      <c r="M7" s="286"/>
+      <c r="N7" s="286"/>
+      <c r="O7" s="286"/>
+      <c r="P7" s="286"/>
+      <c r="Q7" s="286"/>
+      <c r="R7" s="286"/>
+      <c r="S7" s="286"/>
+      <c r="T7" s="286"/>
+      <c r="U7" s="286"/>
+      <c r="V7" s="286"/>
+      <c r="W7" s="286"/>
+      <c r="X7" s="286"/>
+      <c r="Y7" s="286"/>
+      <c r="Z7" s="286"/>
+      <c r="AA7" s="286"/>
+      <c r="AB7" s="286"/>
+      <c r="AC7" s="286"/>
+      <c r="AD7" s="286"/>
+      <c r="AE7" s="286"/>
+      <c r="AF7" s="286"/>
       <c r="AG7" s="15"/>
       <c r="AH7" s="15"/>
       <c r="AI7" s="15"/>
@@ -16025,259 +16016,259 @@
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A13" s="14"/>
-      <c r="B13" s="245" t="s">
+      <c r="B13" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="246"/>
-      <c r="D13" s="246"/>
-      <c r="E13" s="246"/>
-      <c r="F13" s="246"/>
-      <c r="G13" s="246"/>
-      <c r="H13" s="246"/>
-      <c r="I13" s="246"/>
-      <c r="J13" s="246"/>
-      <c r="K13" s="246"/>
-      <c r="L13" s="246"/>
-      <c r="M13" s="246"/>
-      <c r="N13" s="246"/>
-      <c r="O13" s="246"/>
-      <c r="P13" s="246"/>
-      <c r="Q13" s="246"/>
-      <c r="R13" s="246"/>
-      <c r="S13" s="246"/>
-      <c r="T13" s="246"/>
-      <c r="U13" s="246"/>
-      <c r="V13" s="246"/>
-      <c r="W13" s="246"/>
-      <c r="X13" s="246"/>
-      <c r="Y13" s="246"/>
-      <c r="Z13" s="246"/>
-      <c r="AA13" s="246"/>
-      <c r="AB13" s="246"/>
-      <c r="AC13" s="246"/>
-      <c r="AD13" s="246"/>
-      <c r="AE13" s="246"/>
-      <c r="AF13" s="246"/>
-      <c r="AG13" s="246"/>
-      <c r="AH13" s="246"/>
-      <c r="AI13" s="246"/>
-      <c r="AJ13" s="246"/>
-      <c r="AK13" s="246"/>
-      <c r="AL13" s="246"/>
-      <c r="AM13" s="246"/>
-      <c r="AN13" s="246"/>
-      <c r="AO13" s="246"/>
-      <c r="AP13" s="246"/>
-      <c r="AQ13" s="246"/>
-      <c r="AR13" s="246"/>
-      <c r="AS13" s="246"/>
-      <c r="AT13" s="246"/>
-      <c r="AU13" s="246"/>
-      <c r="AV13" s="246"/>
+      <c r="C13" s="243"/>
+      <c r="D13" s="243"/>
+      <c r="E13" s="243"/>
+      <c r="F13" s="243"/>
+      <c r="G13" s="243"/>
+      <c r="H13" s="243"/>
+      <c r="I13" s="243"/>
+      <c r="J13" s="243"/>
+      <c r="K13" s="243"/>
+      <c r="L13" s="243"/>
+      <c r="M13" s="243"/>
+      <c r="N13" s="243"/>
+      <c r="O13" s="243"/>
+      <c r="P13" s="243"/>
+      <c r="Q13" s="243"/>
+      <c r="R13" s="243"/>
+      <c r="S13" s="243"/>
+      <c r="T13" s="243"/>
+      <c r="U13" s="243"/>
+      <c r="V13" s="243"/>
+      <c r="W13" s="243"/>
+      <c r="X13" s="243"/>
+      <c r="Y13" s="243"/>
+      <c r="Z13" s="243"/>
+      <c r="AA13" s="243"/>
+      <c r="AB13" s="243"/>
+      <c r="AC13" s="243"/>
+      <c r="AD13" s="243"/>
+      <c r="AE13" s="243"/>
+      <c r="AF13" s="243"/>
+      <c r="AG13" s="243"/>
+      <c r="AH13" s="243"/>
+      <c r="AI13" s="243"/>
+      <c r="AJ13" s="243"/>
+      <c r="AK13" s="243"/>
+      <c r="AL13" s="243"/>
+      <c r="AM13" s="243"/>
+      <c r="AN13" s="243"/>
+      <c r="AO13" s="243"/>
+      <c r="AP13" s="243"/>
+      <c r="AQ13" s="243"/>
+      <c r="AR13" s="243"/>
+      <c r="AS13" s="243"/>
+      <c r="AT13" s="243"/>
+      <c r="AU13" s="243"/>
+      <c r="AV13" s="243"/>
       <c r="AW13" s="137"/>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A14" s="14"/>
-      <c r="B14" s="246"/>
-      <c r="C14" s="246"/>
-      <c r="D14" s="246"/>
-      <c r="E14" s="246"/>
-      <c r="F14" s="246"/>
-      <c r="G14" s="246"/>
-      <c r="H14" s="246"/>
-      <c r="I14" s="246"/>
-      <c r="J14" s="246"/>
-      <c r="K14" s="246"/>
-      <c r="L14" s="246"/>
-      <c r="M14" s="246"/>
-      <c r="N14" s="246"/>
-      <c r="O14" s="246"/>
-      <c r="P14" s="246"/>
-      <c r="Q14" s="246"/>
-      <c r="R14" s="246"/>
-      <c r="S14" s="246"/>
-      <c r="T14" s="246"/>
-      <c r="U14" s="246"/>
-      <c r="V14" s="246"/>
-      <c r="W14" s="246"/>
-      <c r="X14" s="246"/>
-      <c r="Y14" s="246"/>
-      <c r="Z14" s="246"/>
-      <c r="AA14" s="246"/>
-      <c r="AB14" s="246"/>
-      <c r="AC14" s="246"/>
-      <c r="AD14" s="246"/>
-      <c r="AE14" s="246"/>
-      <c r="AF14" s="246"/>
-      <c r="AG14" s="246"/>
-      <c r="AH14" s="246"/>
-      <c r="AI14" s="246"/>
-      <c r="AJ14" s="246"/>
-      <c r="AK14" s="246"/>
-      <c r="AL14" s="246"/>
-      <c r="AM14" s="246"/>
-      <c r="AN14" s="246"/>
-      <c r="AO14" s="246"/>
-      <c r="AP14" s="246"/>
-      <c r="AQ14" s="246"/>
-      <c r="AR14" s="246"/>
-      <c r="AS14" s="246"/>
-      <c r="AT14" s="246"/>
-      <c r="AU14" s="246"/>
-      <c r="AV14" s="246"/>
+      <c r="B14" s="243"/>
+      <c r="C14" s="243"/>
+      <c r="D14" s="243"/>
+      <c r="E14" s="243"/>
+      <c r="F14" s="243"/>
+      <c r="G14" s="243"/>
+      <c r="H14" s="243"/>
+      <c r="I14" s="243"/>
+      <c r="J14" s="243"/>
+      <c r="K14" s="243"/>
+      <c r="L14" s="243"/>
+      <c r="M14" s="243"/>
+      <c r="N14" s="243"/>
+      <c r="O14" s="243"/>
+      <c r="P14" s="243"/>
+      <c r="Q14" s="243"/>
+      <c r="R14" s="243"/>
+      <c r="S14" s="243"/>
+      <c r="T14" s="243"/>
+      <c r="U14" s="243"/>
+      <c r="V14" s="243"/>
+      <c r="W14" s="243"/>
+      <c r="X14" s="243"/>
+      <c r="Y14" s="243"/>
+      <c r="Z14" s="243"/>
+      <c r="AA14" s="243"/>
+      <c r="AB14" s="243"/>
+      <c r="AC14" s="243"/>
+      <c r="AD14" s="243"/>
+      <c r="AE14" s="243"/>
+      <c r="AF14" s="243"/>
+      <c r="AG14" s="243"/>
+      <c r="AH14" s="243"/>
+      <c r="AI14" s="243"/>
+      <c r="AJ14" s="243"/>
+      <c r="AK14" s="243"/>
+      <c r="AL14" s="243"/>
+      <c r="AM14" s="243"/>
+      <c r="AN14" s="243"/>
+      <c r="AO14" s="243"/>
+      <c r="AP14" s="243"/>
+      <c r="AQ14" s="243"/>
+      <c r="AR14" s="243"/>
+      <c r="AS14" s="243"/>
+      <c r="AT14" s="243"/>
+      <c r="AU14" s="243"/>
+      <c r="AV14" s="243"/>
       <c r="AW14" s="137"/>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A15" s="14"/>
-      <c r="B15" s="246"/>
-      <c r="C15" s="246"/>
-      <c r="D15" s="246"/>
-      <c r="E15" s="246"/>
-      <c r="F15" s="246"/>
-      <c r="G15" s="246"/>
-      <c r="H15" s="246"/>
-      <c r="I15" s="246"/>
-      <c r="J15" s="246"/>
-      <c r="K15" s="246"/>
-      <c r="L15" s="246"/>
-      <c r="M15" s="246"/>
-      <c r="N15" s="246"/>
-      <c r="O15" s="246"/>
-      <c r="P15" s="246"/>
-      <c r="Q15" s="246"/>
-      <c r="R15" s="246"/>
-      <c r="S15" s="246"/>
-      <c r="T15" s="246"/>
-      <c r="U15" s="246"/>
-      <c r="V15" s="246"/>
-      <c r="W15" s="246"/>
-      <c r="X15" s="246"/>
-      <c r="Y15" s="246"/>
-      <c r="Z15" s="246"/>
-      <c r="AA15" s="246"/>
-      <c r="AB15" s="246"/>
-      <c r="AC15" s="246"/>
-      <c r="AD15" s="246"/>
-      <c r="AE15" s="246"/>
-      <c r="AF15" s="246"/>
-      <c r="AG15" s="246"/>
-      <c r="AH15" s="246"/>
-      <c r="AI15" s="246"/>
-      <c r="AJ15" s="246"/>
-      <c r="AK15" s="246"/>
-      <c r="AL15" s="246"/>
-      <c r="AM15" s="246"/>
-      <c r="AN15" s="246"/>
-      <c r="AO15" s="246"/>
-      <c r="AP15" s="246"/>
-      <c r="AQ15" s="246"/>
-      <c r="AR15" s="246"/>
-      <c r="AS15" s="246"/>
-      <c r="AT15" s="246"/>
-      <c r="AU15" s="246"/>
-      <c r="AV15" s="246"/>
+      <c r="B15" s="243"/>
+      <c r="C15" s="243"/>
+      <c r="D15" s="243"/>
+      <c r="E15" s="243"/>
+      <c r="F15" s="243"/>
+      <c r="G15" s="243"/>
+      <c r="H15" s="243"/>
+      <c r="I15" s="243"/>
+      <c r="J15" s="243"/>
+      <c r="K15" s="243"/>
+      <c r="L15" s="243"/>
+      <c r="M15" s="243"/>
+      <c r="N15" s="243"/>
+      <c r="O15" s="243"/>
+      <c r="P15" s="243"/>
+      <c r="Q15" s="243"/>
+      <c r="R15" s="243"/>
+      <c r="S15" s="243"/>
+      <c r="T15" s="243"/>
+      <c r="U15" s="243"/>
+      <c r="V15" s="243"/>
+      <c r="W15" s="243"/>
+      <c r="X15" s="243"/>
+      <c r="Y15" s="243"/>
+      <c r="Z15" s="243"/>
+      <c r="AA15" s="243"/>
+      <c r="AB15" s="243"/>
+      <c r="AC15" s="243"/>
+      <c r="AD15" s="243"/>
+      <c r="AE15" s="243"/>
+      <c r="AF15" s="243"/>
+      <c r="AG15" s="243"/>
+      <c r="AH15" s="243"/>
+      <c r="AI15" s="243"/>
+      <c r="AJ15" s="243"/>
+      <c r="AK15" s="243"/>
+      <c r="AL15" s="243"/>
+      <c r="AM15" s="243"/>
+      <c r="AN15" s="243"/>
+      <c r="AO15" s="243"/>
+      <c r="AP15" s="243"/>
+      <c r="AQ15" s="243"/>
+      <c r="AR15" s="243"/>
+      <c r="AS15" s="243"/>
+      <c r="AT15" s="243"/>
+      <c r="AU15" s="243"/>
+      <c r="AV15" s="243"/>
       <c r="AW15" s="137"/>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A16" s="14"/>
-      <c r="B16" s="246"/>
-      <c r="C16" s="246"/>
-      <c r="D16" s="246"/>
-      <c r="E16" s="246"/>
-      <c r="F16" s="246"/>
-      <c r="G16" s="246"/>
-      <c r="H16" s="246"/>
-      <c r="I16" s="246"/>
-      <c r="J16" s="246"/>
-      <c r="K16" s="246"/>
-      <c r="L16" s="246"/>
-      <c r="M16" s="246"/>
-      <c r="N16" s="246"/>
-      <c r="O16" s="246"/>
-      <c r="P16" s="246"/>
-      <c r="Q16" s="246"/>
-      <c r="R16" s="246"/>
-      <c r="S16" s="246"/>
-      <c r="T16" s="246"/>
-      <c r="U16" s="246"/>
-      <c r="V16" s="246"/>
-      <c r="W16" s="246"/>
-      <c r="X16" s="246"/>
-      <c r="Y16" s="246"/>
-      <c r="Z16" s="246"/>
-      <c r="AA16" s="246"/>
-      <c r="AB16" s="246"/>
-      <c r="AC16" s="246"/>
-      <c r="AD16" s="246"/>
-      <c r="AE16" s="246"/>
-      <c r="AF16" s="246"/>
-      <c r="AG16" s="246"/>
-      <c r="AH16" s="246"/>
-      <c r="AI16" s="246"/>
-      <c r="AJ16" s="246"/>
-      <c r="AK16" s="246"/>
-      <c r="AL16" s="246"/>
-      <c r="AM16" s="246"/>
-      <c r="AN16" s="246"/>
-      <c r="AO16" s="246"/>
-      <c r="AP16" s="246"/>
-      <c r="AQ16" s="246"/>
-      <c r="AR16" s="246"/>
-      <c r="AS16" s="246"/>
-      <c r="AT16" s="246"/>
-      <c r="AU16" s="246"/>
-      <c r="AV16" s="246"/>
+      <c r="B16" s="243"/>
+      <c r="C16" s="243"/>
+      <c r="D16" s="243"/>
+      <c r="E16" s="243"/>
+      <c r="F16" s="243"/>
+      <c r="G16" s="243"/>
+      <c r="H16" s="243"/>
+      <c r="I16" s="243"/>
+      <c r="J16" s="243"/>
+      <c r="K16" s="243"/>
+      <c r="L16" s="243"/>
+      <c r="M16" s="243"/>
+      <c r="N16" s="243"/>
+      <c r="O16" s="243"/>
+      <c r="P16" s="243"/>
+      <c r="Q16" s="243"/>
+      <c r="R16" s="243"/>
+      <c r="S16" s="243"/>
+      <c r="T16" s="243"/>
+      <c r="U16" s="243"/>
+      <c r="V16" s="243"/>
+      <c r="W16" s="243"/>
+      <c r="X16" s="243"/>
+      <c r="Y16" s="243"/>
+      <c r="Z16" s="243"/>
+      <c r="AA16" s="243"/>
+      <c r="AB16" s="243"/>
+      <c r="AC16" s="243"/>
+      <c r="AD16" s="243"/>
+      <c r="AE16" s="243"/>
+      <c r="AF16" s="243"/>
+      <c r="AG16" s="243"/>
+      <c r="AH16" s="243"/>
+      <c r="AI16" s="243"/>
+      <c r="AJ16" s="243"/>
+      <c r="AK16" s="243"/>
+      <c r="AL16" s="243"/>
+      <c r="AM16" s="243"/>
+      <c r="AN16" s="243"/>
+      <c r="AO16" s="243"/>
+      <c r="AP16" s="243"/>
+      <c r="AQ16" s="243"/>
+      <c r="AR16" s="243"/>
+      <c r="AS16" s="243"/>
+      <c r="AT16" s="243"/>
+      <c r="AU16" s="243"/>
+      <c r="AV16" s="243"/>
       <c r="AW16" s="137"/>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A17" s="14"/>
-      <c r="B17" s="246"/>
-      <c r="C17" s="246"/>
-      <c r="D17" s="246"/>
-      <c r="E17" s="246"/>
-      <c r="F17" s="246"/>
-      <c r="G17" s="246"/>
-      <c r="H17" s="246"/>
-      <c r="I17" s="246"/>
-      <c r="J17" s="246"/>
-      <c r="K17" s="246"/>
-      <c r="L17" s="246"/>
-      <c r="M17" s="246"/>
-      <c r="N17" s="246"/>
-      <c r="O17" s="246"/>
-      <c r="P17" s="246"/>
-      <c r="Q17" s="246"/>
-      <c r="R17" s="246"/>
-      <c r="S17" s="246"/>
-      <c r="T17" s="246"/>
-      <c r="U17" s="246"/>
-      <c r="V17" s="246"/>
-      <c r="W17" s="246"/>
-      <c r="X17" s="246"/>
-      <c r="Y17" s="246"/>
-      <c r="Z17" s="246"/>
-      <c r="AA17" s="246"/>
-      <c r="AB17" s="246"/>
-      <c r="AC17" s="246"/>
-      <c r="AD17" s="246"/>
-      <c r="AE17" s="246"/>
-      <c r="AF17" s="246"/>
-      <c r="AG17" s="246"/>
-      <c r="AH17" s="246"/>
-      <c r="AI17" s="246"/>
-      <c r="AJ17" s="246"/>
-      <c r="AK17" s="246"/>
-      <c r="AL17" s="246"/>
-      <c r="AM17" s="246"/>
-      <c r="AN17" s="246"/>
-      <c r="AO17" s="246"/>
-      <c r="AP17" s="246"/>
-      <c r="AQ17" s="246"/>
-      <c r="AR17" s="246"/>
-      <c r="AS17" s="246"/>
-      <c r="AT17" s="246"/>
-      <c r="AU17" s="246"/>
-      <c r="AV17" s="246"/>
+      <c r="B17" s="243"/>
+      <c r="C17" s="243"/>
+      <c r="D17" s="243"/>
+      <c r="E17" s="243"/>
+      <c r="F17" s="243"/>
+      <c r="G17" s="243"/>
+      <c r="H17" s="243"/>
+      <c r="I17" s="243"/>
+      <c r="J17" s="243"/>
+      <c r="K17" s="243"/>
+      <c r="L17" s="243"/>
+      <c r="M17" s="243"/>
+      <c r="N17" s="243"/>
+      <c r="O17" s="243"/>
+      <c r="P17" s="243"/>
+      <c r="Q17" s="243"/>
+      <c r="R17" s="243"/>
+      <c r="S17" s="243"/>
+      <c r="T17" s="243"/>
+      <c r="U17" s="243"/>
+      <c r="V17" s="243"/>
+      <c r="W17" s="243"/>
+      <c r="X17" s="243"/>
+      <c r="Y17" s="243"/>
+      <c r="Z17" s="243"/>
+      <c r="AA17" s="243"/>
+      <c r="AB17" s="243"/>
+      <c r="AC17" s="243"/>
+      <c r="AD17" s="243"/>
+      <c r="AE17" s="243"/>
+      <c r="AF17" s="243"/>
+      <c r="AG17" s="243"/>
+      <c r="AH17" s="243"/>
+      <c r="AI17" s="243"/>
+      <c r="AJ17" s="243"/>
+      <c r="AK17" s="243"/>
+      <c r="AL17" s="243"/>
+      <c r="AM17" s="243"/>
+      <c r="AN17" s="243"/>
+      <c r="AO17" s="243"/>
+      <c r="AP17" s="243"/>
+      <c r="AQ17" s="243"/>
+      <c r="AR17" s="243"/>
+      <c r="AS17" s="243"/>
+      <c r="AT17" s="243"/>
+      <c r="AU17" s="243"/>
+      <c r="AV17" s="243"/>
       <c r="AW17" s="137"/>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="1:49">
@@ -16537,208 +16528,208 @@
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A23" s="14"/>
-      <c r="B23" s="247" t="s">
+      <c r="B23" s="244" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="247"/>
-      <c r="D23" s="247"/>
-      <c r="E23" s="247"/>
-      <c r="F23" s="247"/>
-      <c r="G23" s="247"/>
-      <c r="H23" s="247"/>
-      <c r="I23" s="247"/>
-      <c r="J23" s="247"/>
-      <c r="K23" s="247"/>
-      <c r="L23" s="247"/>
-      <c r="M23" s="247"/>
-      <c r="N23" s="247"/>
-      <c r="O23" s="247"/>
-      <c r="P23" s="247"/>
-      <c r="Q23" s="247"/>
-      <c r="R23" s="247"/>
-      <c r="S23" s="247"/>
-      <c r="T23" s="247"/>
-      <c r="U23" s="247"/>
-      <c r="V23" s="247"/>
-      <c r="W23" s="247"/>
-      <c r="X23" s="247"/>
-      <c r="Y23" s="247"/>
-      <c r="Z23" s="247"/>
-      <c r="AA23" s="247"/>
-      <c r="AB23" s="247"/>
-      <c r="AC23" s="247"/>
-      <c r="AD23" s="247"/>
-      <c r="AE23" s="247"/>
-      <c r="AF23" s="247"/>
-      <c r="AG23" s="247"/>
-      <c r="AH23" s="247"/>
-      <c r="AI23" s="247"/>
-      <c r="AJ23" s="247"/>
-      <c r="AK23" s="247"/>
-      <c r="AL23" s="247"/>
-      <c r="AM23" s="247"/>
-      <c r="AN23" s="247"/>
-      <c r="AO23" s="247"/>
-      <c r="AP23" s="247"/>
-      <c r="AQ23" s="247"/>
-      <c r="AR23" s="247"/>
-      <c r="AS23" s="247"/>
-      <c r="AT23" s="247"/>
-      <c r="AU23" s="247"/>
-      <c r="AV23" s="247"/>
+      <c r="C23" s="244"/>
+      <c r="D23" s="244"/>
+      <c r="E23" s="244"/>
+      <c r="F23" s="244"/>
+      <c r="G23" s="244"/>
+      <c r="H23" s="244"/>
+      <c r="I23" s="244"/>
+      <c r="J23" s="244"/>
+      <c r="K23" s="244"/>
+      <c r="L23" s="244"/>
+      <c r="M23" s="244"/>
+      <c r="N23" s="244"/>
+      <c r="O23" s="244"/>
+      <c r="P23" s="244"/>
+      <c r="Q23" s="244"/>
+      <c r="R23" s="244"/>
+      <c r="S23" s="244"/>
+      <c r="T23" s="244"/>
+      <c r="U23" s="244"/>
+      <c r="V23" s="244"/>
+      <c r="W23" s="244"/>
+      <c r="X23" s="244"/>
+      <c r="Y23" s="244"/>
+      <c r="Z23" s="244"/>
+      <c r="AA23" s="244"/>
+      <c r="AB23" s="244"/>
+      <c r="AC23" s="244"/>
+      <c r="AD23" s="244"/>
+      <c r="AE23" s="244"/>
+      <c r="AF23" s="244"/>
+      <c r="AG23" s="244"/>
+      <c r="AH23" s="244"/>
+      <c r="AI23" s="244"/>
+      <c r="AJ23" s="244"/>
+      <c r="AK23" s="244"/>
+      <c r="AL23" s="244"/>
+      <c r="AM23" s="244"/>
+      <c r="AN23" s="244"/>
+      <c r="AO23" s="244"/>
+      <c r="AP23" s="244"/>
+      <c r="AQ23" s="244"/>
+      <c r="AR23" s="244"/>
+      <c r="AS23" s="244"/>
+      <c r="AT23" s="244"/>
+      <c r="AU23" s="244"/>
+      <c r="AV23" s="244"/>
       <c r="AW23" s="137"/>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A24" s="14"/>
-      <c r="B24" s="247"/>
-      <c r="C24" s="247"/>
-      <c r="D24" s="247"/>
-      <c r="E24" s="247"/>
-      <c r="F24" s="247"/>
-      <c r="G24" s="247"/>
-      <c r="H24" s="247"/>
-      <c r="I24" s="247"/>
-      <c r="J24" s="247"/>
-      <c r="K24" s="247"/>
-      <c r="L24" s="247"/>
-      <c r="M24" s="247"/>
-      <c r="N24" s="247"/>
-      <c r="O24" s="247"/>
-      <c r="P24" s="247"/>
-      <c r="Q24" s="247"/>
-      <c r="R24" s="247"/>
-      <c r="S24" s="247"/>
-      <c r="T24" s="247"/>
-      <c r="U24" s="247"/>
-      <c r="V24" s="247"/>
-      <c r="W24" s="247"/>
-      <c r="X24" s="247"/>
-      <c r="Y24" s="247"/>
-      <c r="Z24" s="247"/>
-      <c r="AA24" s="247"/>
-      <c r="AB24" s="247"/>
-      <c r="AC24" s="247"/>
-      <c r="AD24" s="247"/>
-      <c r="AE24" s="247"/>
-      <c r="AF24" s="247"/>
-      <c r="AG24" s="247"/>
-      <c r="AH24" s="247"/>
-      <c r="AI24" s="247"/>
-      <c r="AJ24" s="247"/>
-      <c r="AK24" s="247"/>
-      <c r="AL24" s="247"/>
-      <c r="AM24" s="247"/>
-      <c r="AN24" s="247"/>
-      <c r="AO24" s="247"/>
-      <c r="AP24" s="247"/>
-      <c r="AQ24" s="247"/>
-      <c r="AR24" s="247"/>
-      <c r="AS24" s="247"/>
-      <c r="AT24" s="247"/>
-      <c r="AU24" s="247"/>
-      <c r="AV24" s="247"/>
+      <c r="B24" s="244"/>
+      <c r="C24" s="244"/>
+      <c r="D24" s="244"/>
+      <c r="E24" s="244"/>
+      <c r="F24" s="244"/>
+      <c r="G24" s="244"/>
+      <c r="H24" s="244"/>
+      <c r="I24" s="244"/>
+      <c r="J24" s="244"/>
+      <c r="K24" s="244"/>
+      <c r="L24" s="244"/>
+      <c r="M24" s="244"/>
+      <c r="N24" s="244"/>
+      <c r="O24" s="244"/>
+      <c r="P24" s="244"/>
+      <c r="Q24" s="244"/>
+      <c r="R24" s="244"/>
+      <c r="S24" s="244"/>
+      <c r="T24" s="244"/>
+      <c r="U24" s="244"/>
+      <c r="V24" s="244"/>
+      <c r="W24" s="244"/>
+      <c r="X24" s="244"/>
+      <c r="Y24" s="244"/>
+      <c r="Z24" s="244"/>
+      <c r="AA24" s="244"/>
+      <c r="AB24" s="244"/>
+      <c r="AC24" s="244"/>
+      <c r="AD24" s="244"/>
+      <c r="AE24" s="244"/>
+      <c r="AF24" s="244"/>
+      <c r="AG24" s="244"/>
+      <c r="AH24" s="244"/>
+      <c r="AI24" s="244"/>
+      <c r="AJ24" s="244"/>
+      <c r="AK24" s="244"/>
+      <c r="AL24" s="244"/>
+      <c r="AM24" s="244"/>
+      <c r="AN24" s="244"/>
+      <c r="AO24" s="244"/>
+      <c r="AP24" s="244"/>
+      <c r="AQ24" s="244"/>
+      <c r="AR24" s="244"/>
+      <c r="AS24" s="244"/>
+      <c r="AT24" s="244"/>
+      <c r="AU24" s="244"/>
+      <c r="AV24" s="244"/>
       <c r="AW24" s="137"/>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A25" s="14"/>
-      <c r="B25" s="247"/>
-      <c r="C25" s="247"/>
-      <c r="D25" s="247"/>
-      <c r="E25" s="247"/>
-      <c r="F25" s="247"/>
-      <c r="G25" s="247"/>
-      <c r="H25" s="247"/>
-      <c r="I25" s="247"/>
-      <c r="J25" s="247"/>
-      <c r="K25" s="247"/>
-      <c r="L25" s="247"/>
-      <c r="M25" s="247"/>
-      <c r="N25" s="247"/>
-      <c r="O25" s="247"/>
-      <c r="P25" s="247"/>
-      <c r="Q25" s="247"/>
-      <c r="R25" s="247"/>
-      <c r="S25" s="247"/>
-      <c r="T25" s="247"/>
-      <c r="U25" s="247"/>
-      <c r="V25" s="247"/>
-      <c r="W25" s="247"/>
-      <c r="X25" s="247"/>
-      <c r="Y25" s="247"/>
-      <c r="Z25" s="247"/>
-      <c r="AA25" s="247"/>
-      <c r="AB25" s="247"/>
-      <c r="AC25" s="247"/>
-      <c r="AD25" s="247"/>
-      <c r="AE25" s="247"/>
-      <c r="AF25" s="247"/>
-      <c r="AG25" s="247"/>
-      <c r="AH25" s="247"/>
-      <c r="AI25" s="247"/>
-      <c r="AJ25" s="247"/>
-      <c r="AK25" s="247"/>
-      <c r="AL25" s="247"/>
-      <c r="AM25" s="247"/>
-      <c r="AN25" s="247"/>
-      <c r="AO25" s="247"/>
-      <c r="AP25" s="247"/>
-      <c r="AQ25" s="247"/>
-      <c r="AR25" s="247"/>
-      <c r="AS25" s="247"/>
-      <c r="AT25" s="247"/>
-      <c r="AU25" s="247"/>
-      <c r="AV25" s="247"/>
+      <c r="B25" s="244"/>
+      <c r="C25" s="244"/>
+      <c r="D25" s="244"/>
+      <c r="E25" s="244"/>
+      <c r="F25" s="244"/>
+      <c r="G25" s="244"/>
+      <c r="H25" s="244"/>
+      <c r="I25" s="244"/>
+      <c r="J25" s="244"/>
+      <c r="K25" s="244"/>
+      <c r="L25" s="244"/>
+      <c r="M25" s="244"/>
+      <c r="N25" s="244"/>
+      <c r="O25" s="244"/>
+      <c r="P25" s="244"/>
+      <c r="Q25" s="244"/>
+      <c r="R25" s="244"/>
+      <c r="S25" s="244"/>
+      <c r="T25" s="244"/>
+      <c r="U25" s="244"/>
+      <c r="V25" s="244"/>
+      <c r="W25" s="244"/>
+      <c r="X25" s="244"/>
+      <c r="Y25" s="244"/>
+      <c r="Z25" s="244"/>
+      <c r="AA25" s="244"/>
+      <c r="AB25" s="244"/>
+      <c r="AC25" s="244"/>
+      <c r="AD25" s="244"/>
+      <c r="AE25" s="244"/>
+      <c r="AF25" s="244"/>
+      <c r="AG25" s="244"/>
+      <c r="AH25" s="244"/>
+      <c r="AI25" s="244"/>
+      <c r="AJ25" s="244"/>
+      <c r="AK25" s="244"/>
+      <c r="AL25" s="244"/>
+      <c r="AM25" s="244"/>
+      <c r="AN25" s="244"/>
+      <c r="AO25" s="244"/>
+      <c r="AP25" s="244"/>
+      <c r="AQ25" s="244"/>
+      <c r="AR25" s="244"/>
+      <c r="AS25" s="244"/>
+      <c r="AT25" s="244"/>
+      <c r="AU25" s="244"/>
+      <c r="AV25" s="244"/>
       <c r="AW25" s="137"/>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A26" s="14"/>
-      <c r="B26" s="247"/>
-      <c r="C26" s="247"/>
-      <c r="D26" s="247"/>
-      <c r="E26" s="247"/>
-      <c r="F26" s="247"/>
-      <c r="G26" s="247"/>
-      <c r="H26" s="247"/>
-      <c r="I26" s="247"/>
-      <c r="J26" s="247"/>
-      <c r="K26" s="247"/>
-      <c r="L26" s="247"/>
-      <c r="M26" s="247"/>
-      <c r="N26" s="247"/>
-      <c r="O26" s="247"/>
-      <c r="P26" s="247"/>
-      <c r="Q26" s="247"/>
-      <c r="R26" s="247"/>
-      <c r="S26" s="247"/>
-      <c r="T26" s="247"/>
-      <c r="U26" s="247"/>
-      <c r="V26" s="247"/>
-      <c r="W26" s="247"/>
-      <c r="X26" s="247"/>
-      <c r="Y26" s="247"/>
-      <c r="Z26" s="247"/>
-      <c r="AA26" s="247"/>
-      <c r="AB26" s="247"/>
-      <c r="AC26" s="247"/>
-      <c r="AD26" s="247"/>
-      <c r="AE26" s="247"/>
-      <c r="AF26" s="247"/>
-      <c r="AG26" s="247"/>
-      <c r="AH26" s="247"/>
-      <c r="AI26" s="247"/>
-      <c r="AJ26" s="247"/>
-      <c r="AK26" s="247"/>
-      <c r="AL26" s="247"/>
-      <c r="AM26" s="247"/>
-      <c r="AN26" s="247"/>
-      <c r="AO26" s="247"/>
-      <c r="AP26" s="247"/>
-      <c r="AQ26" s="247"/>
-      <c r="AR26" s="247"/>
-      <c r="AS26" s="247"/>
-      <c r="AT26" s="247"/>
-      <c r="AU26" s="247"/>
-      <c r="AV26" s="247"/>
+      <c r="B26" s="244"/>
+      <c r="C26" s="244"/>
+      <c r="D26" s="244"/>
+      <c r="E26" s="244"/>
+      <c r="F26" s="244"/>
+      <c r="G26" s="244"/>
+      <c r="H26" s="244"/>
+      <c r="I26" s="244"/>
+      <c r="J26" s="244"/>
+      <c r="K26" s="244"/>
+      <c r="L26" s="244"/>
+      <c r="M26" s="244"/>
+      <c r="N26" s="244"/>
+      <c r="O26" s="244"/>
+      <c r="P26" s="244"/>
+      <c r="Q26" s="244"/>
+      <c r="R26" s="244"/>
+      <c r="S26" s="244"/>
+      <c r="T26" s="244"/>
+      <c r="U26" s="244"/>
+      <c r="V26" s="244"/>
+      <c r="W26" s="244"/>
+      <c r="X26" s="244"/>
+      <c r="Y26" s="244"/>
+      <c r="Z26" s="244"/>
+      <c r="AA26" s="244"/>
+      <c r="AB26" s="244"/>
+      <c r="AC26" s="244"/>
+      <c r="AD26" s="244"/>
+      <c r="AE26" s="244"/>
+      <c r="AF26" s="244"/>
+      <c r="AG26" s="244"/>
+      <c r="AH26" s="244"/>
+      <c r="AI26" s="244"/>
+      <c r="AJ26" s="244"/>
+      <c r="AK26" s="244"/>
+      <c r="AL26" s="244"/>
+      <c r="AM26" s="244"/>
+      <c r="AN26" s="244"/>
+      <c r="AO26" s="244"/>
+      <c r="AP26" s="244"/>
+      <c r="AQ26" s="244"/>
+      <c r="AR26" s="244"/>
+      <c r="AS26" s="244"/>
+      <c r="AT26" s="244"/>
+      <c r="AU26" s="244"/>
+      <c r="AV26" s="244"/>
       <c r="AW26" s="137"/>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="1:49">
@@ -16912,7 +16903,7 @@
       <c r="O30" s="19"/>
       <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
-      <c r="R30" s="300" t="s">
+      <c r="R30" s="297" t="s">
         <v>16</v>
       </c>
       <c r="S30" s="117"/>
@@ -16923,7 +16914,7 @@
       <c r="X30" s="117"/>
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
-      <c r="AA30" s="300" t="s">
+      <c r="AA30" s="297" t="s">
         <v>17</v>
       </c>
       <c r="AB30" s="117"/>
@@ -16967,7 +16958,7 @@
       <c r="O31" s="19"/>
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
-      <c r="R31" s="300" t="s">
+      <c r="R31" s="297" t="s">
         <v>18</v>
       </c>
       <c r="S31" s="117"/>
@@ -16978,7 +16969,7 @@
       <c r="X31" s="117"/>
       <c r="Y31" s="19"/>
       <c r="Z31" s="117"/>
-      <c r="AA31" s="300" t="s">
+      <c r="AA31" s="297" t="s">
         <v>19</v>
       </c>
       <c r="AB31" s="117"/>
@@ -17022,7 +17013,7 @@
       <c r="O32" s="19"/>
       <c r="P32" s="19"/>
       <c r="Q32" s="19"/>
-      <c r="R32" s="300" t="s">
+      <c r="R32" s="297" t="s">
         <v>20</v>
       </c>
       <c r="S32" s="117"/>
@@ -17033,7 +17024,7 @@
       <c r="X32" s="117"/>
       <c r="Y32" s="19"/>
       <c r="Z32" s="117"/>
-      <c r="AA32" s="300" t="s">
+      <c r="AA32" s="297" t="s">
         <v>21</v>
       </c>
       <c r="AB32" s="117"/>
@@ -17077,7 +17068,7 @@
       <c r="O33" s="19"/>
       <c r="P33" s="19"/>
       <c r="Q33" s="19"/>
-      <c r="R33" s="300" t="s">
+      <c r="R33" s="297" t="s">
         <v>22</v>
       </c>
       <c r="S33" s="117"/>
@@ -17132,7 +17123,7 @@
       <c r="O34" s="19"/>
       <c r="P34" s="19"/>
       <c r="Q34" s="19"/>
-      <c r="R34" s="300" t="s">
+      <c r="R34" s="297" t="s">
         <v>24</v>
       </c>
       <c r="S34" s="117"/>
@@ -17185,7 +17176,7 @@
       <c r="O35" s="19"/>
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
-      <c r="R35" s="300" t="s">
+      <c r="R35" s="297" t="s">
         <v>25</v>
       </c>
       <c r="S35" s="117"/>
@@ -17425,57 +17416,57 @@
       <c r="AW39" s="137"/>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="1:49">
-      <c r="A40" s="248"/>
-      <c r="B40" s="249"/>
-      <c r="C40" s="249"/>
-      <c r="D40" s="249"/>
-      <c r="E40" s="249"/>
-      <c r="F40" s="249"/>
-      <c r="G40" s="249"/>
-      <c r="H40" s="249"/>
-      <c r="I40" s="249"/>
-      <c r="J40" s="249"/>
-      <c r="K40" s="249"/>
-      <c r="L40" s="249"/>
-      <c r="M40" s="249"/>
-      <c r="N40" s="249"/>
-      <c r="O40" s="249"/>
-      <c r="P40" s="249"/>
-      <c r="Q40" s="249"/>
-      <c r="R40" s="249"/>
-      <c r="S40" s="249"/>
-      <c r="T40" s="249"/>
-      <c r="U40" s="249"/>
-      <c r="V40" s="249"/>
-      <c r="W40" s="249"/>
-      <c r="X40" s="249"/>
-      <c r="Y40" s="249"/>
-      <c r="Z40" s="249"/>
-      <c r="AA40" s="249"/>
-      <c r="AB40" s="249"/>
-      <c r="AC40" s="249"/>
-      <c r="AD40" s="249"/>
-      <c r="AE40" s="249"/>
-      <c r="AF40" s="249"/>
-      <c r="AG40" s="249"/>
-      <c r="AH40" s="249"/>
-      <c r="AI40" s="249"/>
-      <c r="AJ40" s="249"/>
-      <c r="AK40" s="249"/>
-      <c r="AL40" s="249"/>
-      <c r="AM40" s="249"/>
-      <c r="AN40" s="249"/>
-      <c r="AO40" s="249"/>
-      <c r="AP40" s="249"/>
-      <c r="AQ40" s="249"/>
-      <c r="AR40" s="249"/>
-      <c r="AS40" s="249"/>
-      <c r="AT40" s="249"/>
-      <c r="AU40" s="249"/>
-      <c r="AV40" s="249"/>
-      <c r="AW40" s="332"/>
+      <c r="A40" s="245"/>
+      <c r="B40" s="246"/>
+      <c r="C40" s="246"/>
+      <c r="D40" s="246"/>
+      <c r="E40" s="246"/>
+      <c r="F40" s="246"/>
+      <c r="G40" s="246"/>
+      <c r="H40" s="246"/>
+      <c r="I40" s="246"/>
+      <c r="J40" s="246"/>
+      <c r="K40" s="246"/>
+      <c r="L40" s="246"/>
+      <c r="M40" s="246"/>
+      <c r="N40" s="246"/>
+      <c r="O40" s="246"/>
+      <c r="P40" s="246"/>
+      <c r="Q40" s="246"/>
+      <c r="R40" s="246"/>
+      <c r="S40" s="246"/>
+      <c r="T40" s="246"/>
+      <c r="U40" s="246"/>
+      <c r="V40" s="246"/>
+      <c r="W40" s="246"/>
+      <c r="X40" s="246"/>
+      <c r="Y40" s="246"/>
+      <c r="Z40" s="246"/>
+      <c r="AA40" s="246"/>
+      <c r="AB40" s="246"/>
+      <c r="AC40" s="246"/>
+      <c r="AD40" s="246"/>
+      <c r="AE40" s="246"/>
+      <c r="AF40" s="246"/>
+      <c r="AG40" s="246"/>
+      <c r="AH40" s="246"/>
+      <c r="AI40" s="246"/>
+      <c r="AJ40" s="246"/>
+      <c r="AK40" s="246"/>
+      <c r="AL40" s="246"/>
+      <c r="AM40" s="246"/>
+      <c r="AN40" s="246"/>
+      <c r="AO40" s="246"/>
+      <c r="AP40" s="246"/>
+      <c r="AQ40" s="246"/>
+      <c r="AR40" s="246"/>
+      <c r="AS40" s="246"/>
+      <c r="AT40" s="246"/>
+      <c r="AU40" s="246"/>
+      <c r="AV40" s="246"/>
+      <c r="AW40" s="329"/>
     </row>
-    <row r="41" s="244" customFormat="1" ht="17" customHeight="1" spans="1:49">
+    <row r="41" s="241" customFormat="1" ht="17" customHeight="1" spans="1:49">
       <c r="A41" s="8" t="s">
         <v>0</v>
       </c>
@@ -17544,7 +17535,7 @@
       <c r="AV41" s="122"/>
       <c r="AW41" s="134"/>
     </row>
-    <row r="42" s="244" customFormat="1" ht="17" customHeight="1" spans="1:49">
+    <row r="42" s="241" customFormat="1" ht="17" customHeight="1" spans="1:49">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -17711,7 +17702,7 @@
     </row>
     <row r="45" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A45" s="14"/>
-      <c r="B45" s="250" t="s">
+      <c r="B45" s="247" t="s">
         <v>26</v>
       </c>
       <c r="C45" s="117"/>
@@ -17815,1763 +17806,1763 @@
     </row>
     <row r="47" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A47" s="14"/>
-      <c r="B47" s="251" t="s">
+      <c r="B47" s="248" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="252"/>
-      <c r="D47" s="253" t="s">
+      <c r="C47" s="249"/>
+      <c r="D47" s="250" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="254"/>
-      <c r="F47" s="254"/>
-      <c r="G47" s="254"/>
-      <c r="H47" s="255"/>
-      <c r="I47" s="251" t="s">
+      <c r="E47" s="251"/>
+      <c r="F47" s="251"/>
+      <c r="G47" s="251"/>
+      <c r="H47" s="252"/>
+      <c r="I47" s="248" t="s">
         <v>28</v>
       </c>
-      <c r="J47" s="252"/>
-      <c r="K47" s="252"/>
-      <c r="L47" s="252"/>
-      <c r="M47" s="252"/>
-      <c r="N47" s="252"/>
-      <c r="O47" s="252"/>
-      <c r="P47" s="252"/>
-      <c r="Q47" s="252"/>
-      <c r="R47" s="252"/>
-      <c r="S47" s="252"/>
-      <c r="T47" s="252"/>
-      <c r="U47" s="252"/>
-      <c r="V47" s="252"/>
-      <c r="W47" s="252"/>
-      <c r="X47" s="252"/>
-      <c r="Y47" s="252"/>
-      <c r="Z47" s="301"/>
-      <c r="AA47" s="253" t="s">
+      <c r="J47" s="249"/>
+      <c r="K47" s="249"/>
+      <c r="L47" s="249"/>
+      <c r="M47" s="249"/>
+      <c r="N47" s="249"/>
+      <c r="O47" s="249"/>
+      <c r="P47" s="249"/>
+      <c r="Q47" s="249"/>
+      <c r="R47" s="249"/>
+      <c r="S47" s="249"/>
+      <c r="T47" s="249"/>
+      <c r="U47" s="249"/>
+      <c r="V47" s="249"/>
+      <c r="W47" s="249"/>
+      <c r="X47" s="249"/>
+      <c r="Y47" s="249"/>
+      <c r="Z47" s="298"/>
+      <c r="AA47" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="AB47" s="254"/>
-      <c r="AC47" s="254"/>
-      <c r="AD47" s="255"/>
-      <c r="AE47" s="302"/>
-      <c r="AF47" s="303"/>
-      <c r="AG47" s="303"/>
-      <c r="AH47" s="303"/>
-      <c r="AI47" s="303"/>
-      <c r="AJ47" s="303"/>
-      <c r="AK47" s="303"/>
-      <c r="AL47" s="303"/>
-      <c r="AM47" s="327"/>
-      <c r="AN47" s="328"/>
-      <c r="AO47" s="330"/>
-      <c r="AP47" s="330"/>
-      <c r="AQ47" s="330"/>
-      <c r="AR47" s="330"/>
-      <c r="AS47" s="330"/>
-      <c r="AT47" s="330"/>
-      <c r="AU47" s="330"/>
-      <c r="AV47" s="331"/>
+      <c r="AB47" s="251"/>
+      <c r="AC47" s="251"/>
+      <c r="AD47" s="252"/>
+      <c r="AE47" s="299"/>
+      <c r="AF47" s="300"/>
+      <c r="AG47" s="300"/>
+      <c r="AH47" s="300"/>
+      <c r="AI47" s="300"/>
+      <c r="AJ47" s="300"/>
+      <c r="AK47" s="300"/>
+      <c r="AL47" s="300"/>
+      <c r="AM47" s="324"/>
+      <c r="AN47" s="325"/>
+      <c r="AO47" s="327"/>
+      <c r="AP47" s="327"/>
+      <c r="AQ47" s="327"/>
+      <c r="AR47" s="327"/>
+      <c r="AS47" s="327"/>
+      <c r="AT47" s="327"/>
+      <c r="AU47" s="327"/>
+      <c r="AV47" s="328"/>
       <c r="AW47" s="137"/>
     </row>
     <row r="48" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A48" s="14"/>
-      <c r="B48" s="256"/>
-      <c r="C48" s="257"/>
-      <c r="D48" s="258"/>
-      <c r="E48" s="259"/>
-      <c r="F48" s="259"/>
-      <c r="G48" s="259"/>
-      <c r="H48" s="260"/>
-      <c r="I48" s="256"/>
-      <c r="J48" s="257"/>
-      <c r="K48" s="257"/>
-      <c r="L48" s="257"/>
-      <c r="M48" s="257"/>
-      <c r="N48" s="257"/>
-      <c r="O48" s="257"/>
-      <c r="P48" s="257"/>
-      <c r="Q48" s="257"/>
-      <c r="R48" s="257"/>
-      <c r="S48" s="257"/>
-      <c r="T48" s="257"/>
-      <c r="U48" s="257"/>
-      <c r="V48" s="257"/>
-      <c r="W48" s="257"/>
-      <c r="X48" s="257"/>
-      <c r="Y48" s="257"/>
-      <c r="Z48" s="304"/>
-      <c r="AA48" s="258"/>
-      <c r="AB48" s="259"/>
-      <c r="AC48" s="259"/>
-      <c r="AD48" s="260"/>
-      <c r="AE48" s="302" t="s">
+      <c r="B48" s="253"/>
+      <c r="C48" s="254"/>
+      <c r="D48" s="255"/>
+      <c r="E48" s="256"/>
+      <c r="F48" s="256"/>
+      <c r="G48" s="256"/>
+      <c r="H48" s="257"/>
+      <c r="I48" s="253"/>
+      <c r="J48" s="254"/>
+      <c r="K48" s="254"/>
+      <c r="L48" s="254"/>
+      <c r="M48" s="254"/>
+      <c r="N48" s="254"/>
+      <c r="O48" s="254"/>
+      <c r="P48" s="254"/>
+      <c r="Q48" s="254"/>
+      <c r="R48" s="254"/>
+      <c r="S48" s="254"/>
+      <c r="T48" s="254"/>
+      <c r="U48" s="254"/>
+      <c r="V48" s="254"/>
+      <c r="W48" s="254"/>
+      <c r="X48" s="254"/>
+      <c r="Y48" s="254"/>
+      <c r="Z48" s="301"/>
+      <c r="AA48" s="255"/>
+      <c r="AB48" s="256"/>
+      <c r="AC48" s="256"/>
+      <c r="AD48" s="257"/>
+      <c r="AE48" s="299" t="s">
         <v>29</v>
       </c>
-      <c r="AF48" s="303"/>
-      <c r="AG48" s="303"/>
-      <c r="AH48" s="303"/>
-      <c r="AI48" s="327"/>
-      <c r="AJ48" s="302" t="s">
+      <c r="AF48" s="300"/>
+      <c r="AG48" s="300"/>
+      <c r="AH48" s="300"/>
+      <c r="AI48" s="324"/>
+      <c r="AJ48" s="299" t="s">
         <v>30</v>
       </c>
-      <c r="AK48" s="303"/>
-      <c r="AL48" s="303"/>
-      <c r="AM48" s="327"/>
-      <c r="AN48" s="302" t="s">
+      <c r="AK48" s="300"/>
+      <c r="AL48" s="300"/>
+      <c r="AM48" s="324"/>
+      <c r="AN48" s="299" t="s">
         <v>29</v>
       </c>
-      <c r="AO48" s="303"/>
-      <c r="AP48" s="303"/>
-      <c r="AQ48" s="303"/>
-      <c r="AR48" s="327"/>
-      <c r="AS48" s="302" t="s">
+      <c r="AO48" s="300"/>
+      <c r="AP48" s="300"/>
+      <c r="AQ48" s="300"/>
+      <c r="AR48" s="324"/>
+      <c r="AS48" s="299" t="s">
         <v>30</v>
       </c>
-      <c r="AT48" s="303"/>
-      <c r="AU48" s="303"/>
-      <c r="AV48" s="327"/>
+      <c r="AT48" s="300"/>
+      <c r="AU48" s="300"/>
+      <c r="AV48" s="324"/>
       <c r="AW48" s="137"/>
     </row>
     <row r="49" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A49" s="14"/>
-      <c r="B49" s="261">
+      <c r="B49" s="258">
         <v>1</v>
       </c>
-      <c r="C49" s="262"/>
-      <c r="D49" s="263">
+      <c r="C49" s="259"/>
+      <c r="D49" s="260">
         <v>44995</v>
       </c>
-      <c r="E49" s="264"/>
-      <c r="F49" s="264"/>
-      <c r="G49" s="264"/>
-      <c r="H49" s="265"/>
-      <c r="I49" s="290" t="s">
+      <c r="E49" s="261"/>
+      <c r="F49" s="261"/>
+      <c r="G49" s="261"/>
+      <c r="H49" s="262"/>
+      <c r="I49" s="287" t="s">
         <v>31</v>
       </c>
-      <c r="J49" s="291"/>
-      <c r="K49" s="291"/>
-      <c r="L49" s="291"/>
-      <c r="M49" s="291"/>
-      <c r="N49" s="291"/>
-      <c r="O49" s="291"/>
-      <c r="P49" s="291"/>
-      <c r="Q49" s="291"/>
-      <c r="R49" s="291"/>
-      <c r="S49" s="291"/>
-      <c r="T49" s="291"/>
-      <c r="U49" s="291"/>
-      <c r="V49" s="291"/>
-      <c r="W49" s="291"/>
-      <c r="X49" s="291"/>
-      <c r="Y49" s="291"/>
-      <c r="Z49" s="305"/>
-      <c r="AA49" s="306" t="s">
+      <c r="J49" s="288"/>
+      <c r="K49" s="288"/>
+      <c r="L49" s="288"/>
+      <c r="M49" s="288"/>
+      <c r="N49" s="288"/>
+      <c r="O49" s="288"/>
+      <c r="P49" s="288"/>
+      <c r="Q49" s="288"/>
+      <c r="R49" s="288"/>
+      <c r="S49" s="288"/>
+      <c r="T49" s="288"/>
+      <c r="U49" s="288"/>
+      <c r="V49" s="288"/>
+      <c r="W49" s="288"/>
+      <c r="X49" s="288"/>
+      <c r="Y49" s="288"/>
+      <c r="Z49" s="302"/>
+      <c r="AA49" s="303" t="s">
         <v>6</v>
       </c>
-      <c r="AB49" s="307"/>
-      <c r="AC49" s="307"/>
-      <c r="AD49" s="308"/>
-      <c r="AE49" s="263"/>
-      <c r="AF49" s="264"/>
-      <c r="AG49" s="264"/>
-      <c r="AH49" s="264"/>
-      <c r="AI49" s="265"/>
-      <c r="AJ49" s="306"/>
-      <c r="AK49" s="307"/>
-      <c r="AL49" s="307"/>
-      <c r="AM49" s="308"/>
-      <c r="AN49" s="263"/>
-      <c r="AO49" s="264"/>
-      <c r="AP49" s="264"/>
-      <c r="AQ49" s="264"/>
-      <c r="AR49" s="265"/>
-      <c r="AS49" s="306"/>
-      <c r="AT49" s="307"/>
-      <c r="AU49" s="307"/>
-      <c r="AV49" s="308"/>
+      <c r="AB49" s="304"/>
+      <c r="AC49" s="304"/>
+      <c r="AD49" s="305"/>
+      <c r="AE49" s="260"/>
+      <c r="AF49" s="261"/>
+      <c r="AG49" s="261"/>
+      <c r="AH49" s="261"/>
+      <c r="AI49" s="262"/>
+      <c r="AJ49" s="303"/>
+      <c r="AK49" s="304"/>
+      <c r="AL49" s="304"/>
+      <c r="AM49" s="305"/>
+      <c r="AN49" s="260"/>
+      <c r="AO49" s="261"/>
+      <c r="AP49" s="261"/>
+      <c r="AQ49" s="261"/>
+      <c r="AR49" s="262"/>
+      <c r="AS49" s="303"/>
+      <c r="AT49" s="304"/>
+      <c r="AU49" s="304"/>
+      <c r="AV49" s="305"/>
       <c r="AW49" s="137"/>
     </row>
     <row r="50" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A50" s="14"/>
-      <c r="B50" s="266"/>
-      <c r="C50" s="267"/>
-      <c r="D50" s="268"/>
-      <c r="E50" s="269"/>
-      <c r="F50" s="269"/>
-      <c r="G50" s="269"/>
-      <c r="H50" s="270"/>
-      <c r="I50" s="292"/>
-      <c r="J50" s="293"/>
-      <c r="K50" s="293"/>
-      <c r="L50" s="293"/>
-      <c r="M50" s="293"/>
-      <c r="N50" s="293"/>
-      <c r="O50" s="293"/>
-      <c r="P50" s="293"/>
-      <c r="Q50" s="293"/>
-      <c r="R50" s="293"/>
-      <c r="S50" s="293"/>
-      <c r="T50" s="293"/>
-      <c r="U50" s="293"/>
-      <c r="V50" s="293"/>
-      <c r="W50" s="293"/>
-      <c r="X50" s="293"/>
-      <c r="Y50" s="293"/>
-      <c r="Z50" s="309"/>
-      <c r="AA50" s="310"/>
-      <c r="AB50" s="311"/>
-      <c r="AC50" s="311"/>
-      <c r="AD50" s="312"/>
-      <c r="AE50" s="268"/>
-      <c r="AF50" s="269"/>
-      <c r="AG50" s="269"/>
-      <c r="AH50" s="269"/>
-      <c r="AI50" s="270"/>
-      <c r="AJ50" s="310"/>
-      <c r="AK50" s="311"/>
-      <c r="AL50" s="311"/>
-      <c r="AM50" s="312"/>
-      <c r="AN50" s="268"/>
-      <c r="AO50" s="269"/>
-      <c r="AP50" s="269"/>
-      <c r="AQ50" s="269"/>
-      <c r="AR50" s="270"/>
-      <c r="AS50" s="310"/>
-      <c r="AT50" s="311"/>
-      <c r="AU50" s="311"/>
-      <c r="AV50" s="312"/>
+      <c r="B50" s="263"/>
+      <c r="C50" s="264"/>
+      <c r="D50" s="265"/>
+      <c r="E50" s="266"/>
+      <c r="F50" s="266"/>
+      <c r="G50" s="266"/>
+      <c r="H50" s="267"/>
+      <c r="I50" s="289"/>
+      <c r="J50" s="290"/>
+      <c r="K50" s="290"/>
+      <c r="L50" s="290"/>
+      <c r="M50" s="290"/>
+      <c r="N50" s="290"/>
+      <c r="O50" s="290"/>
+      <c r="P50" s="290"/>
+      <c r="Q50" s="290"/>
+      <c r="R50" s="290"/>
+      <c r="S50" s="290"/>
+      <c r="T50" s="290"/>
+      <c r="U50" s="290"/>
+      <c r="V50" s="290"/>
+      <c r="W50" s="290"/>
+      <c r="X50" s="290"/>
+      <c r="Y50" s="290"/>
+      <c r="Z50" s="306"/>
+      <c r="AA50" s="307"/>
+      <c r="AB50" s="308"/>
+      <c r="AC50" s="308"/>
+      <c r="AD50" s="309"/>
+      <c r="AE50" s="265"/>
+      <c r="AF50" s="266"/>
+      <c r="AG50" s="266"/>
+      <c r="AH50" s="266"/>
+      <c r="AI50" s="267"/>
+      <c r="AJ50" s="307"/>
+      <c r="AK50" s="308"/>
+      <c r="AL50" s="308"/>
+      <c r="AM50" s="309"/>
+      <c r="AN50" s="265"/>
+      <c r="AO50" s="266"/>
+      <c r="AP50" s="266"/>
+      <c r="AQ50" s="266"/>
+      <c r="AR50" s="267"/>
+      <c r="AS50" s="307"/>
+      <c r="AT50" s="308"/>
+      <c r="AU50" s="308"/>
+      <c r="AV50" s="309"/>
       <c r="AW50" s="137"/>
     </row>
     <row r="51" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A51" s="14"/>
-      <c r="B51" s="271"/>
-      <c r="C51" s="272"/>
-      <c r="D51" s="273"/>
-      <c r="E51" s="274"/>
-      <c r="F51" s="274"/>
-      <c r="G51" s="274"/>
-      <c r="H51" s="275"/>
-      <c r="I51" s="294"/>
-      <c r="J51" s="295"/>
-      <c r="K51" s="295"/>
-      <c r="L51" s="295"/>
-      <c r="M51" s="295"/>
-      <c r="N51" s="295"/>
-      <c r="O51" s="295"/>
-      <c r="P51" s="295"/>
-      <c r="Q51" s="295"/>
-      <c r="R51" s="295"/>
-      <c r="S51" s="295"/>
-      <c r="T51" s="295"/>
-      <c r="U51" s="295"/>
-      <c r="V51" s="295"/>
-      <c r="W51" s="295"/>
-      <c r="X51" s="295"/>
-      <c r="Y51" s="295"/>
-      <c r="Z51" s="313"/>
-      <c r="AA51" s="314"/>
-      <c r="AB51" s="315"/>
-      <c r="AC51" s="315"/>
-      <c r="AD51" s="316"/>
-      <c r="AE51" s="317"/>
-      <c r="AF51" s="318"/>
-      <c r="AG51" s="318"/>
-      <c r="AH51" s="318"/>
-      <c r="AI51" s="329"/>
-      <c r="AJ51" s="314"/>
-      <c r="AK51" s="315"/>
-      <c r="AL51" s="315"/>
-      <c r="AM51" s="316"/>
-      <c r="AN51" s="317"/>
-      <c r="AO51" s="318"/>
-      <c r="AP51" s="318"/>
-      <c r="AQ51" s="318"/>
-      <c r="AR51" s="329"/>
-      <c r="AS51" s="314"/>
-      <c r="AT51" s="315"/>
-      <c r="AU51" s="315"/>
-      <c r="AV51" s="316"/>
+      <c r="B51" s="268"/>
+      <c r="C51" s="269"/>
+      <c r="D51" s="270"/>
+      <c r="E51" s="271"/>
+      <c r="F51" s="271"/>
+      <c r="G51" s="271"/>
+      <c r="H51" s="272"/>
+      <c r="I51" s="291"/>
+      <c r="J51" s="292"/>
+      <c r="K51" s="292"/>
+      <c r="L51" s="292"/>
+      <c r="M51" s="292"/>
+      <c r="N51" s="292"/>
+      <c r="O51" s="292"/>
+      <c r="P51" s="292"/>
+      <c r="Q51" s="292"/>
+      <c r="R51" s="292"/>
+      <c r="S51" s="292"/>
+      <c r="T51" s="292"/>
+      <c r="U51" s="292"/>
+      <c r="V51" s="292"/>
+      <c r="W51" s="292"/>
+      <c r="X51" s="292"/>
+      <c r="Y51" s="292"/>
+      <c r="Z51" s="310"/>
+      <c r="AA51" s="311"/>
+      <c r="AB51" s="312"/>
+      <c r="AC51" s="312"/>
+      <c r="AD51" s="313"/>
+      <c r="AE51" s="314"/>
+      <c r="AF51" s="315"/>
+      <c r="AG51" s="315"/>
+      <c r="AH51" s="315"/>
+      <c r="AI51" s="326"/>
+      <c r="AJ51" s="311"/>
+      <c r="AK51" s="312"/>
+      <c r="AL51" s="312"/>
+      <c r="AM51" s="313"/>
+      <c r="AN51" s="314"/>
+      <c r="AO51" s="315"/>
+      <c r="AP51" s="315"/>
+      <c r="AQ51" s="315"/>
+      <c r="AR51" s="326"/>
+      <c r="AS51" s="311"/>
+      <c r="AT51" s="312"/>
+      <c r="AU51" s="312"/>
+      <c r="AV51" s="313"/>
       <c r="AW51" s="137"/>
     </row>
     <row r="52" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A52" s="14"/>
-      <c r="B52" s="276"/>
-      <c r="C52" s="277"/>
-      <c r="D52" s="278"/>
-      <c r="E52" s="279"/>
-      <c r="F52" s="279"/>
-      <c r="G52" s="279"/>
-      <c r="H52" s="280"/>
-      <c r="I52" s="296"/>
-      <c r="J52" s="297"/>
-      <c r="K52" s="297"/>
-      <c r="L52" s="297"/>
-      <c r="M52" s="297"/>
-      <c r="N52" s="297"/>
-      <c r="O52" s="297"/>
-      <c r="P52" s="297"/>
-      <c r="Q52" s="297"/>
-      <c r="R52" s="297"/>
-      <c r="S52" s="297"/>
-      <c r="T52" s="297"/>
-      <c r="U52" s="297"/>
-      <c r="V52" s="297"/>
-      <c r="W52" s="297"/>
-      <c r="X52" s="297"/>
-      <c r="Y52" s="297"/>
-      <c r="Z52" s="319"/>
-      <c r="AA52" s="320"/>
-      <c r="AB52" s="321"/>
-      <c r="AC52" s="321"/>
-      <c r="AD52" s="322"/>
-      <c r="AE52" s="281"/>
-      <c r="AF52" s="282"/>
-      <c r="AG52" s="282"/>
-      <c r="AH52" s="282"/>
-      <c r="AI52" s="283"/>
-      <c r="AJ52" s="320"/>
-      <c r="AK52" s="321"/>
-      <c r="AL52" s="321"/>
-      <c r="AM52" s="322"/>
-      <c r="AN52" s="281"/>
-      <c r="AO52" s="282"/>
-      <c r="AP52" s="282"/>
-      <c r="AQ52" s="282"/>
-      <c r="AR52" s="283"/>
-      <c r="AS52" s="320"/>
-      <c r="AT52" s="321"/>
-      <c r="AU52" s="321"/>
-      <c r="AV52" s="322"/>
+      <c r="B52" s="273"/>
+      <c r="C52" s="274"/>
+      <c r="D52" s="275"/>
+      <c r="E52" s="276"/>
+      <c r="F52" s="276"/>
+      <c r="G52" s="276"/>
+      <c r="H52" s="277"/>
+      <c r="I52" s="293"/>
+      <c r="J52" s="294"/>
+      <c r="K52" s="294"/>
+      <c r="L52" s="294"/>
+      <c r="M52" s="294"/>
+      <c r="N52" s="294"/>
+      <c r="O52" s="294"/>
+      <c r="P52" s="294"/>
+      <c r="Q52" s="294"/>
+      <c r="R52" s="294"/>
+      <c r="S52" s="294"/>
+      <c r="T52" s="294"/>
+      <c r="U52" s="294"/>
+      <c r="V52" s="294"/>
+      <c r="W52" s="294"/>
+      <c r="X52" s="294"/>
+      <c r="Y52" s="294"/>
+      <c r="Z52" s="316"/>
+      <c r="AA52" s="317"/>
+      <c r="AB52" s="318"/>
+      <c r="AC52" s="318"/>
+      <c r="AD52" s="319"/>
+      <c r="AE52" s="278"/>
+      <c r="AF52" s="279"/>
+      <c r="AG52" s="279"/>
+      <c r="AH52" s="279"/>
+      <c r="AI52" s="280"/>
+      <c r="AJ52" s="317"/>
+      <c r="AK52" s="318"/>
+      <c r="AL52" s="318"/>
+      <c r="AM52" s="319"/>
+      <c r="AN52" s="278"/>
+      <c r="AO52" s="279"/>
+      <c r="AP52" s="279"/>
+      <c r="AQ52" s="279"/>
+      <c r="AR52" s="280"/>
+      <c r="AS52" s="317"/>
+      <c r="AT52" s="318"/>
+      <c r="AU52" s="318"/>
+      <c r="AV52" s="319"/>
       <c r="AW52" s="137"/>
     </row>
     <row r="53" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A53" s="14"/>
-      <c r="B53" s="276"/>
-      <c r="C53" s="277"/>
-      <c r="D53" s="281"/>
-      <c r="E53" s="282"/>
-      <c r="F53" s="282"/>
-      <c r="G53" s="282"/>
-      <c r="H53" s="283"/>
-      <c r="I53" s="296"/>
-      <c r="J53" s="297"/>
-      <c r="K53" s="297"/>
-      <c r="L53" s="297"/>
-      <c r="M53" s="297"/>
-      <c r="N53" s="297"/>
-      <c r="O53" s="297"/>
-      <c r="P53" s="297"/>
-      <c r="Q53" s="297"/>
-      <c r="R53" s="297"/>
-      <c r="S53" s="297"/>
-      <c r="T53" s="297"/>
-      <c r="U53" s="297"/>
-      <c r="V53" s="297"/>
-      <c r="W53" s="297"/>
-      <c r="X53" s="297"/>
-      <c r="Y53" s="297"/>
-      <c r="Z53" s="319"/>
-      <c r="AA53" s="320"/>
-      <c r="AB53" s="321"/>
-      <c r="AC53" s="321"/>
-      <c r="AD53" s="322"/>
-      <c r="AE53" s="281"/>
-      <c r="AF53" s="282"/>
-      <c r="AG53" s="282"/>
-      <c r="AH53" s="282"/>
-      <c r="AI53" s="283"/>
-      <c r="AJ53" s="320"/>
-      <c r="AK53" s="321"/>
-      <c r="AL53" s="321"/>
-      <c r="AM53" s="322"/>
-      <c r="AN53" s="281"/>
-      <c r="AO53" s="282"/>
-      <c r="AP53" s="282"/>
-      <c r="AQ53" s="282"/>
-      <c r="AR53" s="283"/>
-      <c r="AS53" s="320"/>
-      <c r="AT53" s="321"/>
-      <c r="AU53" s="321"/>
-      <c r="AV53" s="322"/>
+      <c r="B53" s="273"/>
+      <c r="C53" s="274"/>
+      <c r="D53" s="278"/>
+      <c r="E53" s="279"/>
+      <c r="F53" s="279"/>
+      <c r="G53" s="279"/>
+      <c r="H53" s="280"/>
+      <c r="I53" s="293"/>
+      <c r="J53" s="294"/>
+      <c r="K53" s="294"/>
+      <c r="L53" s="294"/>
+      <c r="M53" s="294"/>
+      <c r="N53" s="294"/>
+      <c r="O53" s="294"/>
+      <c r="P53" s="294"/>
+      <c r="Q53" s="294"/>
+      <c r="R53" s="294"/>
+      <c r="S53" s="294"/>
+      <c r="T53" s="294"/>
+      <c r="U53" s="294"/>
+      <c r="V53" s="294"/>
+      <c r="W53" s="294"/>
+      <c r="X53" s="294"/>
+      <c r="Y53" s="294"/>
+      <c r="Z53" s="316"/>
+      <c r="AA53" s="317"/>
+      <c r="AB53" s="318"/>
+      <c r="AC53" s="318"/>
+      <c r="AD53" s="319"/>
+      <c r="AE53" s="278"/>
+      <c r="AF53" s="279"/>
+      <c r="AG53" s="279"/>
+      <c r="AH53" s="279"/>
+      <c r="AI53" s="280"/>
+      <c r="AJ53" s="317"/>
+      <c r="AK53" s="318"/>
+      <c r="AL53" s="318"/>
+      <c r="AM53" s="319"/>
+      <c r="AN53" s="278"/>
+      <c r="AO53" s="279"/>
+      <c r="AP53" s="279"/>
+      <c r="AQ53" s="279"/>
+      <c r="AR53" s="280"/>
+      <c r="AS53" s="317"/>
+      <c r="AT53" s="318"/>
+      <c r="AU53" s="318"/>
+      <c r="AV53" s="319"/>
       <c r="AW53" s="137"/>
     </row>
     <row r="54" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A54" s="14"/>
-      <c r="B54" s="276"/>
-      <c r="C54" s="277"/>
-      <c r="D54" s="281"/>
-      <c r="E54" s="282"/>
-      <c r="F54" s="282"/>
-      <c r="G54" s="282"/>
-      <c r="H54" s="283"/>
-      <c r="I54" s="296"/>
-      <c r="J54" s="297"/>
-      <c r="K54" s="297"/>
-      <c r="L54" s="297"/>
-      <c r="M54" s="297"/>
-      <c r="N54" s="297"/>
-      <c r="O54" s="297"/>
-      <c r="P54" s="297"/>
-      <c r="Q54" s="297"/>
-      <c r="R54" s="297"/>
-      <c r="S54" s="297"/>
-      <c r="T54" s="297"/>
-      <c r="U54" s="297"/>
-      <c r="V54" s="297"/>
-      <c r="W54" s="297"/>
-      <c r="X54" s="297"/>
-      <c r="Y54" s="297"/>
-      <c r="Z54" s="319"/>
-      <c r="AA54" s="320"/>
-      <c r="AB54" s="321"/>
-      <c r="AC54" s="321"/>
-      <c r="AD54" s="322"/>
-      <c r="AE54" s="281"/>
-      <c r="AF54" s="282"/>
-      <c r="AG54" s="282"/>
-      <c r="AH54" s="282"/>
-      <c r="AI54" s="283"/>
-      <c r="AJ54" s="320"/>
-      <c r="AK54" s="321"/>
-      <c r="AL54" s="321"/>
-      <c r="AM54" s="322"/>
-      <c r="AN54" s="281"/>
-      <c r="AO54" s="282"/>
-      <c r="AP54" s="282"/>
-      <c r="AQ54" s="282"/>
-      <c r="AR54" s="283"/>
-      <c r="AS54" s="320"/>
-      <c r="AT54" s="321"/>
-      <c r="AU54" s="321"/>
-      <c r="AV54" s="322"/>
+      <c r="B54" s="273"/>
+      <c r="C54" s="274"/>
+      <c r="D54" s="278"/>
+      <c r="E54" s="279"/>
+      <c r="F54" s="279"/>
+      <c r="G54" s="279"/>
+      <c r="H54" s="280"/>
+      <c r="I54" s="293"/>
+      <c r="J54" s="294"/>
+      <c r="K54" s="294"/>
+      <c r="L54" s="294"/>
+      <c r="M54" s="294"/>
+      <c r="N54" s="294"/>
+      <c r="O54" s="294"/>
+      <c r="P54" s="294"/>
+      <c r="Q54" s="294"/>
+      <c r="R54" s="294"/>
+      <c r="S54" s="294"/>
+      <c r="T54" s="294"/>
+      <c r="U54" s="294"/>
+      <c r="V54" s="294"/>
+      <c r="W54" s="294"/>
+      <c r="X54" s="294"/>
+      <c r="Y54" s="294"/>
+      <c r="Z54" s="316"/>
+      <c r="AA54" s="317"/>
+      <c r="AB54" s="318"/>
+      <c r="AC54" s="318"/>
+      <c r="AD54" s="319"/>
+      <c r="AE54" s="278"/>
+      <c r="AF54" s="279"/>
+      <c r="AG54" s="279"/>
+      <c r="AH54" s="279"/>
+      <c r="AI54" s="280"/>
+      <c r="AJ54" s="317"/>
+      <c r="AK54" s="318"/>
+      <c r="AL54" s="318"/>
+      <c r="AM54" s="319"/>
+      <c r="AN54" s="278"/>
+      <c r="AO54" s="279"/>
+      <c r="AP54" s="279"/>
+      <c r="AQ54" s="279"/>
+      <c r="AR54" s="280"/>
+      <c r="AS54" s="317"/>
+      <c r="AT54" s="318"/>
+      <c r="AU54" s="318"/>
+      <c r="AV54" s="319"/>
       <c r="AW54" s="137"/>
     </row>
     <row r="55" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A55" s="14"/>
-      <c r="B55" s="284"/>
-      <c r="C55" s="285"/>
-      <c r="D55" s="286"/>
-      <c r="E55" s="287"/>
-      <c r="F55" s="287"/>
-      <c r="G55" s="287"/>
-      <c r="H55" s="288"/>
-      <c r="I55" s="298"/>
-      <c r="J55" s="299"/>
-      <c r="K55" s="299"/>
-      <c r="L55" s="299"/>
-      <c r="M55" s="299"/>
-      <c r="N55" s="299"/>
-      <c r="O55" s="299"/>
-      <c r="P55" s="299"/>
-      <c r="Q55" s="299"/>
-      <c r="R55" s="299"/>
-      <c r="S55" s="299"/>
-      <c r="T55" s="299"/>
-      <c r="U55" s="299"/>
-      <c r="V55" s="299"/>
-      <c r="W55" s="299"/>
-      <c r="X55" s="299"/>
-      <c r="Y55" s="299"/>
-      <c r="Z55" s="323"/>
-      <c r="AA55" s="324"/>
-      <c r="AB55" s="325"/>
-      <c r="AC55" s="325"/>
-      <c r="AD55" s="326"/>
-      <c r="AE55" s="286"/>
-      <c r="AF55" s="287"/>
-      <c r="AG55" s="287"/>
-      <c r="AH55" s="287"/>
-      <c r="AI55" s="288"/>
-      <c r="AJ55" s="324"/>
-      <c r="AK55" s="325"/>
-      <c r="AL55" s="325"/>
-      <c r="AM55" s="326"/>
-      <c r="AN55" s="286"/>
-      <c r="AO55" s="287"/>
-      <c r="AP55" s="287"/>
-      <c r="AQ55" s="287"/>
-      <c r="AR55" s="288"/>
-      <c r="AS55" s="324"/>
-      <c r="AT55" s="325"/>
-      <c r="AU55" s="325"/>
-      <c r="AV55" s="326"/>
+      <c r="B55" s="281"/>
+      <c r="C55" s="282"/>
+      <c r="D55" s="283"/>
+      <c r="E55" s="284"/>
+      <c r="F55" s="284"/>
+      <c r="G55" s="284"/>
+      <c r="H55" s="285"/>
+      <c r="I55" s="295"/>
+      <c r="J55" s="296"/>
+      <c r="K55" s="296"/>
+      <c r="L55" s="296"/>
+      <c r="M55" s="296"/>
+      <c r="N55" s="296"/>
+      <c r="O55" s="296"/>
+      <c r="P55" s="296"/>
+      <c r="Q55" s="296"/>
+      <c r="R55" s="296"/>
+      <c r="S55" s="296"/>
+      <c r="T55" s="296"/>
+      <c r="U55" s="296"/>
+      <c r="V55" s="296"/>
+      <c r="W55" s="296"/>
+      <c r="X55" s="296"/>
+      <c r="Y55" s="296"/>
+      <c r="Z55" s="320"/>
+      <c r="AA55" s="321"/>
+      <c r="AB55" s="322"/>
+      <c r="AC55" s="322"/>
+      <c r="AD55" s="323"/>
+      <c r="AE55" s="283"/>
+      <c r="AF55" s="284"/>
+      <c r="AG55" s="284"/>
+      <c r="AH55" s="284"/>
+      <c r="AI55" s="285"/>
+      <c r="AJ55" s="321"/>
+      <c r="AK55" s="322"/>
+      <c r="AL55" s="322"/>
+      <c r="AM55" s="323"/>
+      <c r="AN55" s="283"/>
+      <c r="AO55" s="284"/>
+      <c r="AP55" s="284"/>
+      <c r="AQ55" s="284"/>
+      <c r="AR55" s="285"/>
+      <c r="AS55" s="321"/>
+      <c r="AT55" s="322"/>
+      <c r="AU55" s="322"/>
+      <c r="AV55" s="323"/>
       <c r="AW55" s="137"/>
     </row>
     <row r="56" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A56" s="14"/>
-      <c r="B56" s="284"/>
-      <c r="C56" s="285"/>
-      <c r="D56" s="286"/>
-      <c r="E56" s="287"/>
-      <c r="F56" s="287"/>
-      <c r="G56" s="287"/>
-      <c r="H56" s="288"/>
-      <c r="I56" s="298"/>
-      <c r="J56" s="299"/>
-      <c r="K56" s="299"/>
-      <c r="L56" s="299"/>
-      <c r="M56" s="299"/>
-      <c r="N56" s="299"/>
-      <c r="O56" s="299"/>
-      <c r="P56" s="299"/>
-      <c r="Q56" s="299"/>
-      <c r="R56" s="299"/>
-      <c r="S56" s="299"/>
-      <c r="T56" s="299"/>
-      <c r="U56" s="299"/>
-      <c r="V56" s="299"/>
-      <c r="W56" s="299"/>
-      <c r="X56" s="299"/>
-      <c r="Y56" s="299"/>
-      <c r="Z56" s="323"/>
-      <c r="AA56" s="324"/>
-      <c r="AB56" s="325"/>
-      <c r="AC56" s="325"/>
-      <c r="AD56" s="326"/>
-      <c r="AE56" s="286"/>
-      <c r="AF56" s="287"/>
-      <c r="AG56" s="287"/>
-      <c r="AH56" s="287"/>
-      <c r="AI56" s="288"/>
-      <c r="AJ56" s="324"/>
-      <c r="AK56" s="325"/>
-      <c r="AL56" s="325"/>
-      <c r="AM56" s="326"/>
-      <c r="AN56" s="286"/>
-      <c r="AO56" s="287"/>
-      <c r="AP56" s="287"/>
-      <c r="AQ56" s="287"/>
-      <c r="AR56" s="288"/>
-      <c r="AS56" s="324"/>
-      <c r="AT56" s="325"/>
-      <c r="AU56" s="325"/>
-      <c r="AV56" s="326"/>
+      <c r="B56" s="281"/>
+      <c r="C56" s="282"/>
+      <c r="D56" s="283"/>
+      <c r="E56" s="284"/>
+      <c r="F56" s="284"/>
+      <c r="G56" s="284"/>
+      <c r="H56" s="285"/>
+      <c r="I56" s="295"/>
+      <c r="J56" s="296"/>
+      <c r="K56" s="296"/>
+      <c r="L56" s="296"/>
+      <c r="M56" s="296"/>
+      <c r="N56" s="296"/>
+      <c r="O56" s="296"/>
+      <c r="P56" s="296"/>
+      <c r="Q56" s="296"/>
+      <c r="R56" s="296"/>
+      <c r="S56" s="296"/>
+      <c r="T56" s="296"/>
+      <c r="U56" s="296"/>
+      <c r="V56" s="296"/>
+      <c r="W56" s="296"/>
+      <c r="X56" s="296"/>
+      <c r="Y56" s="296"/>
+      <c r="Z56" s="320"/>
+      <c r="AA56" s="321"/>
+      <c r="AB56" s="322"/>
+      <c r="AC56" s="322"/>
+      <c r="AD56" s="323"/>
+      <c r="AE56" s="283"/>
+      <c r="AF56" s="284"/>
+      <c r="AG56" s="284"/>
+      <c r="AH56" s="284"/>
+      <c r="AI56" s="285"/>
+      <c r="AJ56" s="321"/>
+      <c r="AK56" s="322"/>
+      <c r="AL56" s="322"/>
+      <c r="AM56" s="323"/>
+      <c r="AN56" s="283"/>
+      <c r="AO56" s="284"/>
+      <c r="AP56" s="284"/>
+      <c r="AQ56" s="284"/>
+      <c r="AR56" s="285"/>
+      <c r="AS56" s="321"/>
+      <c r="AT56" s="322"/>
+      <c r="AU56" s="322"/>
+      <c r="AV56" s="323"/>
       <c r="AW56" s="137"/>
     </row>
     <row r="57" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A57" s="14"/>
-      <c r="B57" s="284"/>
-      <c r="C57" s="285"/>
-      <c r="D57" s="286"/>
-      <c r="E57" s="287"/>
-      <c r="F57" s="287"/>
-      <c r="G57" s="287"/>
-      <c r="H57" s="288"/>
-      <c r="I57" s="298"/>
-      <c r="J57" s="299"/>
-      <c r="K57" s="299"/>
-      <c r="L57" s="299"/>
-      <c r="M57" s="299"/>
-      <c r="N57" s="299"/>
-      <c r="O57" s="299"/>
-      <c r="P57" s="299"/>
-      <c r="Q57" s="299"/>
-      <c r="R57" s="299"/>
-      <c r="S57" s="299"/>
-      <c r="T57" s="299"/>
-      <c r="U57" s="299"/>
-      <c r="V57" s="299"/>
-      <c r="W57" s="299"/>
-      <c r="X57" s="299"/>
-      <c r="Y57" s="299"/>
-      <c r="Z57" s="323"/>
-      <c r="AA57" s="324"/>
-      <c r="AB57" s="325"/>
-      <c r="AC57" s="325"/>
-      <c r="AD57" s="326"/>
-      <c r="AE57" s="286"/>
-      <c r="AF57" s="287"/>
-      <c r="AG57" s="287"/>
-      <c r="AH57" s="287"/>
-      <c r="AI57" s="288"/>
-      <c r="AJ57" s="324"/>
-      <c r="AK57" s="325"/>
-      <c r="AL57" s="325"/>
-      <c r="AM57" s="326"/>
-      <c r="AN57" s="286"/>
-      <c r="AO57" s="287"/>
-      <c r="AP57" s="287"/>
-      <c r="AQ57" s="287"/>
-      <c r="AR57" s="288"/>
-      <c r="AS57" s="324"/>
-      <c r="AT57" s="325"/>
-      <c r="AU57" s="325"/>
-      <c r="AV57" s="326"/>
+      <c r="B57" s="281"/>
+      <c r="C57" s="282"/>
+      <c r="D57" s="283"/>
+      <c r="E57" s="284"/>
+      <c r="F57" s="284"/>
+      <c r="G57" s="284"/>
+      <c r="H57" s="285"/>
+      <c r="I57" s="295"/>
+      <c r="J57" s="296"/>
+      <c r="K57" s="296"/>
+      <c r="L57" s="296"/>
+      <c r="M57" s="296"/>
+      <c r="N57" s="296"/>
+      <c r="O57" s="296"/>
+      <c r="P57" s="296"/>
+      <c r="Q57" s="296"/>
+      <c r="R57" s="296"/>
+      <c r="S57" s="296"/>
+      <c r="T57" s="296"/>
+      <c r="U57" s="296"/>
+      <c r="V57" s="296"/>
+      <c r="W57" s="296"/>
+      <c r="X57" s="296"/>
+      <c r="Y57" s="296"/>
+      <c r="Z57" s="320"/>
+      <c r="AA57" s="321"/>
+      <c r="AB57" s="322"/>
+      <c r="AC57" s="322"/>
+      <c r="AD57" s="323"/>
+      <c r="AE57" s="283"/>
+      <c r="AF57" s="284"/>
+      <c r="AG57" s="284"/>
+      <c r="AH57" s="284"/>
+      <c r="AI57" s="285"/>
+      <c r="AJ57" s="321"/>
+      <c r="AK57" s="322"/>
+      <c r="AL57" s="322"/>
+      <c r="AM57" s="323"/>
+      <c r="AN57" s="283"/>
+      <c r="AO57" s="284"/>
+      <c r="AP57" s="284"/>
+      <c r="AQ57" s="284"/>
+      <c r="AR57" s="285"/>
+      <c r="AS57" s="321"/>
+      <c r="AT57" s="322"/>
+      <c r="AU57" s="322"/>
+      <c r="AV57" s="323"/>
       <c r="AW57" s="137"/>
     </row>
     <row r="58" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A58" s="14"/>
-      <c r="B58" s="284"/>
-      <c r="C58" s="285"/>
-      <c r="D58" s="286"/>
-      <c r="E58" s="287"/>
-      <c r="F58" s="287"/>
-      <c r="G58" s="287"/>
-      <c r="H58" s="288"/>
-      <c r="I58" s="298"/>
-      <c r="J58" s="299"/>
-      <c r="K58" s="299"/>
-      <c r="L58" s="299"/>
-      <c r="M58" s="299"/>
-      <c r="N58" s="299"/>
-      <c r="O58" s="299"/>
-      <c r="P58" s="299"/>
-      <c r="Q58" s="299"/>
-      <c r="R58" s="299"/>
-      <c r="S58" s="299"/>
-      <c r="T58" s="299"/>
-      <c r="U58" s="299"/>
-      <c r="V58" s="299"/>
-      <c r="W58" s="299"/>
-      <c r="X58" s="299"/>
-      <c r="Y58" s="299"/>
-      <c r="Z58" s="323"/>
-      <c r="AA58" s="324"/>
-      <c r="AB58" s="325"/>
-      <c r="AC58" s="325"/>
-      <c r="AD58" s="326"/>
-      <c r="AE58" s="286"/>
-      <c r="AF58" s="287"/>
-      <c r="AG58" s="287"/>
-      <c r="AH58" s="287"/>
-      <c r="AI58" s="288"/>
-      <c r="AJ58" s="324"/>
-      <c r="AK58" s="325"/>
-      <c r="AL58" s="325"/>
-      <c r="AM58" s="326"/>
-      <c r="AN58" s="286"/>
-      <c r="AO58" s="287"/>
-      <c r="AP58" s="287"/>
-      <c r="AQ58" s="287"/>
-      <c r="AR58" s="288"/>
-      <c r="AS58" s="324"/>
-      <c r="AT58" s="325"/>
-      <c r="AU58" s="325"/>
-      <c r="AV58" s="326"/>
+      <c r="B58" s="281"/>
+      <c r="C58" s="282"/>
+      <c r="D58" s="283"/>
+      <c r="E58" s="284"/>
+      <c r="F58" s="284"/>
+      <c r="G58" s="284"/>
+      <c r="H58" s="285"/>
+      <c r="I58" s="295"/>
+      <c r="J58" s="296"/>
+      <c r="K58" s="296"/>
+      <c r="L58" s="296"/>
+      <c r="M58" s="296"/>
+      <c r="N58" s="296"/>
+      <c r="O58" s="296"/>
+      <c r="P58" s="296"/>
+      <c r="Q58" s="296"/>
+      <c r="R58" s="296"/>
+      <c r="S58" s="296"/>
+      <c r="T58" s="296"/>
+      <c r="U58" s="296"/>
+      <c r="V58" s="296"/>
+      <c r="W58" s="296"/>
+      <c r="X58" s="296"/>
+      <c r="Y58" s="296"/>
+      <c r="Z58" s="320"/>
+      <c r="AA58" s="321"/>
+      <c r="AB58" s="322"/>
+      <c r="AC58" s="322"/>
+      <c r="AD58" s="323"/>
+      <c r="AE58" s="283"/>
+      <c r="AF58" s="284"/>
+      <c r="AG58" s="284"/>
+      <c r="AH58" s="284"/>
+      <c r="AI58" s="285"/>
+      <c r="AJ58" s="321"/>
+      <c r="AK58" s="322"/>
+      <c r="AL58" s="322"/>
+      <c r="AM58" s="323"/>
+      <c r="AN58" s="283"/>
+      <c r="AO58" s="284"/>
+      <c r="AP58" s="284"/>
+      <c r="AQ58" s="284"/>
+      <c r="AR58" s="285"/>
+      <c r="AS58" s="321"/>
+      <c r="AT58" s="322"/>
+      <c r="AU58" s="322"/>
+      <c r="AV58" s="323"/>
       <c r="AW58" s="137"/>
     </row>
     <row r="59" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A59" s="14"/>
-      <c r="B59" s="276"/>
-      <c r="C59" s="277"/>
-      <c r="D59" s="281"/>
-      <c r="E59" s="282"/>
-      <c r="F59" s="282"/>
-      <c r="G59" s="282"/>
-      <c r="H59" s="283"/>
-      <c r="I59" s="296"/>
-      <c r="J59" s="297"/>
-      <c r="K59" s="297"/>
-      <c r="L59" s="297"/>
-      <c r="M59" s="297"/>
-      <c r="N59" s="297"/>
-      <c r="O59" s="297"/>
-      <c r="P59" s="297"/>
-      <c r="Q59" s="297"/>
-      <c r="R59" s="297"/>
-      <c r="S59" s="297"/>
-      <c r="T59" s="297"/>
-      <c r="U59" s="297"/>
-      <c r="V59" s="297"/>
-      <c r="W59" s="297"/>
-      <c r="X59" s="297"/>
-      <c r="Y59" s="297"/>
-      <c r="Z59" s="319"/>
-      <c r="AA59" s="320"/>
-      <c r="AB59" s="321"/>
-      <c r="AC59" s="321"/>
-      <c r="AD59" s="322"/>
-      <c r="AE59" s="281"/>
-      <c r="AF59" s="282"/>
-      <c r="AG59" s="282"/>
-      <c r="AH59" s="282"/>
-      <c r="AI59" s="283"/>
-      <c r="AJ59" s="320"/>
-      <c r="AK59" s="321"/>
-      <c r="AL59" s="321"/>
-      <c r="AM59" s="322"/>
-      <c r="AN59" s="281"/>
-      <c r="AO59" s="282"/>
-      <c r="AP59" s="282"/>
-      <c r="AQ59" s="282"/>
-      <c r="AR59" s="283"/>
-      <c r="AS59" s="320"/>
-      <c r="AT59" s="321"/>
-      <c r="AU59" s="321"/>
-      <c r="AV59" s="322"/>
+      <c r="B59" s="273"/>
+      <c r="C59" s="274"/>
+      <c r="D59" s="278"/>
+      <c r="E59" s="279"/>
+      <c r="F59" s="279"/>
+      <c r="G59" s="279"/>
+      <c r="H59" s="280"/>
+      <c r="I59" s="293"/>
+      <c r="J59" s="294"/>
+      <c r="K59" s="294"/>
+      <c r="L59" s="294"/>
+      <c r="M59" s="294"/>
+      <c r="N59" s="294"/>
+      <c r="O59" s="294"/>
+      <c r="P59" s="294"/>
+      <c r="Q59" s="294"/>
+      <c r="R59" s="294"/>
+      <c r="S59" s="294"/>
+      <c r="T59" s="294"/>
+      <c r="U59" s="294"/>
+      <c r="V59" s="294"/>
+      <c r="W59" s="294"/>
+      <c r="X59" s="294"/>
+      <c r="Y59" s="294"/>
+      <c r="Z59" s="316"/>
+      <c r="AA59" s="317"/>
+      <c r="AB59" s="318"/>
+      <c r="AC59" s="318"/>
+      <c r="AD59" s="319"/>
+      <c r="AE59" s="278"/>
+      <c r="AF59" s="279"/>
+      <c r="AG59" s="279"/>
+      <c r="AH59" s="279"/>
+      <c r="AI59" s="280"/>
+      <c r="AJ59" s="317"/>
+      <c r="AK59" s="318"/>
+      <c r="AL59" s="318"/>
+      <c r="AM59" s="319"/>
+      <c r="AN59" s="278"/>
+      <c r="AO59" s="279"/>
+      <c r="AP59" s="279"/>
+      <c r="AQ59" s="279"/>
+      <c r="AR59" s="280"/>
+      <c r="AS59" s="317"/>
+      <c r="AT59" s="318"/>
+      <c r="AU59" s="318"/>
+      <c r="AV59" s="319"/>
       <c r="AW59" s="137"/>
     </row>
     <row r="60" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A60" s="14"/>
-      <c r="B60" s="276"/>
-      <c r="C60" s="277"/>
-      <c r="D60" s="281"/>
-      <c r="E60" s="282"/>
-      <c r="F60" s="282"/>
-      <c r="G60" s="282"/>
-      <c r="H60" s="283"/>
-      <c r="I60" s="296"/>
-      <c r="J60" s="297"/>
-      <c r="K60" s="297"/>
-      <c r="L60" s="297"/>
-      <c r="M60" s="297"/>
-      <c r="N60" s="297"/>
-      <c r="O60" s="297"/>
-      <c r="P60" s="297"/>
-      <c r="Q60" s="297"/>
-      <c r="R60" s="297"/>
-      <c r="S60" s="297"/>
-      <c r="T60" s="297"/>
-      <c r="U60" s="297"/>
-      <c r="V60" s="297"/>
-      <c r="W60" s="297"/>
-      <c r="X60" s="297"/>
-      <c r="Y60" s="297"/>
-      <c r="Z60" s="319"/>
-      <c r="AA60" s="320"/>
-      <c r="AB60" s="321"/>
-      <c r="AC60" s="321"/>
-      <c r="AD60" s="322"/>
-      <c r="AE60" s="281"/>
-      <c r="AF60" s="282"/>
-      <c r="AG60" s="282"/>
-      <c r="AH60" s="282"/>
-      <c r="AI60" s="283"/>
-      <c r="AJ60" s="320"/>
-      <c r="AK60" s="321"/>
-      <c r="AL60" s="321"/>
-      <c r="AM60" s="322"/>
-      <c r="AN60" s="281"/>
-      <c r="AO60" s="282"/>
-      <c r="AP60" s="282"/>
-      <c r="AQ60" s="282"/>
-      <c r="AR60" s="283"/>
-      <c r="AS60" s="320"/>
-      <c r="AT60" s="321"/>
-      <c r="AU60" s="321"/>
-      <c r="AV60" s="322"/>
+      <c r="B60" s="273"/>
+      <c r="C60" s="274"/>
+      <c r="D60" s="278"/>
+      <c r="E60" s="279"/>
+      <c r="F60" s="279"/>
+      <c r="G60" s="279"/>
+      <c r="H60" s="280"/>
+      <c r="I60" s="293"/>
+      <c r="J60" s="294"/>
+      <c r="K60" s="294"/>
+      <c r="L60" s="294"/>
+      <c r="M60" s="294"/>
+      <c r="N60" s="294"/>
+      <c r="O60" s="294"/>
+      <c r="P60" s="294"/>
+      <c r="Q60" s="294"/>
+      <c r="R60" s="294"/>
+      <c r="S60" s="294"/>
+      <c r="T60" s="294"/>
+      <c r="U60" s="294"/>
+      <c r="V60" s="294"/>
+      <c r="W60" s="294"/>
+      <c r="X60" s="294"/>
+      <c r="Y60" s="294"/>
+      <c r="Z60" s="316"/>
+      <c r="AA60" s="317"/>
+      <c r="AB60" s="318"/>
+      <c r="AC60" s="318"/>
+      <c r="AD60" s="319"/>
+      <c r="AE60" s="278"/>
+      <c r="AF60" s="279"/>
+      <c r="AG60" s="279"/>
+      <c r="AH60" s="279"/>
+      <c r="AI60" s="280"/>
+      <c r="AJ60" s="317"/>
+      <c r="AK60" s="318"/>
+      <c r="AL60" s="318"/>
+      <c r="AM60" s="319"/>
+      <c r="AN60" s="278"/>
+      <c r="AO60" s="279"/>
+      <c r="AP60" s="279"/>
+      <c r="AQ60" s="279"/>
+      <c r="AR60" s="280"/>
+      <c r="AS60" s="317"/>
+      <c r="AT60" s="318"/>
+      <c r="AU60" s="318"/>
+      <c r="AV60" s="319"/>
       <c r="AW60" s="137"/>
     </row>
     <row r="61" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A61" s="14"/>
-      <c r="B61" s="276"/>
-      <c r="C61" s="277"/>
-      <c r="D61" s="281"/>
-      <c r="E61" s="282"/>
-      <c r="F61" s="282"/>
-      <c r="G61" s="282"/>
-      <c r="H61" s="283"/>
-      <c r="I61" s="296"/>
-      <c r="J61" s="297"/>
-      <c r="K61" s="297"/>
-      <c r="L61" s="297"/>
-      <c r="M61" s="297"/>
-      <c r="N61" s="297"/>
-      <c r="O61" s="297"/>
-      <c r="P61" s="297"/>
-      <c r="Q61" s="297"/>
-      <c r="R61" s="297"/>
-      <c r="S61" s="297"/>
-      <c r="T61" s="297"/>
-      <c r="U61" s="297"/>
-      <c r="V61" s="297"/>
-      <c r="W61" s="297"/>
-      <c r="X61" s="297"/>
-      <c r="Y61" s="297"/>
-      <c r="Z61" s="319"/>
-      <c r="AA61" s="320"/>
-      <c r="AB61" s="321"/>
-      <c r="AC61" s="321"/>
-      <c r="AD61" s="322"/>
-      <c r="AE61" s="281"/>
-      <c r="AF61" s="282"/>
-      <c r="AG61" s="282"/>
-      <c r="AH61" s="282"/>
-      <c r="AI61" s="283"/>
-      <c r="AJ61" s="320"/>
-      <c r="AK61" s="321"/>
-      <c r="AL61" s="321"/>
-      <c r="AM61" s="322"/>
-      <c r="AN61" s="281"/>
-      <c r="AO61" s="282"/>
-      <c r="AP61" s="282"/>
-      <c r="AQ61" s="282"/>
-      <c r="AR61" s="283"/>
-      <c r="AS61" s="320"/>
-      <c r="AT61" s="321"/>
-      <c r="AU61" s="321"/>
-      <c r="AV61" s="322"/>
+      <c r="B61" s="273"/>
+      <c r="C61" s="274"/>
+      <c r="D61" s="278"/>
+      <c r="E61" s="279"/>
+      <c r="F61" s="279"/>
+      <c r="G61" s="279"/>
+      <c r="H61" s="280"/>
+      <c r="I61" s="293"/>
+      <c r="J61" s="294"/>
+      <c r="K61" s="294"/>
+      <c r="L61" s="294"/>
+      <c r="M61" s="294"/>
+      <c r="N61" s="294"/>
+      <c r="O61" s="294"/>
+      <c r="P61" s="294"/>
+      <c r="Q61" s="294"/>
+      <c r="R61" s="294"/>
+      <c r="S61" s="294"/>
+      <c r="T61" s="294"/>
+      <c r="U61" s="294"/>
+      <c r="V61" s="294"/>
+      <c r="W61" s="294"/>
+      <c r="X61" s="294"/>
+      <c r="Y61" s="294"/>
+      <c r="Z61" s="316"/>
+      <c r="AA61" s="317"/>
+      <c r="AB61" s="318"/>
+      <c r="AC61" s="318"/>
+      <c r="AD61" s="319"/>
+      <c r="AE61" s="278"/>
+      <c r="AF61" s="279"/>
+      <c r="AG61" s="279"/>
+      <c r="AH61" s="279"/>
+      <c r="AI61" s="280"/>
+      <c r="AJ61" s="317"/>
+      <c r="AK61" s="318"/>
+      <c r="AL61" s="318"/>
+      <c r="AM61" s="319"/>
+      <c r="AN61" s="278"/>
+      <c r="AO61" s="279"/>
+      <c r="AP61" s="279"/>
+      <c r="AQ61" s="279"/>
+      <c r="AR61" s="280"/>
+      <c r="AS61" s="317"/>
+      <c r="AT61" s="318"/>
+      <c r="AU61" s="318"/>
+      <c r="AV61" s="319"/>
       <c r="AW61" s="137"/>
     </row>
     <row r="62" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A62" s="14"/>
-      <c r="B62" s="276"/>
-      <c r="C62" s="277"/>
-      <c r="D62" s="281"/>
-      <c r="E62" s="282"/>
-      <c r="F62" s="282"/>
-      <c r="G62" s="282"/>
-      <c r="H62" s="283"/>
-      <c r="I62" s="296"/>
-      <c r="J62" s="297"/>
-      <c r="K62" s="297"/>
-      <c r="L62" s="297"/>
-      <c r="M62" s="297"/>
-      <c r="N62" s="297"/>
-      <c r="O62" s="297"/>
-      <c r="P62" s="297"/>
-      <c r="Q62" s="297"/>
-      <c r="R62" s="297"/>
-      <c r="S62" s="297"/>
-      <c r="T62" s="297"/>
-      <c r="U62" s="297"/>
-      <c r="V62" s="297"/>
-      <c r="W62" s="297"/>
-      <c r="X62" s="297"/>
-      <c r="Y62" s="297"/>
-      <c r="Z62" s="319"/>
-      <c r="AA62" s="320"/>
-      <c r="AB62" s="321"/>
-      <c r="AC62" s="321"/>
-      <c r="AD62" s="322"/>
-      <c r="AE62" s="281"/>
-      <c r="AF62" s="282"/>
-      <c r="AG62" s="282"/>
-      <c r="AH62" s="282"/>
-      <c r="AI62" s="283"/>
-      <c r="AJ62" s="320"/>
-      <c r="AK62" s="321"/>
-      <c r="AL62" s="321"/>
-      <c r="AM62" s="322"/>
-      <c r="AN62" s="281"/>
-      <c r="AO62" s="282"/>
-      <c r="AP62" s="282"/>
-      <c r="AQ62" s="282"/>
-      <c r="AR62" s="283"/>
-      <c r="AS62" s="320"/>
-      <c r="AT62" s="321"/>
-      <c r="AU62" s="321"/>
-      <c r="AV62" s="322"/>
+      <c r="B62" s="273"/>
+      <c r="C62" s="274"/>
+      <c r="D62" s="278"/>
+      <c r="E62" s="279"/>
+      <c r="F62" s="279"/>
+      <c r="G62" s="279"/>
+      <c r="H62" s="280"/>
+      <c r="I62" s="293"/>
+      <c r="J62" s="294"/>
+      <c r="K62" s="294"/>
+      <c r="L62" s="294"/>
+      <c r="M62" s="294"/>
+      <c r="N62" s="294"/>
+      <c r="O62" s="294"/>
+      <c r="P62" s="294"/>
+      <c r="Q62" s="294"/>
+      <c r="R62" s="294"/>
+      <c r="S62" s="294"/>
+      <c r="T62" s="294"/>
+      <c r="U62" s="294"/>
+      <c r="V62" s="294"/>
+      <c r="W62" s="294"/>
+      <c r="X62" s="294"/>
+      <c r="Y62" s="294"/>
+      <c r="Z62" s="316"/>
+      <c r="AA62" s="317"/>
+      <c r="AB62" s="318"/>
+      <c r="AC62" s="318"/>
+      <c r="AD62" s="319"/>
+      <c r="AE62" s="278"/>
+      <c r="AF62" s="279"/>
+      <c r="AG62" s="279"/>
+      <c r="AH62" s="279"/>
+      <c r="AI62" s="280"/>
+      <c r="AJ62" s="317"/>
+      <c r="AK62" s="318"/>
+      <c r="AL62" s="318"/>
+      <c r="AM62" s="319"/>
+      <c r="AN62" s="278"/>
+      <c r="AO62" s="279"/>
+      <c r="AP62" s="279"/>
+      <c r="AQ62" s="279"/>
+      <c r="AR62" s="280"/>
+      <c r="AS62" s="317"/>
+      <c r="AT62" s="318"/>
+      <c r="AU62" s="318"/>
+      <c r="AV62" s="319"/>
       <c r="AW62" s="137"/>
     </row>
     <row r="63" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A63" s="14"/>
-      <c r="B63" s="276"/>
-      <c r="C63" s="277"/>
-      <c r="D63" s="281"/>
-      <c r="E63" s="282"/>
-      <c r="F63" s="282"/>
-      <c r="G63" s="282"/>
-      <c r="H63" s="283"/>
-      <c r="I63" s="296"/>
-      <c r="J63" s="297"/>
-      <c r="K63" s="297"/>
-      <c r="L63" s="297"/>
-      <c r="M63" s="297"/>
-      <c r="N63" s="297"/>
-      <c r="O63" s="297"/>
-      <c r="P63" s="297"/>
-      <c r="Q63" s="297"/>
-      <c r="R63" s="297"/>
-      <c r="S63" s="297"/>
-      <c r="T63" s="297"/>
-      <c r="U63" s="297"/>
-      <c r="V63" s="297"/>
-      <c r="W63" s="297"/>
-      <c r="X63" s="297"/>
-      <c r="Y63" s="297"/>
-      <c r="Z63" s="319"/>
-      <c r="AA63" s="320"/>
-      <c r="AB63" s="321"/>
-      <c r="AC63" s="321"/>
-      <c r="AD63" s="322"/>
-      <c r="AE63" s="281"/>
-      <c r="AF63" s="282"/>
-      <c r="AG63" s="282"/>
-      <c r="AH63" s="282"/>
-      <c r="AI63" s="283"/>
-      <c r="AJ63" s="320"/>
-      <c r="AK63" s="321"/>
-      <c r="AL63" s="321"/>
-      <c r="AM63" s="322"/>
-      <c r="AN63" s="281"/>
-      <c r="AO63" s="282"/>
-      <c r="AP63" s="282"/>
-      <c r="AQ63" s="282"/>
-      <c r="AR63" s="283"/>
-      <c r="AS63" s="320"/>
-      <c r="AT63" s="321"/>
-      <c r="AU63" s="321"/>
-      <c r="AV63" s="322"/>
+      <c r="B63" s="273"/>
+      <c r="C63" s="274"/>
+      <c r="D63" s="278"/>
+      <c r="E63" s="279"/>
+      <c r="F63" s="279"/>
+      <c r="G63" s="279"/>
+      <c r="H63" s="280"/>
+      <c r="I63" s="293"/>
+      <c r="J63" s="294"/>
+      <c r="K63" s="294"/>
+      <c r="L63" s="294"/>
+      <c r="M63" s="294"/>
+      <c r="N63" s="294"/>
+      <c r="O63" s="294"/>
+      <c r="P63" s="294"/>
+      <c r="Q63" s="294"/>
+      <c r="R63" s="294"/>
+      <c r="S63" s="294"/>
+      <c r="T63" s="294"/>
+      <c r="U63" s="294"/>
+      <c r="V63" s="294"/>
+      <c r="W63" s="294"/>
+      <c r="X63" s="294"/>
+      <c r="Y63" s="294"/>
+      <c r="Z63" s="316"/>
+      <c r="AA63" s="317"/>
+      <c r="AB63" s="318"/>
+      <c r="AC63" s="318"/>
+      <c r="AD63" s="319"/>
+      <c r="AE63" s="278"/>
+      <c r="AF63" s="279"/>
+      <c r="AG63" s="279"/>
+      <c r="AH63" s="279"/>
+      <c r="AI63" s="280"/>
+      <c r="AJ63" s="317"/>
+      <c r="AK63" s="318"/>
+      <c r="AL63" s="318"/>
+      <c r="AM63" s="319"/>
+      <c r="AN63" s="278"/>
+      <c r="AO63" s="279"/>
+      <c r="AP63" s="279"/>
+      <c r="AQ63" s="279"/>
+      <c r="AR63" s="280"/>
+      <c r="AS63" s="317"/>
+      <c r="AT63" s="318"/>
+      <c r="AU63" s="318"/>
+      <c r="AV63" s="319"/>
       <c r="AW63" s="137"/>
     </row>
     <row r="64" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A64" s="14"/>
-      <c r="B64" s="276"/>
-      <c r="C64" s="277"/>
-      <c r="D64" s="281"/>
-      <c r="E64" s="282"/>
-      <c r="F64" s="282"/>
-      <c r="G64" s="282"/>
-      <c r="H64" s="283"/>
-      <c r="I64" s="296"/>
-      <c r="J64" s="297"/>
-      <c r="K64" s="297"/>
-      <c r="L64" s="297"/>
-      <c r="M64" s="297"/>
-      <c r="N64" s="297"/>
-      <c r="O64" s="297"/>
-      <c r="P64" s="297"/>
-      <c r="Q64" s="297"/>
-      <c r="R64" s="297"/>
-      <c r="S64" s="297"/>
-      <c r="T64" s="297"/>
-      <c r="U64" s="297"/>
-      <c r="V64" s="297"/>
-      <c r="W64" s="297"/>
-      <c r="X64" s="297"/>
-      <c r="Y64" s="297"/>
-      <c r="Z64" s="319"/>
-      <c r="AA64" s="320"/>
-      <c r="AB64" s="321"/>
-      <c r="AC64" s="321"/>
-      <c r="AD64" s="322"/>
-      <c r="AE64" s="281"/>
-      <c r="AF64" s="282"/>
-      <c r="AG64" s="282"/>
-      <c r="AH64" s="282"/>
-      <c r="AI64" s="283"/>
-      <c r="AJ64" s="320"/>
-      <c r="AK64" s="321"/>
-      <c r="AL64" s="321"/>
-      <c r="AM64" s="322"/>
-      <c r="AN64" s="281"/>
-      <c r="AO64" s="282"/>
-      <c r="AP64" s="282"/>
-      <c r="AQ64" s="282"/>
-      <c r="AR64" s="283"/>
-      <c r="AS64" s="320"/>
-      <c r="AT64" s="321"/>
-      <c r="AU64" s="321"/>
-      <c r="AV64" s="322"/>
+      <c r="B64" s="273"/>
+      <c r="C64" s="274"/>
+      <c r="D64" s="278"/>
+      <c r="E64" s="279"/>
+      <c r="F64" s="279"/>
+      <c r="G64" s="279"/>
+      <c r="H64" s="280"/>
+      <c r="I64" s="293"/>
+      <c r="J64" s="294"/>
+      <c r="K64" s="294"/>
+      <c r="L64" s="294"/>
+      <c r="M64" s="294"/>
+      <c r="N64" s="294"/>
+      <c r="O64" s="294"/>
+      <c r="P64" s="294"/>
+      <c r="Q64" s="294"/>
+      <c r="R64" s="294"/>
+      <c r="S64" s="294"/>
+      <c r="T64" s="294"/>
+      <c r="U64" s="294"/>
+      <c r="V64" s="294"/>
+      <c r="W64" s="294"/>
+      <c r="X64" s="294"/>
+      <c r="Y64" s="294"/>
+      <c r="Z64" s="316"/>
+      <c r="AA64" s="317"/>
+      <c r="AB64" s="318"/>
+      <c r="AC64" s="318"/>
+      <c r="AD64" s="319"/>
+      <c r="AE64" s="278"/>
+      <c r="AF64" s="279"/>
+      <c r="AG64" s="279"/>
+      <c r="AH64" s="279"/>
+      <c r="AI64" s="280"/>
+      <c r="AJ64" s="317"/>
+      <c r="AK64" s="318"/>
+      <c r="AL64" s="318"/>
+      <c r="AM64" s="319"/>
+      <c r="AN64" s="278"/>
+      <c r="AO64" s="279"/>
+      <c r="AP64" s="279"/>
+      <c r="AQ64" s="279"/>
+      <c r="AR64" s="280"/>
+      <c r="AS64" s="317"/>
+      <c r="AT64" s="318"/>
+      <c r="AU64" s="318"/>
+      <c r="AV64" s="319"/>
       <c r="AW64" s="137"/>
     </row>
     <row r="65" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A65" s="14"/>
-      <c r="B65" s="276"/>
-      <c r="C65" s="277"/>
-      <c r="D65" s="281"/>
-      <c r="E65" s="282"/>
-      <c r="F65" s="282"/>
-      <c r="G65" s="282"/>
-      <c r="H65" s="283"/>
-      <c r="I65" s="296"/>
-      <c r="J65" s="297"/>
-      <c r="K65" s="297"/>
-      <c r="L65" s="297"/>
-      <c r="M65" s="297"/>
-      <c r="N65" s="297"/>
-      <c r="O65" s="297"/>
-      <c r="P65" s="297"/>
-      <c r="Q65" s="297"/>
-      <c r="R65" s="297"/>
-      <c r="S65" s="297"/>
-      <c r="T65" s="297"/>
-      <c r="U65" s="297"/>
-      <c r="V65" s="297"/>
-      <c r="W65" s="297"/>
-      <c r="X65" s="297"/>
-      <c r="Y65" s="297"/>
-      <c r="Z65" s="319"/>
-      <c r="AA65" s="320"/>
-      <c r="AB65" s="321"/>
-      <c r="AC65" s="321"/>
-      <c r="AD65" s="322"/>
-      <c r="AE65" s="281"/>
-      <c r="AF65" s="282"/>
-      <c r="AG65" s="282"/>
-      <c r="AH65" s="282"/>
-      <c r="AI65" s="283"/>
-      <c r="AJ65" s="320"/>
-      <c r="AK65" s="321"/>
-      <c r="AL65" s="321"/>
-      <c r="AM65" s="322"/>
-      <c r="AN65" s="281"/>
-      <c r="AO65" s="282"/>
-      <c r="AP65" s="282"/>
-      <c r="AQ65" s="282"/>
-      <c r="AR65" s="283"/>
-      <c r="AS65" s="320"/>
-      <c r="AT65" s="321"/>
-      <c r="AU65" s="321"/>
-      <c r="AV65" s="322"/>
+      <c r="B65" s="273"/>
+      <c r="C65" s="274"/>
+      <c r="D65" s="278"/>
+      <c r="E65" s="279"/>
+      <c r="F65" s="279"/>
+      <c r="G65" s="279"/>
+      <c r="H65" s="280"/>
+      <c r="I65" s="293"/>
+      <c r="J65" s="294"/>
+      <c r="K65" s="294"/>
+      <c r="L65" s="294"/>
+      <c r="M65" s="294"/>
+      <c r="N65" s="294"/>
+      <c r="O65" s="294"/>
+      <c r="P65" s="294"/>
+      <c r="Q65" s="294"/>
+      <c r="R65" s="294"/>
+      <c r="S65" s="294"/>
+      <c r="T65" s="294"/>
+      <c r="U65" s="294"/>
+      <c r="V65" s="294"/>
+      <c r="W65" s="294"/>
+      <c r="X65" s="294"/>
+      <c r="Y65" s="294"/>
+      <c r="Z65" s="316"/>
+      <c r="AA65" s="317"/>
+      <c r="AB65" s="318"/>
+      <c r="AC65" s="318"/>
+      <c r="AD65" s="319"/>
+      <c r="AE65" s="278"/>
+      <c r="AF65" s="279"/>
+      <c r="AG65" s="279"/>
+      <c r="AH65" s="279"/>
+      <c r="AI65" s="280"/>
+      <c r="AJ65" s="317"/>
+      <c r="AK65" s="318"/>
+      <c r="AL65" s="318"/>
+      <c r="AM65" s="319"/>
+      <c r="AN65" s="278"/>
+      <c r="AO65" s="279"/>
+      <c r="AP65" s="279"/>
+      <c r="AQ65" s="279"/>
+      <c r="AR65" s="280"/>
+      <c r="AS65" s="317"/>
+      <c r="AT65" s="318"/>
+      <c r="AU65" s="318"/>
+      <c r="AV65" s="319"/>
       <c r="AW65" s="137"/>
     </row>
     <row r="66" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A66" s="14"/>
-      <c r="B66" s="276"/>
-      <c r="C66" s="277"/>
-      <c r="D66" s="281"/>
-      <c r="E66" s="282"/>
-      <c r="F66" s="282"/>
-      <c r="G66" s="282"/>
-      <c r="H66" s="283"/>
-      <c r="I66" s="296"/>
-      <c r="J66" s="297"/>
-      <c r="K66" s="297"/>
-      <c r="L66" s="297"/>
-      <c r="M66" s="297"/>
-      <c r="N66" s="297"/>
-      <c r="O66" s="297"/>
-      <c r="P66" s="297"/>
-      <c r="Q66" s="297"/>
-      <c r="R66" s="297"/>
-      <c r="S66" s="297"/>
-      <c r="T66" s="297"/>
-      <c r="U66" s="297"/>
-      <c r="V66" s="297"/>
-      <c r="W66" s="297"/>
-      <c r="X66" s="297"/>
-      <c r="Y66" s="297"/>
-      <c r="Z66" s="319"/>
-      <c r="AA66" s="320"/>
-      <c r="AB66" s="321"/>
-      <c r="AC66" s="321"/>
-      <c r="AD66" s="322"/>
-      <c r="AE66" s="281"/>
-      <c r="AF66" s="282"/>
-      <c r="AG66" s="282"/>
-      <c r="AH66" s="282"/>
-      <c r="AI66" s="283"/>
-      <c r="AJ66" s="320"/>
-      <c r="AK66" s="321"/>
-      <c r="AL66" s="321"/>
-      <c r="AM66" s="322"/>
-      <c r="AN66" s="281"/>
-      <c r="AO66" s="282"/>
-      <c r="AP66" s="282"/>
-      <c r="AQ66" s="282"/>
-      <c r="AR66" s="283"/>
-      <c r="AS66" s="320"/>
-      <c r="AT66" s="321"/>
-      <c r="AU66" s="321"/>
-      <c r="AV66" s="322"/>
+      <c r="B66" s="273"/>
+      <c r="C66" s="274"/>
+      <c r="D66" s="278"/>
+      <c r="E66" s="279"/>
+      <c r="F66" s="279"/>
+      <c r="G66" s="279"/>
+      <c r="H66" s="280"/>
+      <c r="I66" s="293"/>
+      <c r="J66" s="294"/>
+      <c r="K66" s="294"/>
+      <c r="L66" s="294"/>
+      <c r="M66" s="294"/>
+      <c r="N66" s="294"/>
+      <c r="O66" s="294"/>
+      <c r="P66" s="294"/>
+      <c r="Q66" s="294"/>
+      <c r="R66" s="294"/>
+      <c r="S66" s="294"/>
+      <c r="T66" s="294"/>
+      <c r="U66" s="294"/>
+      <c r="V66" s="294"/>
+      <c r="W66" s="294"/>
+      <c r="X66" s="294"/>
+      <c r="Y66" s="294"/>
+      <c r="Z66" s="316"/>
+      <c r="AA66" s="317"/>
+      <c r="AB66" s="318"/>
+      <c r="AC66" s="318"/>
+      <c r="AD66" s="319"/>
+      <c r="AE66" s="278"/>
+      <c r="AF66" s="279"/>
+      <c r="AG66" s="279"/>
+      <c r="AH66" s="279"/>
+      <c r="AI66" s="280"/>
+      <c r="AJ66" s="317"/>
+      <c r="AK66" s="318"/>
+      <c r="AL66" s="318"/>
+      <c r="AM66" s="319"/>
+      <c r="AN66" s="278"/>
+      <c r="AO66" s="279"/>
+      <c r="AP66" s="279"/>
+      <c r="AQ66" s="279"/>
+      <c r="AR66" s="280"/>
+      <c r="AS66" s="317"/>
+      <c r="AT66" s="318"/>
+      <c r="AU66" s="318"/>
+      <c r="AV66" s="319"/>
       <c r="AW66" s="137"/>
     </row>
     <row r="67" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A67" s="14"/>
-      <c r="B67" s="276"/>
-      <c r="C67" s="277"/>
-      <c r="D67" s="281"/>
-      <c r="E67" s="282"/>
-      <c r="F67" s="282"/>
-      <c r="G67" s="282"/>
-      <c r="H67" s="283"/>
-      <c r="I67" s="296"/>
-      <c r="J67" s="297"/>
-      <c r="K67" s="297"/>
-      <c r="L67" s="297"/>
-      <c r="M67" s="297"/>
-      <c r="N67" s="297"/>
-      <c r="O67" s="297"/>
-      <c r="P67" s="297"/>
-      <c r="Q67" s="297"/>
-      <c r="R67" s="297"/>
-      <c r="S67" s="297"/>
-      <c r="T67" s="297"/>
-      <c r="U67" s="297"/>
-      <c r="V67" s="297"/>
-      <c r="W67" s="297"/>
-      <c r="X67" s="297"/>
-      <c r="Y67" s="297"/>
-      <c r="Z67" s="319"/>
-      <c r="AA67" s="320"/>
-      <c r="AB67" s="321"/>
-      <c r="AC67" s="321"/>
-      <c r="AD67" s="322"/>
-      <c r="AE67" s="281"/>
-      <c r="AF67" s="282"/>
-      <c r="AG67" s="282"/>
-      <c r="AH67" s="282"/>
-      <c r="AI67" s="283"/>
-      <c r="AJ67" s="320"/>
-      <c r="AK67" s="321"/>
-      <c r="AL67" s="321"/>
-      <c r="AM67" s="322"/>
-      <c r="AN67" s="281"/>
-      <c r="AO67" s="282"/>
-      <c r="AP67" s="282"/>
-      <c r="AQ67" s="282"/>
-      <c r="AR67" s="283"/>
-      <c r="AS67" s="320"/>
-      <c r="AT67" s="321"/>
-      <c r="AU67" s="321"/>
-      <c r="AV67" s="322"/>
+      <c r="B67" s="273"/>
+      <c r="C67" s="274"/>
+      <c r="D67" s="278"/>
+      <c r="E67" s="279"/>
+      <c r="F67" s="279"/>
+      <c r="G67" s="279"/>
+      <c r="H67" s="280"/>
+      <c r="I67" s="293"/>
+      <c r="J67" s="294"/>
+      <c r="K67" s="294"/>
+      <c r="L67" s="294"/>
+      <c r="M67" s="294"/>
+      <c r="N67" s="294"/>
+      <c r="O67" s="294"/>
+      <c r="P67" s="294"/>
+      <c r="Q67" s="294"/>
+      <c r="R67" s="294"/>
+      <c r="S67" s="294"/>
+      <c r="T67" s="294"/>
+      <c r="U67" s="294"/>
+      <c r="V67" s="294"/>
+      <c r="W67" s="294"/>
+      <c r="X67" s="294"/>
+      <c r="Y67" s="294"/>
+      <c r="Z67" s="316"/>
+      <c r="AA67" s="317"/>
+      <c r="AB67" s="318"/>
+      <c r="AC67" s="318"/>
+      <c r="AD67" s="319"/>
+      <c r="AE67" s="278"/>
+      <c r="AF67" s="279"/>
+      <c r="AG67" s="279"/>
+      <c r="AH67" s="279"/>
+      <c r="AI67" s="280"/>
+      <c r="AJ67" s="317"/>
+      <c r="AK67" s="318"/>
+      <c r="AL67" s="318"/>
+      <c r="AM67" s="319"/>
+      <c r="AN67" s="278"/>
+      <c r="AO67" s="279"/>
+      <c r="AP67" s="279"/>
+      <c r="AQ67" s="279"/>
+      <c r="AR67" s="280"/>
+      <c r="AS67" s="317"/>
+      <c r="AT67" s="318"/>
+      <c r="AU67" s="318"/>
+      <c r="AV67" s="319"/>
       <c r="AW67" s="137"/>
     </row>
     <row r="68" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A68" s="14"/>
-      <c r="B68" s="276"/>
-      <c r="C68" s="277"/>
-      <c r="D68" s="281"/>
-      <c r="E68" s="282"/>
-      <c r="F68" s="282"/>
-      <c r="G68" s="282"/>
-      <c r="H68" s="283"/>
-      <c r="I68" s="296"/>
-      <c r="J68" s="297"/>
-      <c r="K68" s="297"/>
-      <c r="L68" s="297"/>
-      <c r="M68" s="297"/>
-      <c r="N68" s="297"/>
-      <c r="O68" s="297"/>
-      <c r="P68" s="297"/>
-      <c r="Q68" s="297"/>
-      <c r="R68" s="297"/>
-      <c r="S68" s="297"/>
-      <c r="T68" s="297"/>
-      <c r="U68" s="297"/>
-      <c r="V68" s="297"/>
-      <c r="W68" s="297"/>
-      <c r="X68" s="297"/>
-      <c r="Y68" s="297"/>
-      <c r="Z68" s="319"/>
-      <c r="AA68" s="320"/>
-      <c r="AB68" s="321"/>
-      <c r="AC68" s="321"/>
-      <c r="AD68" s="322"/>
-      <c r="AE68" s="281"/>
-      <c r="AF68" s="282"/>
-      <c r="AG68" s="282"/>
-      <c r="AH68" s="282"/>
-      <c r="AI68" s="283"/>
-      <c r="AJ68" s="320"/>
-      <c r="AK68" s="321"/>
-      <c r="AL68" s="321"/>
-      <c r="AM68" s="322"/>
-      <c r="AN68" s="281"/>
-      <c r="AO68" s="282"/>
-      <c r="AP68" s="282"/>
-      <c r="AQ68" s="282"/>
-      <c r="AR68" s="283"/>
-      <c r="AS68" s="320"/>
-      <c r="AT68" s="321"/>
-      <c r="AU68" s="321"/>
-      <c r="AV68" s="322"/>
+      <c r="B68" s="273"/>
+      <c r="C68" s="274"/>
+      <c r="D68" s="278"/>
+      <c r="E68" s="279"/>
+      <c r="F68" s="279"/>
+      <c r="G68" s="279"/>
+      <c r="H68" s="280"/>
+      <c r="I68" s="293"/>
+      <c r="J68" s="294"/>
+      <c r="K68" s="294"/>
+      <c r="L68" s="294"/>
+      <c r="M68" s="294"/>
+      <c r="N68" s="294"/>
+      <c r="O68" s="294"/>
+      <c r="P68" s="294"/>
+      <c r="Q68" s="294"/>
+      <c r="R68" s="294"/>
+      <c r="S68" s="294"/>
+      <c r="T68" s="294"/>
+      <c r="U68" s="294"/>
+      <c r="V68" s="294"/>
+      <c r="W68" s="294"/>
+      <c r="X68" s="294"/>
+      <c r="Y68" s="294"/>
+      <c r="Z68" s="316"/>
+      <c r="AA68" s="317"/>
+      <c r="AB68" s="318"/>
+      <c r="AC68" s="318"/>
+      <c r="AD68" s="319"/>
+      <c r="AE68" s="278"/>
+      <c r="AF68" s="279"/>
+      <c r="AG68" s="279"/>
+      <c r="AH68" s="279"/>
+      <c r="AI68" s="280"/>
+      <c r="AJ68" s="317"/>
+      <c r="AK68" s="318"/>
+      <c r="AL68" s="318"/>
+      <c r="AM68" s="319"/>
+      <c r="AN68" s="278"/>
+      <c r="AO68" s="279"/>
+      <c r="AP68" s="279"/>
+      <c r="AQ68" s="279"/>
+      <c r="AR68" s="280"/>
+      <c r="AS68" s="317"/>
+      <c r="AT68" s="318"/>
+      <c r="AU68" s="318"/>
+      <c r="AV68" s="319"/>
       <c r="AW68" s="137"/>
     </row>
     <row r="69" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A69" s="14"/>
-      <c r="B69" s="276"/>
-      <c r="C69" s="277"/>
-      <c r="D69" s="281"/>
-      <c r="E69" s="282"/>
-      <c r="F69" s="282"/>
-      <c r="G69" s="282"/>
-      <c r="H69" s="283"/>
-      <c r="I69" s="296"/>
-      <c r="J69" s="297"/>
-      <c r="K69" s="297"/>
-      <c r="L69" s="297"/>
-      <c r="M69" s="297"/>
-      <c r="N69" s="297"/>
-      <c r="O69" s="297"/>
-      <c r="P69" s="297"/>
-      <c r="Q69" s="297"/>
-      <c r="R69" s="297"/>
-      <c r="S69" s="297"/>
-      <c r="T69" s="297"/>
-      <c r="U69" s="297"/>
-      <c r="V69" s="297"/>
-      <c r="W69" s="297"/>
-      <c r="X69" s="297"/>
-      <c r="Y69" s="297"/>
-      <c r="Z69" s="319"/>
-      <c r="AA69" s="320"/>
-      <c r="AB69" s="321"/>
-      <c r="AC69" s="321"/>
-      <c r="AD69" s="322"/>
-      <c r="AE69" s="281"/>
-      <c r="AF69" s="282"/>
-      <c r="AG69" s="282"/>
-      <c r="AH69" s="282"/>
-      <c r="AI69" s="283"/>
-      <c r="AJ69" s="320"/>
-      <c r="AK69" s="321"/>
-      <c r="AL69" s="321"/>
-      <c r="AM69" s="322"/>
-      <c r="AN69" s="281"/>
-      <c r="AO69" s="282"/>
-      <c r="AP69" s="282"/>
-      <c r="AQ69" s="282"/>
-      <c r="AR69" s="283"/>
-      <c r="AS69" s="320"/>
-      <c r="AT69" s="321"/>
-      <c r="AU69" s="321"/>
-      <c r="AV69" s="322"/>
+      <c r="B69" s="273"/>
+      <c r="C69" s="274"/>
+      <c r="D69" s="278"/>
+      <c r="E69" s="279"/>
+      <c r="F69" s="279"/>
+      <c r="G69" s="279"/>
+      <c r="H69" s="280"/>
+      <c r="I69" s="293"/>
+      <c r="J69" s="294"/>
+      <c r="K69" s="294"/>
+      <c r="L69" s="294"/>
+      <c r="M69" s="294"/>
+      <c r="N69" s="294"/>
+      <c r="O69" s="294"/>
+      <c r="P69" s="294"/>
+      <c r="Q69" s="294"/>
+      <c r="R69" s="294"/>
+      <c r="S69" s="294"/>
+      <c r="T69" s="294"/>
+      <c r="U69" s="294"/>
+      <c r="V69" s="294"/>
+      <c r="W69" s="294"/>
+      <c r="X69" s="294"/>
+      <c r="Y69" s="294"/>
+      <c r="Z69" s="316"/>
+      <c r="AA69" s="317"/>
+      <c r="AB69" s="318"/>
+      <c r="AC69" s="318"/>
+      <c r="AD69" s="319"/>
+      <c r="AE69" s="278"/>
+      <c r="AF69" s="279"/>
+      <c r="AG69" s="279"/>
+      <c r="AH69" s="279"/>
+      <c r="AI69" s="280"/>
+      <c r="AJ69" s="317"/>
+      <c r="AK69" s="318"/>
+      <c r="AL69" s="318"/>
+      <c r="AM69" s="319"/>
+      <c r="AN69" s="278"/>
+      <c r="AO69" s="279"/>
+      <c r="AP69" s="279"/>
+      <c r="AQ69" s="279"/>
+      <c r="AR69" s="280"/>
+      <c r="AS69" s="317"/>
+      <c r="AT69" s="318"/>
+      <c r="AU69" s="318"/>
+      <c r="AV69" s="319"/>
       <c r="AW69" s="137"/>
     </row>
     <row r="70" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A70" s="14"/>
-      <c r="B70" s="276"/>
-      <c r="C70" s="277"/>
-      <c r="D70" s="281"/>
-      <c r="E70" s="282"/>
-      <c r="F70" s="282"/>
-      <c r="G70" s="282"/>
-      <c r="H70" s="283"/>
-      <c r="I70" s="296"/>
-      <c r="J70" s="297"/>
-      <c r="K70" s="297"/>
-      <c r="L70" s="297"/>
-      <c r="M70" s="297"/>
-      <c r="N70" s="297"/>
-      <c r="O70" s="297"/>
-      <c r="P70" s="297"/>
-      <c r="Q70" s="297"/>
-      <c r="R70" s="297"/>
-      <c r="S70" s="297"/>
-      <c r="T70" s="297"/>
-      <c r="U70" s="297"/>
-      <c r="V70" s="297"/>
-      <c r="W70" s="297"/>
-      <c r="X70" s="297"/>
-      <c r="Y70" s="297"/>
-      <c r="Z70" s="319"/>
-      <c r="AA70" s="320"/>
-      <c r="AB70" s="321"/>
-      <c r="AC70" s="321"/>
-      <c r="AD70" s="322"/>
-      <c r="AE70" s="281"/>
-      <c r="AF70" s="282"/>
-      <c r="AG70" s="282"/>
-      <c r="AH70" s="282"/>
-      <c r="AI70" s="283"/>
-      <c r="AJ70" s="320"/>
-      <c r="AK70" s="321"/>
-      <c r="AL70" s="321"/>
-      <c r="AM70" s="322"/>
-      <c r="AN70" s="281"/>
-      <c r="AO70" s="282"/>
-      <c r="AP70" s="282"/>
-      <c r="AQ70" s="282"/>
-      <c r="AR70" s="283"/>
-      <c r="AS70" s="320"/>
-      <c r="AT70" s="321"/>
-      <c r="AU70" s="321"/>
-      <c r="AV70" s="322"/>
+      <c r="B70" s="273"/>
+      <c r="C70" s="274"/>
+      <c r="D70" s="278"/>
+      <c r="E70" s="279"/>
+      <c r="F70" s="279"/>
+      <c r="G70" s="279"/>
+      <c r="H70" s="280"/>
+      <c r="I70" s="293"/>
+      <c r="J70" s="294"/>
+      <c r="K70" s="294"/>
+      <c r="L70" s="294"/>
+      <c r="M70" s="294"/>
+      <c r="N70" s="294"/>
+      <c r="O70" s="294"/>
+      <c r="P70" s="294"/>
+      <c r="Q70" s="294"/>
+      <c r="R70" s="294"/>
+      <c r="S70" s="294"/>
+      <c r="T70" s="294"/>
+      <c r="U70" s="294"/>
+      <c r="V70" s="294"/>
+      <c r="W70" s="294"/>
+      <c r="X70" s="294"/>
+      <c r="Y70" s="294"/>
+      <c r="Z70" s="316"/>
+      <c r="AA70" s="317"/>
+      <c r="AB70" s="318"/>
+      <c r="AC70" s="318"/>
+      <c r="AD70" s="319"/>
+      <c r="AE70" s="278"/>
+      <c r="AF70" s="279"/>
+      <c r="AG70" s="279"/>
+      <c r="AH70" s="279"/>
+      <c r="AI70" s="280"/>
+      <c r="AJ70" s="317"/>
+      <c r="AK70" s="318"/>
+      <c r="AL70" s="318"/>
+      <c r="AM70" s="319"/>
+      <c r="AN70" s="278"/>
+      <c r="AO70" s="279"/>
+      <c r="AP70" s="279"/>
+      <c r="AQ70" s="279"/>
+      <c r="AR70" s="280"/>
+      <c r="AS70" s="317"/>
+      <c r="AT70" s="318"/>
+      <c r="AU70" s="318"/>
+      <c r="AV70" s="319"/>
       <c r="AW70" s="137"/>
     </row>
     <row r="71" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A71" s="14"/>
-      <c r="B71" s="276"/>
-      <c r="C71" s="277"/>
-      <c r="D71" s="281"/>
-      <c r="E71" s="282"/>
-      <c r="F71" s="282"/>
-      <c r="G71" s="282"/>
-      <c r="H71" s="283"/>
-      <c r="I71" s="296"/>
-      <c r="J71" s="297"/>
-      <c r="K71" s="297"/>
-      <c r="L71" s="297"/>
-      <c r="M71" s="297"/>
-      <c r="N71" s="297"/>
-      <c r="O71" s="297"/>
-      <c r="P71" s="297"/>
-      <c r="Q71" s="297"/>
-      <c r="R71" s="297"/>
-      <c r="S71" s="297"/>
-      <c r="T71" s="297"/>
-      <c r="U71" s="297"/>
-      <c r="V71" s="297"/>
-      <c r="W71" s="297"/>
-      <c r="X71" s="297"/>
-      <c r="Y71" s="297"/>
-      <c r="Z71" s="319"/>
-      <c r="AA71" s="320"/>
-      <c r="AB71" s="321"/>
-      <c r="AC71" s="321"/>
-      <c r="AD71" s="322"/>
-      <c r="AE71" s="281"/>
-      <c r="AF71" s="282"/>
-      <c r="AG71" s="282"/>
-      <c r="AH71" s="282"/>
-      <c r="AI71" s="283"/>
-      <c r="AJ71" s="320"/>
-      <c r="AK71" s="321"/>
-      <c r="AL71" s="321"/>
-      <c r="AM71" s="322"/>
-      <c r="AN71" s="281"/>
-      <c r="AO71" s="282"/>
-      <c r="AP71" s="282"/>
-      <c r="AQ71" s="282"/>
-      <c r="AR71" s="283"/>
-      <c r="AS71" s="320"/>
-      <c r="AT71" s="321"/>
-      <c r="AU71" s="321"/>
-      <c r="AV71" s="322"/>
+      <c r="B71" s="273"/>
+      <c r="C71" s="274"/>
+      <c r="D71" s="278"/>
+      <c r="E71" s="279"/>
+      <c r="F71" s="279"/>
+      <c r="G71" s="279"/>
+      <c r="H71" s="280"/>
+      <c r="I71" s="293"/>
+      <c r="J71" s="294"/>
+      <c r="K71" s="294"/>
+      <c r="L71" s="294"/>
+      <c r="M71" s="294"/>
+      <c r="N71" s="294"/>
+      <c r="O71" s="294"/>
+      <c r="P71" s="294"/>
+      <c r="Q71" s="294"/>
+      <c r="R71" s="294"/>
+      <c r="S71" s="294"/>
+      <c r="T71" s="294"/>
+      <c r="U71" s="294"/>
+      <c r="V71" s="294"/>
+      <c r="W71" s="294"/>
+      <c r="X71" s="294"/>
+      <c r="Y71" s="294"/>
+      <c r="Z71" s="316"/>
+      <c r="AA71" s="317"/>
+      <c r="AB71" s="318"/>
+      <c r="AC71" s="318"/>
+      <c r="AD71" s="319"/>
+      <c r="AE71" s="278"/>
+      <c r="AF71" s="279"/>
+      <c r="AG71" s="279"/>
+      <c r="AH71" s="279"/>
+      <c r="AI71" s="280"/>
+      <c r="AJ71" s="317"/>
+      <c r="AK71" s="318"/>
+      <c r="AL71" s="318"/>
+      <c r="AM71" s="319"/>
+      <c r="AN71" s="278"/>
+      <c r="AO71" s="279"/>
+      <c r="AP71" s="279"/>
+      <c r="AQ71" s="279"/>
+      <c r="AR71" s="280"/>
+      <c r="AS71" s="317"/>
+      <c r="AT71" s="318"/>
+      <c r="AU71" s="318"/>
+      <c r="AV71" s="319"/>
       <c r="AW71" s="137"/>
     </row>
     <row r="72" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A72" s="14"/>
-      <c r="B72" s="276"/>
-      <c r="C72" s="277"/>
-      <c r="D72" s="281"/>
-      <c r="E72" s="282"/>
-      <c r="F72" s="282"/>
-      <c r="G72" s="282"/>
-      <c r="H72" s="283"/>
-      <c r="I72" s="296"/>
-      <c r="J72" s="297"/>
-      <c r="K72" s="297"/>
-      <c r="L72" s="297"/>
-      <c r="M72" s="297"/>
-      <c r="N72" s="297"/>
-      <c r="O72" s="297"/>
-      <c r="P72" s="297"/>
-      <c r="Q72" s="297"/>
-      <c r="R72" s="297"/>
-      <c r="S72" s="297"/>
-      <c r="T72" s="297"/>
-      <c r="U72" s="297"/>
-      <c r="V72" s="297"/>
-      <c r="W72" s="297"/>
-      <c r="X72" s="297"/>
-      <c r="Y72" s="297"/>
-      <c r="Z72" s="319"/>
-      <c r="AA72" s="320"/>
-      <c r="AB72" s="321"/>
-      <c r="AC72" s="321"/>
-      <c r="AD72" s="322"/>
-      <c r="AE72" s="281"/>
-      <c r="AF72" s="282"/>
-      <c r="AG72" s="282"/>
-      <c r="AH72" s="282"/>
-      <c r="AI72" s="283"/>
-      <c r="AJ72" s="320"/>
-      <c r="AK72" s="321"/>
-      <c r="AL72" s="321"/>
-      <c r="AM72" s="322"/>
-      <c r="AN72" s="281"/>
-      <c r="AO72" s="282"/>
-      <c r="AP72" s="282"/>
-      <c r="AQ72" s="282"/>
-      <c r="AR72" s="283"/>
-      <c r="AS72" s="320"/>
-      <c r="AT72" s="321"/>
-      <c r="AU72" s="321"/>
-      <c r="AV72" s="322"/>
+      <c r="B72" s="273"/>
+      <c r="C72" s="274"/>
+      <c r="D72" s="278"/>
+      <c r="E72" s="279"/>
+      <c r="F72" s="279"/>
+      <c r="G72" s="279"/>
+      <c r="H72" s="280"/>
+      <c r="I72" s="293"/>
+      <c r="J72" s="294"/>
+      <c r="K72" s="294"/>
+      <c r="L72" s="294"/>
+      <c r="M72" s="294"/>
+      <c r="N72" s="294"/>
+      <c r="O72" s="294"/>
+      <c r="P72" s="294"/>
+      <c r="Q72" s="294"/>
+      <c r="R72" s="294"/>
+      <c r="S72" s="294"/>
+      <c r="T72" s="294"/>
+      <c r="U72" s="294"/>
+      <c r="V72" s="294"/>
+      <c r="W72" s="294"/>
+      <c r="X72" s="294"/>
+      <c r="Y72" s="294"/>
+      <c r="Z72" s="316"/>
+      <c r="AA72" s="317"/>
+      <c r="AB72" s="318"/>
+      <c r="AC72" s="318"/>
+      <c r="AD72" s="319"/>
+      <c r="AE72" s="278"/>
+      <c r="AF72" s="279"/>
+      <c r="AG72" s="279"/>
+      <c r="AH72" s="279"/>
+      <c r="AI72" s="280"/>
+      <c r="AJ72" s="317"/>
+      <c r="AK72" s="318"/>
+      <c r="AL72" s="318"/>
+      <c r="AM72" s="319"/>
+      <c r="AN72" s="278"/>
+      <c r="AO72" s="279"/>
+      <c r="AP72" s="279"/>
+      <c r="AQ72" s="279"/>
+      <c r="AR72" s="280"/>
+      <c r="AS72" s="317"/>
+      <c r="AT72" s="318"/>
+      <c r="AU72" s="318"/>
+      <c r="AV72" s="319"/>
       <c r="AW72" s="137"/>
     </row>
     <row r="73" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A73" s="14"/>
-      <c r="B73" s="276"/>
-      <c r="C73" s="277"/>
-      <c r="D73" s="281"/>
-      <c r="E73" s="282"/>
-      <c r="F73" s="282"/>
-      <c r="G73" s="282"/>
-      <c r="H73" s="283"/>
-      <c r="I73" s="296"/>
-      <c r="J73" s="297"/>
-      <c r="K73" s="297"/>
-      <c r="L73" s="297"/>
-      <c r="M73" s="297"/>
-      <c r="N73" s="297"/>
-      <c r="O73" s="297"/>
-      <c r="P73" s="297"/>
-      <c r="Q73" s="297"/>
-      <c r="R73" s="297"/>
-      <c r="S73" s="297"/>
-      <c r="T73" s="297"/>
-      <c r="U73" s="297"/>
-      <c r="V73" s="297"/>
-      <c r="W73" s="297"/>
-      <c r="X73" s="297"/>
-      <c r="Y73" s="297"/>
-      <c r="Z73" s="319"/>
-      <c r="AA73" s="320"/>
-      <c r="AB73" s="321"/>
-      <c r="AC73" s="321"/>
-      <c r="AD73" s="322"/>
-      <c r="AE73" s="281"/>
-      <c r="AF73" s="282"/>
-      <c r="AG73" s="282"/>
-      <c r="AH73" s="282"/>
-      <c r="AI73" s="283"/>
-      <c r="AJ73" s="320"/>
-      <c r="AK73" s="321"/>
-      <c r="AL73" s="321"/>
-      <c r="AM73" s="322"/>
-      <c r="AN73" s="281"/>
-      <c r="AO73" s="282"/>
-      <c r="AP73" s="282"/>
-      <c r="AQ73" s="282"/>
-      <c r="AR73" s="283"/>
-      <c r="AS73" s="320"/>
-      <c r="AT73" s="321"/>
-      <c r="AU73" s="321"/>
-      <c r="AV73" s="322"/>
+      <c r="B73" s="273"/>
+      <c r="C73" s="274"/>
+      <c r="D73" s="278"/>
+      <c r="E73" s="279"/>
+      <c r="F73" s="279"/>
+      <c r="G73" s="279"/>
+      <c r="H73" s="280"/>
+      <c r="I73" s="293"/>
+      <c r="J73" s="294"/>
+      <c r="K73" s="294"/>
+      <c r="L73" s="294"/>
+      <c r="M73" s="294"/>
+      <c r="N73" s="294"/>
+      <c r="O73" s="294"/>
+      <c r="P73" s="294"/>
+      <c r="Q73" s="294"/>
+      <c r="R73" s="294"/>
+      <c r="S73" s="294"/>
+      <c r="T73" s="294"/>
+      <c r="U73" s="294"/>
+      <c r="V73" s="294"/>
+      <c r="W73" s="294"/>
+      <c r="X73" s="294"/>
+      <c r="Y73" s="294"/>
+      <c r="Z73" s="316"/>
+      <c r="AA73" s="317"/>
+      <c r="AB73" s="318"/>
+      <c r="AC73" s="318"/>
+      <c r="AD73" s="319"/>
+      <c r="AE73" s="278"/>
+      <c r="AF73" s="279"/>
+      <c r="AG73" s="279"/>
+      <c r="AH73" s="279"/>
+      <c r="AI73" s="280"/>
+      <c r="AJ73" s="317"/>
+      <c r="AK73" s="318"/>
+      <c r="AL73" s="318"/>
+      <c r="AM73" s="319"/>
+      <c r="AN73" s="278"/>
+      <c r="AO73" s="279"/>
+      <c r="AP73" s="279"/>
+      <c r="AQ73" s="279"/>
+      <c r="AR73" s="280"/>
+      <c r="AS73" s="317"/>
+      <c r="AT73" s="318"/>
+      <c r="AU73" s="318"/>
+      <c r="AV73" s="319"/>
       <c r="AW73" s="137"/>
     </row>
     <row r="74" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A74" s="14"/>
-      <c r="B74" s="276"/>
-      <c r="C74" s="277"/>
-      <c r="D74" s="281"/>
-      <c r="E74" s="282"/>
-      <c r="F74" s="282"/>
-      <c r="G74" s="282"/>
-      <c r="H74" s="283"/>
-      <c r="I74" s="296"/>
-      <c r="J74" s="297"/>
-      <c r="K74" s="297"/>
-      <c r="L74" s="297"/>
-      <c r="M74" s="297"/>
-      <c r="N74" s="297"/>
-      <c r="O74" s="297"/>
-      <c r="P74" s="297"/>
-      <c r="Q74" s="297"/>
-      <c r="R74" s="297"/>
-      <c r="S74" s="297"/>
-      <c r="T74" s="297"/>
-      <c r="U74" s="297"/>
-      <c r="V74" s="297"/>
-      <c r="W74" s="297"/>
-      <c r="X74" s="297"/>
-      <c r="Y74" s="297"/>
-      <c r="Z74" s="319"/>
-      <c r="AA74" s="320"/>
-      <c r="AB74" s="321"/>
-      <c r="AC74" s="321"/>
-      <c r="AD74" s="322"/>
-      <c r="AE74" s="281"/>
-      <c r="AF74" s="282"/>
-      <c r="AG74" s="282"/>
-      <c r="AH74" s="282"/>
-      <c r="AI74" s="283"/>
-      <c r="AJ74" s="320"/>
-      <c r="AK74" s="321"/>
-      <c r="AL74" s="321"/>
-      <c r="AM74" s="322"/>
-      <c r="AN74" s="281"/>
-      <c r="AO74" s="282"/>
-      <c r="AP74" s="282"/>
-      <c r="AQ74" s="282"/>
-      <c r="AR74" s="283"/>
-      <c r="AS74" s="320"/>
-      <c r="AT74" s="321"/>
-      <c r="AU74" s="321"/>
-      <c r="AV74" s="322"/>
+      <c r="B74" s="273"/>
+      <c r="C74" s="274"/>
+      <c r="D74" s="278"/>
+      <c r="E74" s="279"/>
+      <c r="F74" s="279"/>
+      <c r="G74" s="279"/>
+      <c r="H74" s="280"/>
+      <c r="I74" s="293"/>
+      <c r="J74" s="294"/>
+      <c r="K74" s="294"/>
+      <c r="L74" s="294"/>
+      <c r="M74" s="294"/>
+      <c r="N74" s="294"/>
+      <c r="O74" s="294"/>
+      <c r="P74" s="294"/>
+      <c r="Q74" s="294"/>
+      <c r="R74" s="294"/>
+      <c r="S74" s="294"/>
+      <c r="T74" s="294"/>
+      <c r="U74" s="294"/>
+      <c r="V74" s="294"/>
+      <c r="W74" s="294"/>
+      <c r="X74" s="294"/>
+      <c r="Y74" s="294"/>
+      <c r="Z74" s="316"/>
+      <c r="AA74" s="317"/>
+      <c r="AB74" s="318"/>
+      <c r="AC74" s="318"/>
+      <c r="AD74" s="319"/>
+      <c r="AE74" s="278"/>
+      <c r="AF74" s="279"/>
+      <c r="AG74" s="279"/>
+      <c r="AH74" s="279"/>
+      <c r="AI74" s="280"/>
+      <c r="AJ74" s="317"/>
+      <c r="AK74" s="318"/>
+      <c r="AL74" s="318"/>
+      <c r="AM74" s="319"/>
+      <c r="AN74" s="278"/>
+      <c r="AO74" s="279"/>
+      <c r="AP74" s="279"/>
+      <c r="AQ74" s="279"/>
+      <c r="AR74" s="280"/>
+      <c r="AS74" s="317"/>
+      <c r="AT74" s="318"/>
+      <c r="AU74" s="318"/>
+      <c r="AV74" s="319"/>
       <c r="AW74" s="137"/>
     </row>
     <row r="75" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A75" s="14"/>
-      <c r="B75" s="276"/>
-      <c r="C75" s="277"/>
-      <c r="D75" s="281"/>
-      <c r="E75" s="282"/>
-      <c r="F75" s="282"/>
-      <c r="G75" s="282"/>
-      <c r="H75" s="283"/>
-      <c r="I75" s="296"/>
-      <c r="J75" s="297"/>
-      <c r="K75" s="297"/>
-      <c r="L75" s="297"/>
-      <c r="M75" s="297"/>
-      <c r="N75" s="297"/>
-      <c r="O75" s="297"/>
-      <c r="P75" s="297"/>
-      <c r="Q75" s="297"/>
-      <c r="R75" s="297"/>
-      <c r="S75" s="297"/>
-      <c r="T75" s="297"/>
-      <c r="U75" s="297"/>
-      <c r="V75" s="297"/>
-      <c r="W75" s="297"/>
-      <c r="X75" s="297"/>
-      <c r="Y75" s="297"/>
-      <c r="Z75" s="319"/>
-      <c r="AA75" s="320"/>
-      <c r="AB75" s="321"/>
-      <c r="AC75" s="321"/>
-      <c r="AD75" s="322"/>
-      <c r="AE75" s="281"/>
-      <c r="AF75" s="282"/>
-      <c r="AG75" s="282"/>
-      <c r="AH75" s="282"/>
-      <c r="AI75" s="283"/>
-      <c r="AJ75" s="320"/>
-      <c r="AK75" s="321"/>
-      <c r="AL75" s="321"/>
-      <c r="AM75" s="322"/>
-      <c r="AN75" s="281"/>
-      <c r="AO75" s="282"/>
-      <c r="AP75" s="282"/>
-      <c r="AQ75" s="282"/>
-      <c r="AR75" s="283"/>
-      <c r="AS75" s="320"/>
-      <c r="AT75" s="321"/>
-      <c r="AU75" s="321"/>
-      <c r="AV75" s="322"/>
+      <c r="B75" s="273"/>
+      <c r="C75" s="274"/>
+      <c r="D75" s="278"/>
+      <c r="E75" s="279"/>
+      <c r="F75" s="279"/>
+      <c r="G75" s="279"/>
+      <c r="H75" s="280"/>
+      <c r="I75" s="293"/>
+      <c r="J75" s="294"/>
+      <c r="K75" s="294"/>
+      <c r="L75" s="294"/>
+      <c r="M75" s="294"/>
+      <c r="N75" s="294"/>
+      <c r="O75" s="294"/>
+      <c r="P75" s="294"/>
+      <c r="Q75" s="294"/>
+      <c r="R75" s="294"/>
+      <c r="S75" s="294"/>
+      <c r="T75" s="294"/>
+      <c r="U75" s="294"/>
+      <c r="V75" s="294"/>
+      <c r="W75" s="294"/>
+      <c r="X75" s="294"/>
+      <c r="Y75" s="294"/>
+      <c r="Z75" s="316"/>
+      <c r="AA75" s="317"/>
+      <c r="AB75" s="318"/>
+      <c r="AC75" s="318"/>
+      <c r="AD75" s="319"/>
+      <c r="AE75" s="278"/>
+      <c r="AF75" s="279"/>
+      <c r="AG75" s="279"/>
+      <c r="AH75" s="279"/>
+      <c r="AI75" s="280"/>
+      <c r="AJ75" s="317"/>
+      <c r="AK75" s="318"/>
+      <c r="AL75" s="318"/>
+      <c r="AM75" s="319"/>
+      <c r="AN75" s="278"/>
+      <c r="AO75" s="279"/>
+      <c r="AP75" s="279"/>
+      <c r="AQ75" s="279"/>
+      <c r="AR75" s="280"/>
+      <c r="AS75" s="317"/>
+      <c r="AT75" s="318"/>
+      <c r="AU75" s="318"/>
+      <c r="AV75" s="319"/>
       <c r="AW75" s="137"/>
     </row>
     <row r="76" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A76" s="14"/>
-      <c r="B76" s="276"/>
-      <c r="C76" s="277"/>
-      <c r="D76" s="281"/>
-      <c r="E76" s="282"/>
-      <c r="F76" s="282"/>
-      <c r="G76" s="282"/>
-      <c r="H76" s="283"/>
-      <c r="I76" s="296"/>
-      <c r="J76" s="297"/>
-      <c r="K76" s="297"/>
-      <c r="L76" s="297"/>
-      <c r="M76" s="297"/>
-      <c r="N76" s="297"/>
-      <c r="O76" s="297"/>
-      <c r="P76" s="297"/>
-      <c r="Q76" s="297"/>
-      <c r="R76" s="297"/>
-      <c r="S76" s="297"/>
-      <c r="T76" s="297"/>
-      <c r="U76" s="297"/>
-      <c r="V76" s="297"/>
-      <c r="W76" s="297"/>
-      <c r="X76" s="297"/>
-      <c r="Y76" s="297"/>
-      <c r="Z76" s="319"/>
-      <c r="AA76" s="320"/>
-      <c r="AB76" s="321"/>
-      <c r="AC76" s="321"/>
-      <c r="AD76" s="322"/>
-      <c r="AE76" s="281"/>
-      <c r="AF76" s="282"/>
-      <c r="AG76" s="282"/>
-      <c r="AH76" s="282"/>
-      <c r="AI76" s="283"/>
-      <c r="AJ76" s="320"/>
-      <c r="AK76" s="321"/>
-      <c r="AL76" s="321"/>
-      <c r="AM76" s="322"/>
-      <c r="AN76" s="281"/>
-      <c r="AO76" s="282"/>
-      <c r="AP76" s="282"/>
-      <c r="AQ76" s="282"/>
-      <c r="AR76" s="283"/>
-      <c r="AS76" s="320"/>
-      <c r="AT76" s="321"/>
-      <c r="AU76" s="321"/>
-      <c r="AV76" s="322"/>
+      <c r="B76" s="273"/>
+      <c r="C76" s="274"/>
+      <c r="D76" s="278"/>
+      <c r="E76" s="279"/>
+      <c r="F76" s="279"/>
+      <c r="G76" s="279"/>
+      <c r="H76" s="280"/>
+      <c r="I76" s="293"/>
+      <c r="J76" s="294"/>
+      <c r="K76" s="294"/>
+      <c r="L76" s="294"/>
+      <c r="M76" s="294"/>
+      <c r="N76" s="294"/>
+      <c r="O76" s="294"/>
+      <c r="P76" s="294"/>
+      <c r="Q76" s="294"/>
+      <c r="R76" s="294"/>
+      <c r="S76" s="294"/>
+      <c r="T76" s="294"/>
+      <c r="U76" s="294"/>
+      <c r="V76" s="294"/>
+      <c r="W76" s="294"/>
+      <c r="X76" s="294"/>
+      <c r="Y76" s="294"/>
+      <c r="Z76" s="316"/>
+      <c r="AA76" s="317"/>
+      <c r="AB76" s="318"/>
+      <c r="AC76" s="318"/>
+      <c r="AD76" s="319"/>
+      <c r="AE76" s="278"/>
+      <c r="AF76" s="279"/>
+      <c r="AG76" s="279"/>
+      <c r="AH76" s="279"/>
+      <c r="AI76" s="280"/>
+      <c r="AJ76" s="317"/>
+      <c r="AK76" s="318"/>
+      <c r="AL76" s="318"/>
+      <c r="AM76" s="319"/>
+      <c r="AN76" s="278"/>
+      <c r="AO76" s="279"/>
+      <c r="AP76" s="279"/>
+      <c r="AQ76" s="279"/>
+      <c r="AR76" s="280"/>
+      <c r="AS76" s="317"/>
+      <c r="AT76" s="318"/>
+      <c r="AU76" s="318"/>
+      <c r="AV76" s="319"/>
       <c r="AW76" s="137"/>
     </row>
     <row r="77" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A77" s="14"/>
-      <c r="B77" s="276"/>
-      <c r="C77" s="277"/>
-      <c r="D77" s="281"/>
-      <c r="E77" s="282"/>
-      <c r="F77" s="282"/>
-      <c r="G77" s="282"/>
-      <c r="H77" s="283"/>
-      <c r="I77" s="296"/>
-      <c r="J77" s="297"/>
-      <c r="K77" s="297"/>
-      <c r="L77" s="297"/>
-      <c r="M77" s="297"/>
-      <c r="N77" s="297"/>
-      <c r="O77" s="297"/>
-      <c r="P77" s="297"/>
-      <c r="Q77" s="297"/>
-      <c r="R77" s="297"/>
-      <c r="S77" s="297"/>
-      <c r="T77" s="297"/>
-      <c r="U77" s="297"/>
-      <c r="V77" s="297"/>
-      <c r="W77" s="297"/>
-      <c r="X77" s="297"/>
-      <c r="Y77" s="297"/>
-      <c r="Z77" s="319"/>
-      <c r="AA77" s="320"/>
-      <c r="AB77" s="321"/>
-      <c r="AC77" s="321"/>
-      <c r="AD77" s="322"/>
-      <c r="AE77" s="281"/>
-      <c r="AF77" s="282"/>
-      <c r="AG77" s="282"/>
-      <c r="AH77" s="282"/>
-      <c r="AI77" s="283"/>
-      <c r="AJ77" s="320"/>
-      <c r="AK77" s="321"/>
-      <c r="AL77" s="321"/>
-      <c r="AM77" s="322"/>
-      <c r="AN77" s="281"/>
-      <c r="AO77" s="282"/>
-      <c r="AP77" s="282"/>
-      <c r="AQ77" s="282"/>
-      <c r="AR77" s="283"/>
-      <c r="AS77" s="320"/>
-      <c r="AT77" s="321"/>
-      <c r="AU77" s="321"/>
-      <c r="AV77" s="322"/>
+      <c r="B77" s="273"/>
+      <c r="C77" s="274"/>
+      <c r="D77" s="278"/>
+      <c r="E77" s="279"/>
+      <c r="F77" s="279"/>
+      <c r="G77" s="279"/>
+      <c r="H77" s="280"/>
+      <c r="I77" s="293"/>
+      <c r="J77" s="294"/>
+      <c r="K77" s="294"/>
+      <c r="L77" s="294"/>
+      <c r="M77" s="294"/>
+      <c r="N77" s="294"/>
+      <c r="O77" s="294"/>
+      <c r="P77" s="294"/>
+      <c r="Q77" s="294"/>
+      <c r="R77" s="294"/>
+      <c r="S77" s="294"/>
+      <c r="T77" s="294"/>
+      <c r="U77" s="294"/>
+      <c r="V77" s="294"/>
+      <c r="W77" s="294"/>
+      <c r="X77" s="294"/>
+      <c r="Y77" s="294"/>
+      <c r="Z77" s="316"/>
+      <c r="AA77" s="317"/>
+      <c r="AB77" s="318"/>
+      <c r="AC77" s="318"/>
+      <c r="AD77" s="319"/>
+      <c r="AE77" s="278"/>
+      <c r="AF77" s="279"/>
+      <c r="AG77" s="279"/>
+      <c r="AH77" s="279"/>
+      <c r="AI77" s="280"/>
+      <c r="AJ77" s="317"/>
+      <c r="AK77" s="318"/>
+      <c r="AL77" s="318"/>
+      <c r="AM77" s="319"/>
+      <c r="AN77" s="278"/>
+      <c r="AO77" s="279"/>
+      <c r="AP77" s="279"/>
+      <c r="AQ77" s="279"/>
+      <c r="AR77" s="280"/>
+      <c r="AS77" s="317"/>
+      <c r="AT77" s="318"/>
+      <c r="AU77" s="318"/>
+      <c r="AV77" s="319"/>
       <c r="AW77" s="137"/>
     </row>
     <row r="78" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A78" s="14"/>
-      <c r="B78" s="333"/>
-      <c r="C78" s="334"/>
-      <c r="D78" s="335"/>
-      <c r="E78" s="336"/>
-      <c r="F78" s="336"/>
-      <c r="G78" s="336"/>
-      <c r="H78" s="337"/>
-      <c r="I78" s="347"/>
-      <c r="J78" s="348"/>
-      <c r="K78" s="348"/>
-      <c r="L78" s="348"/>
-      <c r="M78" s="348"/>
-      <c r="N78" s="348"/>
-      <c r="O78" s="348"/>
-      <c r="P78" s="348"/>
-      <c r="Q78" s="348"/>
-      <c r="R78" s="348"/>
-      <c r="S78" s="348"/>
-      <c r="T78" s="348"/>
-      <c r="U78" s="348"/>
-      <c r="V78" s="348"/>
-      <c r="W78" s="348"/>
-      <c r="X78" s="348"/>
-      <c r="Y78" s="348"/>
-      <c r="Z78" s="349"/>
-      <c r="AA78" s="350"/>
-      <c r="AB78" s="351"/>
-      <c r="AC78" s="351"/>
-      <c r="AD78" s="352"/>
-      <c r="AE78" s="335"/>
-      <c r="AF78" s="336"/>
-      <c r="AG78" s="336"/>
-      <c r="AH78" s="336"/>
-      <c r="AI78" s="337"/>
-      <c r="AJ78" s="350"/>
-      <c r="AK78" s="351"/>
-      <c r="AL78" s="351"/>
-      <c r="AM78" s="352"/>
-      <c r="AN78" s="335"/>
-      <c r="AO78" s="336"/>
-      <c r="AP78" s="336"/>
-      <c r="AQ78" s="336"/>
-      <c r="AR78" s="337"/>
-      <c r="AS78" s="350"/>
-      <c r="AT78" s="351"/>
-      <c r="AU78" s="351"/>
-      <c r="AV78" s="352"/>
+      <c r="B78" s="330"/>
+      <c r="C78" s="331"/>
+      <c r="D78" s="332"/>
+      <c r="E78" s="333"/>
+      <c r="F78" s="333"/>
+      <c r="G78" s="333"/>
+      <c r="H78" s="334"/>
+      <c r="I78" s="344"/>
+      <c r="J78" s="345"/>
+      <c r="K78" s="345"/>
+      <c r="L78" s="345"/>
+      <c r="M78" s="345"/>
+      <c r="N78" s="345"/>
+      <c r="O78" s="345"/>
+      <c r="P78" s="345"/>
+      <c r="Q78" s="345"/>
+      <c r="R78" s="345"/>
+      <c r="S78" s="345"/>
+      <c r="T78" s="345"/>
+      <c r="U78" s="345"/>
+      <c r="V78" s="345"/>
+      <c r="W78" s="345"/>
+      <c r="X78" s="345"/>
+      <c r="Y78" s="345"/>
+      <c r="Z78" s="346"/>
+      <c r="AA78" s="347"/>
+      <c r="AB78" s="348"/>
+      <c r="AC78" s="348"/>
+      <c r="AD78" s="349"/>
+      <c r="AE78" s="332"/>
+      <c r="AF78" s="333"/>
+      <c r="AG78" s="333"/>
+      <c r="AH78" s="333"/>
+      <c r="AI78" s="334"/>
+      <c r="AJ78" s="347"/>
+      <c r="AK78" s="348"/>
+      <c r="AL78" s="348"/>
+      <c r="AM78" s="349"/>
+      <c r="AN78" s="332"/>
+      <c r="AO78" s="333"/>
+      <c r="AP78" s="333"/>
+      <c r="AQ78" s="333"/>
+      <c r="AR78" s="334"/>
+      <c r="AS78" s="347"/>
+      <c r="AT78" s="348"/>
+      <c r="AU78" s="348"/>
+      <c r="AV78" s="349"/>
       <c r="AW78" s="137"/>
     </row>
     <row r="79" s="2" customFormat="1" customHeight="1" spans="1:49">
       <c r="A79" s="14"/>
-      <c r="B79" s="338"/>
-      <c r="C79" s="338"/>
-      <c r="D79" s="282"/>
-      <c r="E79" s="282"/>
-      <c r="F79" s="282"/>
-      <c r="G79" s="282"/>
-      <c r="H79" s="282"/>
-      <c r="I79" s="297"/>
-      <c r="J79" s="297"/>
-      <c r="K79" s="297"/>
-      <c r="L79" s="297"/>
-      <c r="M79" s="297"/>
-      <c r="N79" s="297"/>
-      <c r="O79" s="297"/>
-      <c r="P79" s="297"/>
-      <c r="Q79" s="297"/>
-      <c r="R79" s="297"/>
-      <c r="S79" s="297"/>
-      <c r="T79" s="297"/>
-      <c r="U79" s="297"/>
-      <c r="V79" s="297"/>
-      <c r="W79" s="297"/>
-      <c r="X79" s="297"/>
-      <c r="Y79" s="297"/>
-      <c r="Z79" s="297"/>
-      <c r="AA79" s="321"/>
-      <c r="AB79" s="321"/>
-      <c r="AC79" s="321"/>
-      <c r="AD79" s="321"/>
-      <c r="AE79" s="282"/>
-      <c r="AF79" s="282"/>
-      <c r="AG79" s="282"/>
-      <c r="AH79" s="282"/>
-      <c r="AI79" s="282"/>
-      <c r="AJ79" s="321"/>
-      <c r="AK79" s="321"/>
-      <c r="AL79" s="321"/>
-      <c r="AM79" s="321"/>
-      <c r="AN79" s="282"/>
-      <c r="AO79" s="282"/>
-      <c r="AP79" s="282"/>
-      <c r="AQ79" s="282"/>
-      <c r="AR79" s="282"/>
-      <c r="AS79" s="321"/>
-      <c r="AT79" s="321"/>
-      <c r="AU79" s="321"/>
-      <c r="AV79" s="321"/>
+      <c r="B79" s="335"/>
+      <c r="C79" s="335"/>
+      <c r="D79" s="279"/>
+      <c r="E79" s="279"/>
+      <c r="F79" s="279"/>
+      <c r="G79" s="279"/>
+      <c r="H79" s="279"/>
+      <c r="I79" s="294"/>
+      <c r="J79" s="294"/>
+      <c r="K79" s="294"/>
+      <c r="L79" s="294"/>
+      <c r="M79" s="294"/>
+      <c r="N79" s="294"/>
+      <c r="O79" s="294"/>
+      <c r="P79" s="294"/>
+      <c r="Q79" s="294"/>
+      <c r="R79" s="294"/>
+      <c r="S79" s="294"/>
+      <c r="T79" s="294"/>
+      <c r="U79" s="294"/>
+      <c r="V79" s="294"/>
+      <c r="W79" s="294"/>
+      <c r="X79" s="294"/>
+      <c r="Y79" s="294"/>
+      <c r="Z79" s="294"/>
+      <c r="AA79" s="318"/>
+      <c r="AB79" s="318"/>
+      <c r="AC79" s="318"/>
+      <c r="AD79" s="318"/>
+      <c r="AE79" s="279"/>
+      <c r="AF79" s="279"/>
+      <c r="AG79" s="279"/>
+      <c r="AH79" s="279"/>
+      <c r="AI79" s="279"/>
+      <c r="AJ79" s="318"/>
+      <c r="AK79" s="318"/>
+      <c r="AL79" s="318"/>
+      <c r="AM79" s="318"/>
+      <c r="AN79" s="279"/>
+      <c r="AO79" s="279"/>
+      <c r="AP79" s="279"/>
+      <c r="AQ79" s="279"/>
+      <c r="AR79" s="279"/>
+      <c r="AS79" s="318"/>
+      <c r="AT79" s="318"/>
+      <c r="AU79" s="318"/>
+      <c r="AV79" s="318"/>
       <c r="AW79" s="137"/>
     </row>
     <row r="80" s="2" customFormat="1" customHeight="1" spans="1:49">
-      <c r="A80" s="248"/>
-      <c r="B80" s="249"/>
-      <c r="C80" s="249"/>
-      <c r="D80" s="249"/>
-      <c r="E80" s="249"/>
-      <c r="F80" s="249"/>
-      <c r="G80" s="249"/>
-      <c r="H80" s="249"/>
-      <c r="I80" s="249"/>
-      <c r="J80" s="249"/>
-      <c r="K80" s="249"/>
-      <c r="L80" s="249"/>
-      <c r="M80" s="249"/>
-      <c r="N80" s="249"/>
-      <c r="O80" s="249"/>
-      <c r="P80" s="249"/>
-      <c r="Q80" s="249"/>
-      <c r="R80" s="249"/>
-      <c r="S80" s="249"/>
-      <c r="T80" s="249"/>
-      <c r="U80" s="249"/>
-      <c r="V80" s="249"/>
-      <c r="W80" s="249"/>
-      <c r="X80" s="249"/>
-      <c r="Y80" s="249"/>
-      <c r="Z80" s="249"/>
-      <c r="AA80" s="249"/>
-      <c r="AB80" s="249"/>
-      <c r="AC80" s="249"/>
-      <c r="AD80" s="249"/>
-      <c r="AE80" s="249"/>
-      <c r="AF80" s="249"/>
-      <c r="AG80" s="249"/>
-      <c r="AH80" s="249"/>
-      <c r="AI80" s="249"/>
-      <c r="AJ80" s="249"/>
-      <c r="AK80" s="249"/>
-      <c r="AL80" s="249"/>
-      <c r="AM80" s="249"/>
-      <c r="AN80" s="249"/>
-      <c r="AO80" s="249"/>
-      <c r="AP80" s="249"/>
-      <c r="AQ80" s="249"/>
-      <c r="AR80" s="249"/>
-      <c r="AS80" s="249"/>
-      <c r="AT80" s="249"/>
-      <c r="AU80" s="249"/>
-      <c r="AV80" s="249"/>
-      <c r="AW80" s="332"/>
+      <c r="A80" s="245"/>
+      <c r="B80" s="246"/>
+      <c r="C80" s="246"/>
+      <c r="D80" s="246"/>
+      <c r="E80" s="246"/>
+      <c r="F80" s="246"/>
+      <c r="G80" s="246"/>
+      <c r="H80" s="246"/>
+      <c r="I80" s="246"/>
+      <c r="J80" s="246"/>
+      <c r="K80" s="246"/>
+      <c r="L80" s="246"/>
+      <c r="M80" s="246"/>
+      <c r="N80" s="246"/>
+      <c r="O80" s="246"/>
+      <c r="P80" s="246"/>
+      <c r="Q80" s="246"/>
+      <c r="R80" s="246"/>
+      <c r="S80" s="246"/>
+      <c r="T80" s="246"/>
+      <c r="U80" s="246"/>
+      <c r="V80" s="246"/>
+      <c r="W80" s="246"/>
+      <c r="X80" s="246"/>
+      <c r="Y80" s="246"/>
+      <c r="Z80" s="246"/>
+      <c r="AA80" s="246"/>
+      <c r="AB80" s="246"/>
+      <c r="AC80" s="246"/>
+      <c r="AD80" s="246"/>
+      <c r="AE80" s="246"/>
+      <c r="AF80" s="246"/>
+      <c r="AG80" s="246"/>
+      <c r="AH80" s="246"/>
+      <c r="AI80" s="246"/>
+      <c r="AJ80" s="246"/>
+      <c r="AK80" s="246"/>
+      <c r="AL80" s="246"/>
+      <c r="AM80" s="246"/>
+      <c r="AN80" s="246"/>
+      <c r="AO80" s="246"/>
+      <c r="AP80" s="246"/>
+      <c r="AQ80" s="246"/>
+      <c r="AR80" s="246"/>
+      <c r="AS80" s="246"/>
+      <c r="AT80" s="246"/>
+      <c r="AU80" s="246"/>
+      <c r="AV80" s="246"/>
+      <c r="AW80" s="329"/>
     </row>
-    <row r="81" s="244" customFormat="1" ht="23" customHeight="1" spans="1:49">
+    <row r="81" s="241" customFormat="1" ht="23" customHeight="1" spans="1:49">
       <c r="A81" s="8" t="s">
         <v>0</v>
       </c>
@@ -19640,7 +19631,7 @@
       <c r="AV81" s="122"/>
       <c r="AW81" s="134"/>
     </row>
-    <row r="82" s="244" customFormat="1" ht="23" customHeight="1" spans="1:49">
+    <row r="82" s="241" customFormat="1" ht="23" customHeight="1" spans="1:49">
       <c r="A82" s="10"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -19861,7 +19852,7 @@
     <row r="86" s="1" customFormat="1" customHeight="1" spans="1:49">
       <c r="A86" s="16"/>
       <c r="B86" s="17"/>
-      <c r="C86" s="383" t="s">
+      <c r="C86" s="380" t="s">
         <v>33</v>
       </c>
       <c r="D86" s="24"/>
@@ -19914,7 +19905,7 @@
     <row r="87" s="1" customFormat="1" customHeight="1" spans="1:49">
       <c r="A87" s="16"/>
       <c r="B87" s="17"/>
-      <c r="C87" s="383" t="s">
+      <c r="C87" s="380" t="s">
         <v>34</v>
       </c>
       <c r="D87" s="24"/>
@@ -19967,7 +19958,7 @@
     <row r="88" s="1" customFormat="1" customHeight="1" spans="1:49">
       <c r="A88" s="16"/>
       <c r="B88" s="17"/>
-      <c r="C88" s="383" t="s">
+      <c r="C88" s="380" t="s">
         <v>35</v>
       </c>
       <c r="D88" s="24"/>
@@ -20090,111 +20081,111 @@
       <c r="Q90" s="24"/>
       <c r="R90" s="24"/>
       <c r="S90" s="24"/>
-      <c r="T90" s="343"/>
-      <c r="U90" s="344"/>
-      <c r="V90" s="344"/>
-      <c r="W90" s="344"/>
-      <c r="X90" s="344"/>
-      <c r="Y90" s="344"/>
-      <c r="Z90" s="344"/>
-      <c r="AA90" s="344"/>
-      <c r="AB90" s="344"/>
-      <c r="AC90" s="344"/>
-      <c r="AD90" s="344"/>
-      <c r="AE90" s="344"/>
-      <c r="AF90" s="344"/>
-      <c r="AG90" s="344"/>
-      <c r="AH90" s="344"/>
-      <c r="AI90" s="344"/>
-      <c r="AJ90" s="344"/>
-      <c r="AK90" s="344"/>
-      <c r="AL90" s="344"/>
-      <c r="AM90" s="344"/>
-      <c r="AN90" s="344"/>
-      <c r="AO90" s="344"/>
-      <c r="AP90" s="344"/>
-      <c r="AQ90" s="344"/>
-      <c r="AR90" s="344"/>
-      <c r="AS90" s="344"/>
-      <c r="AT90" s="344"/>
-      <c r="AU90" s="344"/>
-      <c r="AV90" s="344"/>
+      <c r="T90" s="340"/>
+      <c r="U90" s="341"/>
+      <c r="V90" s="341"/>
+      <c r="W90" s="341"/>
+      <c r="X90" s="341"/>
+      <c r="Y90" s="341"/>
+      <c r="Z90" s="341"/>
+      <c r="AA90" s="341"/>
+      <c r="AB90" s="341"/>
+      <c r="AC90" s="341"/>
+      <c r="AD90" s="341"/>
+      <c r="AE90" s="341"/>
+      <c r="AF90" s="341"/>
+      <c r="AG90" s="341"/>
+      <c r="AH90" s="341"/>
+      <c r="AI90" s="341"/>
+      <c r="AJ90" s="341"/>
+      <c r="AK90" s="341"/>
+      <c r="AL90" s="341"/>
+      <c r="AM90" s="341"/>
+      <c r="AN90" s="341"/>
+      <c r="AO90" s="341"/>
+      <c r="AP90" s="341"/>
+      <c r="AQ90" s="341"/>
+      <c r="AR90" s="341"/>
+      <c r="AS90" s="341"/>
+      <c r="AT90" s="341"/>
+      <c r="AU90" s="341"/>
+      <c r="AV90" s="341"/>
       <c r="AW90" s="138"/>
     </row>
     <row r="91" s="1" customFormat="1" customHeight="1" spans="1:50">
       <c r="A91" s="16"/>
-      <c r="B91" s="339"/>
+      <c r="B91" s="336"/>
       <c r="C91" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D91" s="340"/>
-      <c r="E91" s="340"/>
-      <c r="F91" s="340"/>
-      <c r="G91" s="341"/>
-      <c r="H91" s="341"/>
-      <c r="I91" s="341"/>
-      <c r="J91" s="341"/>
-      <c r="K91" s="341"/>
-      <c r="L91" s="341"/>
-      <c r="M91" s="341"/>
-      <c r="N91" s="341"/>
-      <c r="O91" s="341"/>
-      <c r="P91" s="341"/>
-      <c r="Q91" s="341"/>
-      <c r="R91" s="340"/>
-      <c r="S91" s="340"/>
-      <c r="T91" s="340"/>
-      <c r="U91" s="340"/>
-      <c r="V91" s="340"/>
-      <c r="W91" s="341"/>
-      <c r="X91" s="341"/>
-      <c r="Y91" s="340"/>
-      <c r="Z91" s="340"/>
-      <c r="AA91" s="340"/>
-      <c r="AB91" s="340"/>
-      <c r="AC91" s="340"/>
-      <c r="AD91" s="340"/>
-      <c r="AE91" s="340"/>
-      <c r="AF91" s="340"/>
-      <c r="AG91" s="340"/>
-      <c r="AH91" s="340"/>
-      <c r="AI91" s="340"/>
-      <c r="AJ91" s="340"/>
-      <c r="AK91" s="340"/>
-      <c r="AL91" s="340"/>
-      <c r="AM91" s="340"/>
-      <c r="AN91" s="340"/>
-      <c r="AO91" s="340"/>
-      <c r="AP91" s="340"/>
-      <c r="AQ91" s="340"/>
-      <c r="AR91" s="340"/>
-      <c r="AS91" s="340"/>
-      <c r="AT91" s="340"/>
-      <c r="AU91" s="340"/>
+      <c r="D91" s="337"/>
+      <c r="E91" s="337"/>
+      <c r="F91" s="337"/>
+      <c r="G91" s="338"/>
+      <c r="H91" s="338"/>
+      <c r="I91" s="338"/>
+      <c r="J91" s="338"/>
+      <c r="K91" s="338"/>
+      <c r="L91" s="338"/>
+      <c r="M91" s="338"/>
+      <c r="N91" s="338"/>
+      <c r="O91" s="338"/>
+      <c r="P91" s="338"/>
+      <c r="Q91" s="338"/>
+      <c r="R91" s="337"/>
+      <c r="S91" s="337"/>
+      <c r="T91" s="337"/>
+      <c r="U91" s="337"/>
+      <c r="V91" s="337"/>
+      <c r="W91" s="338"/>
+      <c r="X91" s="338"/>
+      <c r="Y91" s="337"/>
+      <c r="Z91" s="337"/>
+      <c r="AA91" s="337"/>
+      <c r="AB91" s="337"/>
+      <c r="AC91" s="337"/>
+      <c r="AD91" s="337"/>
+      <c r="AE91" s="337"/>
+      <c r="AF91" s="337"/>
+      <c r="AG91" s="337"/>
+      <c r="AH91" s="337"/>
+      <c r="AI91" s="337"/>
+      <c r="AJ91" s="337"/>
+      <c r="AK91" s="337"/>
+      <c r="AL91" s="337"/>
+      <c r="AM91" s="337"/>
+      <c r="AN91" s="337"/>
+      <c r="AO91" s="337"/>
+      <c r="AP91" s="337"/>
+      <c r="AQ91" s="337"/>
+      <c r="AR91" s="337"/>
+      <c r="AS91" s="337"/>
+      <c r="AT91" s="337"/>
+      <c r="AU91" s="337"/>
       <c r="AV91" s="18"/>
       <c r="AW91" s="138"/>
-      <c r="AX91" s="353"/>
+      <c r="AX91" s="350"/>
     </row>
     <row r="92" s="1" customFormat="1" customHeight="1" spans="1:49">
       <c r="A92" s="16"/>
-      <c r="B92" s="339"/>
-      <c r="C92" s="342"/>
+      <c r="B92" s="336"/>
+      <c r="C92" s="339"/>
       <c r="D92" s="18"/>
-      <c r="E92" s="340"/>
-      <c r="F92" s="340"/>
+      <c r="E92" s="337"/>
+      <c r="F92" s="337"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
-      <c r="I92" s="343"/>
-      <c r="J92" s="343"/>
-      <c r="K92" s="343"/>
-      <c r="L92" s="343"/>
-      <c r="M92" s="343"/>
-      <c r="N92" s="343"/>
-      <c r="O92" s="343"/>
-      <c r="P92" s="343"/>
-      <c r="Q92" s="343"/>
-      <c r="R92" s="343"/>
-      <c r="S92" s="343"/>
+      <c r="I92" s="340"/>
+      <c r="J92" s="340"/>
+      <c r="K92" s="340"/>
+      <c r="L92" s="340"/>
+      <c r="M92" s="340"/>
+      <c r="N92" s="340"/>
+      <c r="O92" s="340"/>
+      <c r="P92" s="340"/>
+      <c r="Q92" s="340"/>
+      <c r="R92" s="340"/>
+      <c r="S92" s="340"/>
       <c r="T92" s="18"/>
       <c r="U92" s="18"/>
       <c r="V92" s="18"/>
@@ -20232,103 +20223,103 @@
         <v>38</v>
       </c>
       <c r="C93" s="24"/>
-      <c r="D93" s="343"/>
-      <c r="E93" s="343"/>
-      <c r="F93" s="344"/>
-      <c r="G93" s="343"/>
-      <c r="H93" s="343"/>
-      <c r="I93" s="345"/>
-      <c r="J93" s="342"/>
-      <c r="K93" s="344"/>
-      <c r="L93" s="344"/>
-      <c r="M93" s="344"/>
-      <c r="N93" s="344"/>
-      <c r="O93" s="344"/>
-      <c r="P93" s="344"/>
-      <c r="Q93" s="344"/>
-      <c r="R93" s="344"/>
-      <c r="S93" s="344"/>
-      <c r="T93" s="340"/>
-      <c r="U93" s="340"/>
-      <c r="V93" s="340"/>
-      <c r="W93" s="341"/>
-      <c r="X93" s="341"/>
-      <c r="Y93" s="341"/>
-      <c r="Z93" s="341"/>
-      <c r="AA93" s="341"/>
-      <c r="AB93" s="341"/>
-      <c r="AC93" s="341"/>
-      <c r="AD93" s="341"/>
-      <c r="AE93" s="341"/>
-      <c r="AF93" s="341"/>
-      <c r="AG93" s="341"/>
-      <c r="AH93" s="341"/>
-      <c r="AI93" s="341"/>
-      <c r="AJ93" s="341"/>
-      <c r="AK93" s="341"/>
-      <c r="AL93" s="341"/>
-      <c r="AM93" s="341"/>
-      <c r="AN93" s="341"/>
-      <c r="AO93" s="341"/>
-      <c r="AP93" s="341"/>
-      <c r="AQ93" s="341"/>
-      <c r="AR93" s="341"/>
-      <c r="AS93" s="341"/>
-      <c r="AT93" s="341"/>
-      <c r="AU93" s="340"/>
+      <c r="D93" s="340"/>
+      <c r="E93" s="340"/>
+      <c r="F93" s="341"/>
+      <c r="G93" s="340"/>
+      <c r="H93" s="340"/>
+      <c r="I93" s="342"/>
+      <c r="J93" s="339"/>
+      <c r="K93" s="341"/>
+      <c r="L93" s="341"/>
+      <c r="M93" s="341"/>
+      <c r="N93" s="341"/>
+      <c r="O93" s="341"/>
+      <c r="P93" s="341"/>
+      <c r="Q93" s="341"/>
+      <c r="R93" s="341"/>
+      <c r="S93" s="341"/>
+      <c r="T93" s="337"/>
+      <c r="U93" s="337"/>
+      <c r="V93" s="337"/>
+      <c r="W93" s="338"/>
+      <c r="X93" s="338"/>
+      <c r="Y93" s="338"/>
+      <c r="Z93" s="338"/>
+      <c r="AA93" s="338"/>
+      <c r="AB93" s="338"/>
+      <c r="AC93" s="338"/>
+      <c r="AD93" s="338"/>
+      <c r="AE93" s="338"/>
+      <c r="AF93" s="338"/>
+      <c r="AG93" s="338"/>
+      <c r="AH93" s="338"/>
+      <c r="AI93" s="338"/>
+      <c r="AJ93" s="338"/>
+      <c r="AK93" s="338"/>
+      <c r="AL93" s="338"/>
+      <c r="AM93" s="338"/>
+      <c r="AN93" s="338"/>
+      <c r="AO93" s="338"/>
+      <c r="AP93" s="338"/>
+      <c r="AQ93" s="338"/>
+      <c r="AR93" s="338"/>
+      <c r="AS93" s="338"/>
+      <c r="AT93" s="338"/>
+      <c r="AU93" s="337"/>
       <c r="AV93" s="18"/>
       <c r="AW93" s="138"/>
     </row>
     <row r="94" s="1" customFormat="1" customHeight="1" spans="1:49">
       <c r="A94" s="16"/>
-      <c r="B94" s="339"/>
+      <c r="B94" s="336"/>
       <c r="C94" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D94" s="344"/>
-      <c r="E94" s="343"/>
-      <c r="F94" s="343"/>
-      <c r="G94" s="343"/>
-      <c r="H94" s="343"/>
+      <c r="D94" s="341"/>
+      <c r="E94" s="340"/>
+      <c r="F94" s="340"/>
+      <c r="G94" s="340"/>
+      <c r="H94" s="340"/>
       <c r="I94" s="24"/>
       <c r="J94" s="24"/>
-      <c r="K94" s="342"/>
-      <c r="L94" s="342"/>
-      <c r="M94" s="342"/>
-      <c r="N94" s="342"/>
-      <c r="O94" s="342"/>
-      <c r="P94" s="342"/>
-      <c r="Q94" s="342"/>
-      <c r="R94" s="342"/>
-      <c r="S94" s="342"/>
-      <c r="T94" s="340"/>
-      <c r="U94" s="340"/>
-      <c r="V94" s="340"/>
-      <c r="W94" s="341"/>
-      <c r="X94" s="341"/>
-      <c r="Y94" s="341"/>
-      <c r="Z94" s="341"/>
-      <c r="AA94" s="341"/>
-      <c r="AB94" s="341"/>
-      <c r="AC94" s="341"/>
-      <c r="AD94" s="341"/>
-      <c r="AE94" s="341"/>
-      <c r="AF94" s="341"/>
-      <c r="AG94" s="341"/>
-      <c r="AH94" s="341"/>
-      <c r="AI94" s="341"/>
-      <c r="AJ94" s="341"/>
-      <c r="AK94" s="341"/>
-      <c r="AL94" s="341"/>
-      <c r="AM94" s="341"/>
-      <c r="AN94" s="341"/>
-      <c r="AO94" s="341"/>
-      <c r="AP94" s="341"/>
-      <c r="AQ94" s="341"/>
-      <c r="AR94" s="341"/>
-      <c r="AS94" s="341"/>
-      <c r="AT94" s="341"/>
-      <c r="AU94" s="340"/>
+      <c r="K94" s="339"/>
+      <c r="L94" s="339"/>
+      <c r="M94" s="339"/>
+      <c r="N94" s="339"/>
+      <c r="O94" s="339"/>
+      <c r="P94" s="339"/>
+      <c r="Q94" s="339"/>
+      <c r="R94" s="339"/>
+      <c r="S94" s="339"/>
+      <c r="T94" s="337"/>
+      <c r="U94" s="337"/>
+      <c r="V94" s="337"/>
+      <c r="W94" s="338"/>
+      <c r="X94" s="338"/>
+      <c r="Y94" s="338"/>
+      <c r="Z94" s="338"/>
+      <c r="AA94" s="338"/>
+      <c r="AB94" s="338"/>
+      <c r="AC94" s="338"/>
+      <c r="AD94" s="338"/>
+      <c r="AE94" s="338"/>
+      <c r="AF94" s="338"/>
+      <c r="AG94" s="338"/>
+      <c r="AH94" s="338"/>
+      <c r="AI94" s="338"/>
+      <c r="AJ94" s="338"/>
+      <c r="AK94" s="338"/>
+      <c r="AL94" s="338"/>
+      <c r="AM94" s="338"/>
+      <c r="AN94" s="338"/>
+      <c r="AO94" s="338"/>
+      <c r="AP94" s="338"/>
+      <c r="AQ94" s="338"/>
+      <c r="AR94" s="338"/>
+      <c r="AS94" s="338"/>
+      <c r="AT94" s="338"/>
+      <c r="AU94" s="337"/>
       <c r="AV94" s="24"/>
       <c r="AW94" s="138"/>
     </row>
@@ -20344,42 +20335,42 @@
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
-      <c r="L95" s="342"/>
-      <c r="M95" s="342"/>
-      <c r="N95" s="342"/>
-      <c r="O95" s="342"/>
-      <c r="P95" s="342"/>
-      <c r="Q95" s="342"/>
-      <c r="R95" s="342"/>
-      <c r="S95" s="342"/>
-      <c r="T95" s="340"/>
-      <c r="U95" s="340"/>
-      <c r="V95" s="340"/>
-      <c r="W95" s="341"/>
-      <c r="X95" s="341"/>
-      <c r="Y95" s="340"/>
-      <c r="Z95" s="340"/>
-      <c r="AA95" s="340"/>
-      <c r="AB95" s="340"/>
-      <c r="AC95" s="340"/>
-      <c r="AD95" s="340"/>
-      <c r="AE95" s="340"/>
-      <c r="AF95" s="340"/>
-      <c r="AG95" s="340"/>
-      <c r="AH95" s="340"/>
-      <c r="AI95" s="340"/>
-      <c r="AJ95" s="340"/>
-      <c r="AK95" s="340"/>
-      <c r="AL95" s="340"/>
-      <c r="AM95" s="340"/>
-      <c r="AN95" s="340"/>
-      <c r="AO95" s="340"/>
-      <c r="AP95" s="340"/>
-      <c r="AQ95" s="340"/>
-      <c r="AR95" s="340"/>
-      <c r="AS95" s="340"/>
-      <c r="AT95" s="340"/>
-      <c r="AU95" s="340"/>
+      <c r="L95" s="339"/>
+      <c r="M95" s="339"/>
+      <c r="N95" s="339"/>
+      <c r="O95" s="339"/>
+      <c r="P95" s="339"/>
+      <c r="Q95" s="339"/>
+      <c r="R95" s="339"/>
+      <c r="S95" s="339"/>
+      <c r="T95" s="337"/>
+      <c r="U95" s="337"/>
+      <c r="V95" s="337"/>
+      <c r="W95" s="338"/>
+      <c r="X95" s="338"/>
+      <c r="Y95" s="337"/>
+      <c r="Z95" s="337"/>
+      <c r="AA95" s="337"/>
+      <c r="AB95" s="337"/>
+      <c r="AC95" s="337"/>
+      <c r="AD95" s="337"/>
+      <c r="AE95" s="337"/>
+      <c r="AF95" s="337"/>
+      <c r="AG95" s="337"/>
+      <c r="AH95" s="337"/>
+      <c r="AI95" s="337"/>
+      <c r="AJ95" s="337"/>
+      <c r="AK95" s="337"/>
+      <c r="AL95" s="337"/>
+      <c r="AM95" s="337"/>
+      <c r="AN95" s="337"/>
+      <c r="AO95" s="337"/>
+      <c r="AP95" s="337"/>
+      <c r="AQ95" s="337"/>
+      <c r="AR95" s="337"/>
+      <c r="AS95" s="337"/>
+      <c r="AT95" s="337"/>
+      <c r="AU95" s="337"/>
       <c r="AV95" s="24"/>
       <c r="AW95" s="138"/>
     </row>
@@ -20389,50 +20380,50 @@
         <v>39</v>
       </c>
       <c r="C96" s="24"/>
-      <c r="D96" s="340"/>
-      <c r="E96" s="343"/>
-      <c r="F96" s="345"/>
-      <c r="G96" s="345"/>
-      <c r="H96" s="345"/>
+      <c r="D96" s="337"/>
+      <c r="E96" s="340"/>
+      <c r="F96" s="342"/>
+      <c r="G96" s="342"/>
+      <c r="H96" s="342"/>
       <c r="I96" s="18"/>
       <c r="J96" s="18"/>
-      <c r="K96" s="342"/>
-      <c r="L96" s="342"/>
-      <c r="M96" s="342"/>
-      <c r="N96" s="342"/>
-      <c r="O96" s="342"/>
-      <c r="P96" s="342"/>
-      <c r="Q96" s="342"/>
-      <c r="R96" s="342"/>
-      <c r="S96" s="342"/>
-      <c r="T96" s="340"/>
-      <c r="U96" s="340"/>
-      <c r="V96" s="340"/>
-      <c r="W96" s="341"/>
-      <c r="X96" s="341"/>
-      <c r="Y96" s="340"/>
-      <c r="Z96" s="340"/>
-      <c r="AA96" s="340"/>
-      <c r="AB96" s="340"/>
-      <c r="AC96" s="340"/>
-      <c r="AD96" s="340"/>
-      <c r="AE96" s="340"/>
-      <c r="AF96" s="340"/>
-      <c r="AG96" s="340"/>
-      <c r="AH96" s="340"/>
-      <c r="AI96" s="340"/>
-      <c r="AJ96" s="340"/>
-      <c r="AK96" s="340"/>
-      <c r="AL96" s="340"/>
-      <c r="AM96" s="340"/>
-      <c r="AN96" s="340"/>
-      <c r="AO96" s="340"/>
-      <c r="AP96" s="340"/>
-      <c r="AQ96" s="340"/>
-      <c r="AR96" s="340"/>
-      <c r="AS96" s="340"/>
-      <c r="AT96" s="340"/>
-      <c r="AU96" s="340"/>
+      <c r="K96" s="339"/>
+      <c r="L96" s="339"/>
+      <c r="M96" s="339"/>
+      <c r="N96" s="339"/>
+      <c r="O96" s="339"/>
+      <c r="P96" s="339"/>
+      <c r="Q96" s="339"/>
+      <c r="R96" s="339"/>
+      <c r="S96" s="339"/>
+      <c r="T96" s="337"/>
+      <c r="U96" s="337"/>
+      <c r="V96" s="337"/>
+      <c r="W96" s="338"/>
+      <c r="X96" s="338"/>
+      <c r="Y96" s="337"/>
+      <c r="Z96" s="337"/>
+      <c r="AA96" s="337"/>
+      <c r="AB96" s="337"/>
+      <c r="AC96" s="337"/>
+      <c r="AD96" s="337"/>
+      <c r="AE96" s="337"/>
+      <c r="AF96" s="337"/>
+      <c r="AG96" s="337"/>
+      <c r="AH96" s="337"/>
+      <c r="AI96" s="337"/>
+      <c r="AJ96" s="337"/>
+      <c r="AK96" s="337"/>
+      <c r="AL96" s="337"/>
+      <c r="AM96" s="337"/>
+      <c r="AN96" s="337"/>
+      <c r="AO96" s="337"/>
+      <c r="AP96" s="337"/>
+      <c r="AQ96" s="337"/>
+      <c r="AR96" s="337"/>
+      <c r="AS96" s="337"/>
+      <c r="AT96" s="337"/>
+      <c r="AU96" s="337"/>
       <c r="AV96" s="24"/>
       <c r="AW96" s="138"/>
     </row>
@@ -20442,14 +20433,14 @@
       <c r="C97" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D97" s="340"/>
-      <c r="E97" s="343"/>
-      <c r="F97" s="345"/>
-      <c r="G97" s="345"/>
-      <c r="H97" s="345"/>
-      <c r="I97" s="343"/>
-      <c r="J97" s="343"/>
-      <c r="K97" s="342"/>
+      <c r="D97" s="337"/>
+      <c r="E97" s="340"/>
+      <c r="F97" s="342"/>
+      <c r="G97" s="342"/>
+      <c r="H97" s="342"/>
+      <c r="I97" s="340"/>
+      <c r="J97" s="340"/>
+      <c r="K97" s="339"/>
       <c r="L97" s="24"/>
       <c r="M97" s="24"/>
       <c r="N97" s="24"/>
@@ -20458,48 +20449,48 @@
       <c r="Q97" s="24"/>
       <c r="R97" s="24"/>
       <c r="S97" s="24"/>
-      <c r="T97" s="344"/>
-      <c r="U97" s="344"/>
-      <c r="V97" s="344"/>
-      <c r="W97" s="344"/>
-      <c r="X97" s="344"/>
-      <c r="Y97" s="344"/>
-      <c r="Z97" s="344"/>
-      <c r="AA97" s="344"/>
-      <c r="AB97" s="344"/>
-      <c r="AC97" s="344"/>
-      <c r="AD97" s="344"/>
-      <c r="AE97" s="344"/>
-      <c r="AF97" s="344"/>
-      <c r="AG97" s="344"/>
-      <c r="AH97" s="344"/>
-      <c r="AI97" s="344"/>
-      <c r="AJ97" s="344"/>
-      <c r="AK97" s="344"/>
-      <c r="AL97" s="344"/>
-      <c r="AM97" s="344"/>
-      <c r="AN97" s="344"/>
-      <c r="AO97" s="344"/>
-      <c r="AP97" s="344"/>
-      <c r="AQ97" s="344"/>
-      <c r="AR97" s="344"/>
-      <c r="AS97" s="344"/>
-      <c r="AT97" s="344"/>
-      <c r="AU97" s="344"/>
-      <c r="AV97" s="344"/>
+      <c r="T97" s="341"/>
+      <c r="U97" s="341"/>
+      <c r="V97" s="341"/>
+      <c r="W97" s="341"/>
+      <c r="X97" s="341"/>
+      <c r="Y97" s="341"/>
+      <c r="Z97" s="341"/>
+      <c r="AA97" s="341"/>
+      <c r="AB97" s="341"/>
+      <c r="AC97" s="341"/>
+      <c r="AD97" s="341"/>
+      <c r="AE97" s="341"/>
+      <c r="AF97" s="341"/>
+      <c r="AG97" s="341"/>
+      <c r="AH97" s="341"/>
+      <c r="AI97" s="341"/>
+      <c r="AJ97" s="341"/>
+      <c r="AK97" s="341"/>
+      <c r="AL97" s="341"/>
+      <c r="AM97" s="341"/>
+      <c r="AN97" s="341"/>
+      <c r="AO97" s="341"/>
+      <c r="AP97" s="341"/>
+      <c r="AQ97" s="341"/>
+      <c r="AR97" s="341"/>
+      <c r="AS97" s="341"/>
+      <c r="AT97" s="341"/>
+      <c r="AU97" s="341"/>
+      <c r="AV97" s="341"/>
       <c r="AW97" s="138"/>
     </row>
     <row r="98" s="1" customFormat="1" customHeight="1" spans="1:49">
       <c r="A98" s="16"/>
       <c r="B98" s="23"/>
       <c r="C98" s="24"/>
-      <c r="D98" s="340"/>
-      <c r="E98" s="345"/>
-      <c r="F98" s="345"/>
-      <c r="G98" s="345"/>
-      <c r="H98" s="345"/>
-      <c r="I98" s="341"/>
-      <c r="J98" s="341"/>
+      <c r="D98" s="337"/>
+      <c r="E98" s="342"/>
+      <c r="F98" s="342"/>
+      <c r="G98" s="342"/>
+      <c r="H98" s="342"/>
+      <c r="I98" s="338"/>
+      <c r="J98" s="338"/>
       <c r="K98" s="24"/>
       <c r="L98" s="18"/>
       <c r="M98" s="18"/>
@@ -20546,17 +20537,17 @@
         <v>40</v>
       </c>
       <c r="C99" s="24"/>
-      <c r="D99" s="340"/>
-      <c r="E99" s="345"/>
-      <c r="F99" s="345"/>
-      <c r="G99" s="345"/>
-      <c r="H99" s="345"/>
-      <c r="I99" s="341"/>
-      <c r="J99" s="341"/>
+      <c r="D99" s="337"/>
+      <c r="E99" s="342"/>
+      <c r="F99" s="342"/>
+      <c r="G99" s="342"/>
+      <c r="H99" s="342"/>
+      <c r="I99" s="338"/>
+      <c r="J99" s="338"/>
       <c r="K99" s="18"/>
-      <c r="L99" s="343"/>
-      <c r="M99" s="343"/>
-      <c r="N99" s="343"/>
+      <c r="L99" s="340"/>
+      <c r="M99" s="340"/>
+      <c r="N99" s="340"/>
       <c r="O99" s="18"/>
       <c r="P99" s="18"/>
       <c r="Q99" s="18"/>
@@ -20571,28 +20562,28 @@
       <c r="Z99" s="18"/>
       <c r="AA99" s="18"/>
       <c r="AB99" s="18"/>
-      <c r="AC99" s="343"/>
-      <c r="AD99" s="343"/>
-      <c r="AE99" s="343"/>
+      <c r="AC99" s="340"/>
+      <c r="AD99" s="340"/>
+      <c r="AE99" s="340"/>
       <c r="AF99" s="18"/>
       <c r="AG99" s="18"/>
       <c r="AH99" s="18"/>
-      <c r="AI99" s="344"/>
-      <c r="AJ99" s="344"/>
-      <c r="AK99" s="344"/>
-      <c r="AL99" s="344"/>
-      <c r="AM99" s="344"/>
-      <c r="AN99" s="344"/>
-      <c r="AO99" s="344"/>
-      <c r="AP99" s="344"/>
-      <c r="AQ99" s="344"/>
-      <c r="AR99" s="344"/>
-      <c r="AS99" s="344"/>
-      <c r="AT99" s="344"/>
-      <c r="AU99" s="344"/>
-      <c r="AV99" s="344"/>
+      <c r="AI99" s="341"/>
+      <c r="AJ99" s="341"/>
+      <c r="AK99" s="341"/>
+      <c r="AL99" s="341"/>
+      <c r="AM99" s="341"/>
+      <c r="AN99" s="341"/>
+      <c r="AO99" s="341"/>
+      <c r="AP99" s="341"/>
+      <c r="AQ99" s="341"/>
+      <c r="AR99" s="341"/>
+      <c r="AS99" s="341"/>
+      <c r="AT99" s="341"/>
+      <c r="AU99" s="341"/>
+      <c r="AV99" s="341"/>
       <c r="AW99" s="138"/>
-      <c r="AX99" s="354"/>
+      <c r="AX99" s="351"/>
     </row>
     <row r="100" s="1" customFormat="1" customHeight="1" spans="1:50">
       <c r="A100" s="16"/>
@@ -20600,261 +20591,261 @@
       <c r="C100" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D100" s="340"/>
+      <c r="D100" s="337"/>
       <c r="E100" s="24"/>
       <c r="F100" s="24"/>
       <c r="G100" s="24"/>
       <c r="H100" s="24"/>
-      <c r="I100" s="341"/>
-      <c r="J100" s="341"/>
-      <c r="K100" s="343"/>
-      <c r="L100" s="341"/>
-      <c r="M100" s="341"/>
-      <c r="N100" s="341"/>
-      <c r="O100" s="341"/>
-      <c r="P100" s="341"/>
-      <c r="Q100" s="341"/>
-      <c r="R100" s="340"/>
-      <c r="S100" s="340"/>
-      <c r="T100" s="340"/>
-      <c r="U100" s="340"/>
-      <c r="V100" s="340"/>
-      <c r="W100" s="341"/>
-      <c r="X100" s="341"/>
-      <c r="Y100" s="340"/>
-      <c r="Z100" s="340"/>
-      <c r="AA100" s="340"/>
-      <c r="AB100" s="340"/>
-      <c r="AC100" s="340"/>
-      <c r="AD100" s="340"/>
-      <c r="AE100" s="340"/>
-      <c r="AF100" s="340"/>
-      <c r="AG100" s="340"/>
-      <c r="AH100" s="340"/>
-      <c r="AI100" s="340"/>
-      <c r="AJ100" s="340"/>
-      <c r="AK100" s="340"/>
-      <c r="AL100" s="340"/>
-      <c r="AM100" s="340"/>
-      <c r="AN100" s="340"/>
-      <c r="AO100" s="340"/>
-      <c r="AP100" s="340"/>
-      <c r="AQ100" s="340"/>
-      <c r="AR100" s="340"/>
-      <c r="AS100" s="340"/>
-      <c r="AT100" s="340"/>
-      <c r="AU100" s="340"/>
+      <c r="I100" s="338"/>
+      <c r="J100" s="338"/>
+      <c r="K100" s="340"/>
+      <c r="L100" s="338"/>
+      <c r="M100" s="338"/>
+      <c r="N100" s="338"/>
+      <c r="O100" s="338"/>
+      <c r="P100" s="338"/>
+      <c r="Q100" s="338"/>
+      <c r="R100" s="337"/>
+      <c r="S100" s="337"/>
+      <c r="T100" s="337"/>
+      <c r="U100" s="337"/>
+      <c r="V100" s="337"/>
+      <c r="W100" s="338"/>
+      <c r="X100" s="338"/>
+      <c r="Y100" s="337"/>
+      <c r="Z100" s="337"/>
+      <c r="AA100" s="337"/>
+      <c r="AB100" s="337"/>
+      <c r="AC100" s="337"/>
+      <c r="AD100" s="337"/>
+      <c r="AE100" s="337"/>
+      <c r="AF100" s="337"/>
+      <c r="AG100" s="337"/>
+      <c r="AH100" s="337"/>
+      <c r="AI100" s="337"/>
+      <c r="AJ100" s="337"/>
+      <c r="AK100" s="337"/>
+      <c r="AL100" s="337"/>
+      <c r="AM100" s="337"/>
+      <c r="AN100" s="337"/>
+      <c r="AO100" s="337"/>
+      <c r="AP100" s="337"/>
+      <c r="AQ100" s="337"/>
+      <c r="AR100" s="337"/>
+      <c r="AS100" s="337"/>
+      <c r="AT100" s="337"/>
+      <c r="AU100" s="337"/>
       <c r="AV100" s="18"/>
       <c r="AW100" s="138"/>
-      <c r="AX100" s="353"/>
+      <c r="AX100" s="350"/>
     </row>
     <row r="101" s="1" customFormat="1" customHeight="1" spans="1:50">
       <c r="A101" s="16"/>
       <c r="B101" s="23"/>
       <c r="C101" s="24"/>
-      <c r="D101" s="340"/>
-      <c r="E101" s="340"/>
-      <c r="F101" s="340"/>
-      <c r="G101" s="341"/>
-      <c r="H101" s="341"/>
-      <c r="I101" s="341"/>
-      <c r="J101" s="341"/>
-      <c r="K101" s="341"/>
-      <c r="L101" s="341"/>
-      <c r="M101" s="341"/>
-      <c r="N101" s="341"/>
-      <c r="O101" s="341"/>
-      <c r="P101" s="341"/>
-      <c r="Q101" s="341"/>
-      <c r="R101" s="340"/>
-      <c r="S101" s="340"/>
-      <c r="T101" s="340"/>
-      <c r="U101" s="340"/>
-      <c r="V101" s="340"/>
-      <c r="W101" s="341"/>
-      <c r="X101" s="341"/>
-      <c r="Y101" s="340"/>
-      <c r="Z101" s="340"/>
-      <c r="AA101" s="340"/>
-      <c r="AB101" s="340"/>
-      <c r="AC101" s="340"/>
-      <c r="AD101" s="340"/>
-      <c r="AE101" s="340"/>
-      <c r="AF101" s="340"/>
-      <c r="AG101" s="340"/>
-      <c r="AH101" s="340"/>
-      <c r="AI101" s="340"/>
-      <c r="AJ101" s="340"/>
-      <c r="AK101" s="340"/>
-      <c r="AL101" s="340"/>
-      <c r="AM101" s="340"/>
-      <c r="AN101" s="340"/>
-      <c r="AO101" s="340"/>
-      <c r="AP101" s="340"/>
-      <c r="AQ101" s="340"/>
-      <c r="AR101" s="340"/>
-      <c r="AS101" s="340"/>
-      <c r="AT101" s="340"/>
-      <c r="AU101" s="340"/>
+      <c r="D101" s="337"/>
+      <c r="E101" s="337"/>
+      <c r="F101" s="337"/>
+      <c r="G101" s="338"/>
+      <c r="H101" s="338"/>
+      <c r="I101" s="338"/>
+      <c r="J101" s="338"/>
+      <c r="K101" s="338"/>
+      <c r="L101" s="338"/>
+      <c r="M101" s="338"/>
+      <c r="N101" s="338"/>
+      <c r="O101" s="338"/>
+      <c r="P101" s="338"/>
+      <c r="Q101" s="338"/>
+      <c r="R101" s="337"/>
+      <c r="S101" s="337"/>
+      <c r="T101" s="337"/>
+      <c r="U101" s="337"/>
+      <c r="V101" s="337"/>
+      <c r="W101" s="338"/>
+      <c r="X101" s="338"/>
+      <c r="Y101" s="337"/>
+      <c r="Z101" s="337"/>
+      <c r="AA101" s="337"/>
+      <c r="AB101" s="337"/>
+      <c r="AC101" s="337"/>
+      <c r="AD101" s="337"/>
+      <c r="AE101" s="337"/>
+      <c r="AF101" s="337"/>
+      <c r="AG101" s="337"/>
+      <c r="AH101" s="337"/>
+      <c r="AI101" s="337"/>
+      <c r="AJ101" s="337"/>
+      <c r="AK101" s="337"/>
+      <c r="AL101" s="337"/>
+      <c r="AM101" s="337"/>
+      <c r="AN101" s="337"/>
+      <c r="AO101" s="337"/>
+      <c r="AP101" s="337"/>
+      <c r="AQ101" s="337"/>
+      <c r="AR101" s="337"/>
+      <c r="AS101" s="337"/>
+      <c r="AT101" s="337"/>
+      <c r="AU101" s="337"/>
       <c r="AV101" s="18"/>
       <c r="AW101" s="138"/>
-      <c r="AX101" s="353"/>
+      <c r="AX101" s="350"/>
     </row>
     <row r="102" s="1" customFormat="1" customHeight="1" spans="1:50">
       <c r="A102" s="16"/>
       <c r="B102" s="23"/>
       <c r="C102" s="24"/>
-      <c r="D102" s="340"/>
-      <c r="E102" s="340"/>
-      <c r="F102" s="340"/>
-      <c r="G102" s="341"/>
-      <c r="H102" s="341"/>
-      <c r="I102" s="341"/>
-      <c r="J102" s="341"/>
-      <c r="K102" s="341"/>
-      <c r="L102" s="341"/>
-      <c r="M102" s="341"/>
-      <c r="N102" s="341"/>
-      <c r="O102" s="341"/>
-      <c r="P102" s="341"/>
-      <c r="Q102" s="341"/>
-      <c r="R102" s="340"/>
-      <c r="S102" s="340"/>
-      <c r="T102" s="340"/>
-      <c r="U102" s="340"/>
-      <c r="V102" s="340"/>
-      <c r="W102" s="341"/>
-      <c r="X102" s="341"/>
-      <c r="Y102" s="340"/>
-      <c r="Z102" s="340"/>
-      <c r="AA102" s="340"/>
-      <c r="AB102" s="340"/>
-      <c r="AC102" s="340"/>
-      <c r="AD102" s="340"/>
-      <c r="AE102" s="340"/>
-      <c r="AF102" s="340"/>
-      <c r="AG102" s="340"/>
-      <c r="AH102" s="340"/>
-      <c r="AI102" s="340"/>
-      <c r="AJ102" s="340"/>
-      <c r="AK102" s="340"/>
-      <c r="AL102" s="340"/>
-      <c r="AM102" s="340"/>
-      <c r="AN102" s="340"/>
-      <c r="AO102" s="340"/>
-      <c r="AP102" s="340"/>
-      <c r="AQ102" s="340"/>
-      <c r="AR102" s="340"/>
-      <c r="AS102" s="340"/>
-      <c r="AT102" s="340"/>
-      <c r="AU102" s="340"/>
+      <c r="D102" s="337"/>
+      <c r="E102" s="337"/>
+      <c r="F102" s="337"/>
+      <c r="G102" s="338"/>
+      <c r="H102" s="338"/>
+      <c r="I102" s="338"/>
+      <c r="J102" s="338"/>
+      <c r="K102" s="338"/>
+      <c r="L102" s="338"/>
+      <c r="M102" s="338"/>
+      <c r="N102" s="338"/>
+      <c r="O102" s="338"/>
+      <c r="P102" s="338"/>
+      <c r="Q102" s="338"/>
+      <c r="R102" s="337"/>
+      <c r="S102" s="337"/>
+      <c r="T102" s="337"/>
+      <c r="U102" s="337"/>
+      <c r="V102" s="337"/>
+      <c r="W102" s="338"/>
+      <c r="X102" s="338"/>
+      <c r="Y102" s="337"/>
+      <c r="Z102" s="337"/>
+      <c r="AA102" s="337"/>
+      <c r="AB102" s="337"/>
+      <c r="AC102" s="337"/>
+      <c r="AD102" s="337"/>
+      <c r="AE102" s="337"/>
+      <c r="AF102" s="337"/>
+      <c r="AG102" s="337"/>
+      <c r="AH102" s="337"/>
+      <c r="AI102" s="337"/>
+      <c r="AJ102" s="337"/>
+      <c r="AK102" s="337"/>
+      <c r="AL102" s="337"/>
+      <c r="AM102" s="337"/>
+      <c r="AN102" s="337"/>
+      <c r="AO102" s="337"/>
+      <c r="AP102" s="337"/>
+      <c r="AQ102" s="337"/>
+      <c r="AR102" s="337"/>
+      <c r="AS102" s="337"/>
+      <c r="AT102" s="337"/>
+      <c r="AU102" s="337"/>
       <c r="AV102" s="18"/>
       <c r="AW102" s="138"/>
-      <c r="AX102" s="353"/>
+      <c r="AX102" s="350"/>
     </row>
     <row r="103" s="1" customFormat="1" customHeight="1" spans="1:50">
       <c r="A103" s="16"/>
       <c r="B103" s="23"/>
       <c r="C103" s="24"/>
-      <c r="D103" s="340"/>
-      <c r="E103" s="340"/>
-      <c r="F103" s="340"/>
-      <c r="G103" s="341"/>
-      <c r="H103" s="341"/>
-      <c r="I103" s="341"/>
-      <c r="J103" s="341"/>
-      <c r="K103" s="341"/>
-      <c r="L103" s="341"/>
-      <c r="M103" s="341"/>
-      <c r="N103" s="341"/>
-      <c r="O103" s="341"/>
-      <c r="P103" s="341"/>
-      <c r="Q103" s="341"/>
-      <c r="R103" s="340"/>
-      <c r="S103" s="340"/>
-      <c r="T103" s="340"/>
-      <c r="U103" s="340"/>
-      <c r="V103" s="340"/>
-      <c r="W103" s="341"/>
-      <c r="X103" s="341"/>
-      <c r="Y103" s="340"/>
-      <c r="Z103" s="340"/>
-      <c r="AA103" s="340"/>
-      <c r="AB103" s="340"/>
-      <c r="AC103" s="340"/>
-      <c r="AD103" s="340"/>
-      <c r="AE103" s="340"/>
-      <c r="AF103" s="340"/>
-      <c r="AG103" s="340"/>
-      <c r="AH103" s="340"/>
-      <c r="AI103" s="340"/>
-      <c r="AJ103" s="340"/>
-      <c r="AK103" s="340"/>
-      <c r="AL103" s="340"/>
-      <c r="AM103" s="340"/>
-      <c r="AN103" s="340"/>
-      <c r="AO103" s="340"/>
-      <c r="AP103" s="340"/>
-      <c r="AQ103" s="340"/>
-      <c r="AR103" s="340"/>
-      <c r="AS103" s="340"/>
-      <c r="AT103" s="340"/>
-      <c r="AU103" s="340"/>
+      <c r="D103" s="337"/>
+      <c r="E103" s="337"/>
+      <c r="F103" s="337"/>
+      <c r="G103" s="338"/>
+      <c r="H103" s="338"/>
+      <c r="I103" s="338"/>
+      <c r="J103" s="338"/>
+      <c r="K103" s="338"/>
+      <c r="L103" s="338"/>
+      <c r="M103" s="338"/>
+      <c r="N103" s="338"/>
+      <c r="O103" s="338"/>
+      <c r="P103" s="338"/>
+      <c r="Q103" s="338"/>
+      <c r="R103" s="337"/>
+      <c r="S103" s="337"/>
+      <c r="T103" s="337"/>
+      <c r="U103" s="337"/>
+      <c r="V103" s="337"/>
+      <c r="W103" s="338"/>
+      <c r="X103" s="338"/>
+      <c r="Y103" s="337"/>
+      <c r="Z103" s="337"/>
+      <c r="AA103" s="337"/>
+      <c r="AB103" s="337"/>
+      <c r="AC103" s="337"/>
+      <c r="AD103" s="337"/>
+      <c r="AE103" s="337"/>
+      <c r="AF103" s="337"/>
+      <c r="AG103" s="337"/>
+      <c r="AH103" s="337"/>
+      <c r="AI103" s="337"/>
+      <c r="AJ103" s="337"/>
+      <c r="AK103" s="337"/>
+      <c r="AL103" s="337"/>
+      <c r="AM103" s="337"/>
+      <c r="AN103" s="337"/>
+      <c r="AO103" s="337"/>
+      <c r="AP103" s="337"/>
+      <c r="AQ103" s="337"/>
+      <c r="AR103" s="337"/>
+      <c r="AS103" s="337"/>
+      <c r="AT103" s="337"/>
+      <c r="AU103" s="337"/>
       <c r="AV103" s="18"/>
       <c r="AW103" s="138"/>
-      <c r="AX103" s="353"/>
+      <c r="AX103" s="350"/>
     </row>
     <row r="104" s="1" customFormat="1" customHeight="1" spans="1:50">
       <c r="A104" s="16"/>
       <c r="B104" s="23"/>
       <c r="C104" s="24"/>
-      <c r="D104" s="340"/>
-      <c r="E104" s="340"/>
-      <c r="F104" s="340"/>
-      <c r="G104" s="341"/>
-      <c r="H104" s="341"/>
-      <c r="I104" s="341"/>
-      <c r="J104" s="341"/>
-      <c r="K104" s="341"/>
-      <c r="L104" s="341"/>
-      <c r="M104" s="341"/>
-      <c r="N104" s="341"/>
-      <c r="O104" s="341"/>
-      <c r="P104" s="341"/>
-      <c r="Q104" s="341"/>
-      <c r="R104" s="340"/>
-      <c r="S104" s="340"/>
-      <c r="T104" s="340"/>
-      <c r="U104" s="340"/>
-      <c r="V104" s="340"/>
-      <c r="W104" s="341"/>
-      <c r="X104" s="341"/>
-      <c r="Y104" s="340"/>
-      <c r="Z104" s="340"/>
-      <c r="AA104" s="340"/>
-      <c r="AB104" s="340"/>
-      <c r="AC104" s="340"/>
-      <c r="AD104" s="340"/>
-      <c r="AE104" s="340"/>
-      <c r="AF104" s="340"/>
-      <c r="AG104" s="340"/>
-      <c r="AH104" s="340"/>
-      <c r="AI104" s="340"/>
-      <c r="AJ104" s="340"/>
-      <c r="AK104" s="340"/>
-      <c r="AL104" s="340"/>
-      <c r="AM104" s="340"/>
-      <c r="AN104" s="340"/>
-      <c r="AO104" s="340"/>
-      <c r="AP104" s="340"/>
-      <c r="AQ104" s="340"/>
-      <c r="AR104" s="340"/>
-      <c r="AS104" s="340"/>
-      <c r="AT104" s="340"/>
-      <c r="AU104" s="340"/>
+      <c r="D104" s="337"/>
+      <c r="E104" s="337"/>
+      <c r="F104" s="337"/>
+      <c r="G104" s="338"/>
+      <c r="H104" s="338"/>
+      <c r="I104" s="338"/>
+      <c r="J104" s="338"/>
+      <c r="K104" s="338"/>
+      <c r="L104" s="338"/>
+      <c r="M104" s="338"/>
+      <c r="N104" s="338"/>
+      <c r="O104" s="338"/>
+      <c r="P104" s="338"/>
+      <c r="Q104" s="338"/>
+      <c r="R104" s="337"/>
+      <c r="S104" s="337"/>
+      <c r="T104" s="337"/>
+      <c r="U104" s="337"/>
+      <c r="V104" s="337"/>
+      <c r="W104" s="338"/>
+      <c r="X104" s="338"/>
+      <c r="Y104" s="337"/>
+      <c r="Z104" s="337"/>
+      <c r="AA104" s="337"/>
+      <c r="AB104" s="337"/>
+      <c r="AC104" s="337"/>
+      <c r="AD104" s="337"/>
+      <c r="AE104" s="337"/>
+      <c r="AF104" s="337"/>
+      <c r="AG104" s="337"/>
+      <c r="AH104" s="337"/>
+      <c r="AI104" s="337"/>
+      <c r="AJ104" s="337"/>
+      <c r="AK104" s="337"/>
+      <c r="AL104" s="337"/>
+      <c r="AM104" s="337"/>
+      <c r="AN104" s="337"/>
+      <c r="AO104" s="337"/>
+      <c r="AP104" s="337"/>
+      <c r="AQ104" s="337"/>
+      <c r="AR104" s="337"/>
+      <c r="AS104" s="337"/>
+      <c r="AT104" s="337"/>
+      <c r="AU104" s="337"/>
       <c r="AV104" s="18"/>
       <c r="AW104" s="138"/>
-      <c r="AX104" s="353"/>
+      <c r="AX104" s="350"/>
     </row>
     <row r="105" s="1" customFormat="1" customHeight="1" spans="1:50">
       <c r="A105" s="16"/>
@@ -20867,46 +20858,46 @@
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
-      <c r="K105" s="341"/>
-      <c r="L105" s="341"/>
-      <c r="M105" s="341"/>
-      <c r="N105" s="341"/>
-      <c r="O105" s="341"/>
-      <c r="P105" s="341"/>
-      <c r="Q105" s="341"/>
-      <c r="R105" s="340"/>
-      <c r="S105" s="340"/>
-      <c r="T105" s="340"/>
-      <c r="U105" s="340"/>
-      <c r="V105" s="340"/>
-      <c r="W105" s="341"/>
-      <c r="X105" s="341"/>
-      <c r="Y105" s="340"/>
-      <c r="Z105" s="340"/>
-      <c r="AA105" s="340"/>
-      <c r="AB105" s="340"/>
-      <c r="AC105" s="340"/>
-      <c r="AD105" s="340"/>
-      <c r="AE105" s="340"/>
-      <c r="AF105" s="340"/>
-      <c r="AG105" s="340"/>
-      <c r="AH105" s="340"/>
-      <c r="AI105" s="340"/>
-      <c r="AJ105" s="340"/>
-      <c r="AK105" s="340"/>
-      <c r="AL105" s="340"/>
-      <c r="AM105" s="340"/>
-      <c r="AN105" s="340"/>
-      <c r="AO105" s="340"/>
-      <c r="AP105" s="340"/>
-      <c r="AQ105" s="340"/>
-      <c r="AR105" s="340"/>
-      <c r="AS105" s="340"/>
-      <c r="AT105" s="340"/>
-      <c r="AU105" s="340"/>
+      <c r="K105" s="338"/>
+      <c r="L105" s="338"/>
+      <c r="M105" s="338"/>
+      <c r="N105" s="338"/>
+      <c r="O105" s="338"/>
+      <c r="P105" s="338"/>
+      <c r="Q105" s="338"/>
+      <c r="R105" s="337"/>
+      <c r="S105" s="337"/>
+      <c r="T105" s="337"/>
+      <c r="U105" s="337"/>
+      <c r="V105" s="337"/>
+      <c r="W105" s="338"/>
+      <c r="X105" s="338"/>
+      <c r="Y105" s="337"/>
+      <c r="Z105" s="337"/>
+      <c r="AA105" s="337"/>
+      <c r="AB105" s="337"/>
+      <c r="AC105" s="337"/>
+      <c r="AD105" s="337"/>
+      <c r="AE105" s="337"/>
+      <c r="AF105" s="337"/>
+      <c r="AG105" s="337"/>
+      <c r="AH105" s="337"/>
+      <c r="AI105" s="337"/>
+      <c r="AJ105" s="337"/>
+      <c r="AK105" s="337"/>
+      <c r="AL105" s="337"/>
+      <c r="AM105" s="337"/>
+      <c r="AN105" s="337"/>
+      <c r="AO105" s="337"/>
+      <c r="AP105" s="337"/>
+      <c r="AQ105" s="337"/>
+      <c r="AR105" s="337"/>
+      <c r="AS105" s="337"/>
+      <c r="AT105" s="337"/>
+      <c r="AU105" s="337"/>
       <c r="AV105" s="18"/>
       <c r="AW105" s="138"/>
-      <c r="AX105" s="353"/>
+      <c r="AX105" s="350"/>
     </row>
     <row r="106" s="1" customFormat="1" customHeight="1" spans="1:50">
       <c r="A106" s="16"/>
@@ -20919,46 +20910,46 @@
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
-      <c r="K106" s="341"/>
-      <c r="L106" s="341"/>
-      <c r="M106" s="341"/>
-      <c r="N106" s="341"/>
-      <c r="O106" s="341"/>
-      <c r="P106" s="341"/>
-      <c r="Q106" s="341"/>
-      <c r="R106" s="340"/>
-      <c r="S106" s="340"/>
-      <c r="T106" s="340"/>
-      <c r="U106" s="340"/>
-      <c r="V106" s="340"/>
-      <c r="W106" s="341"/>
-      <c r="X106" s="341"/>
-      <c r="Y106" s="340"/>
-      <c r="Z106" s="340"/>
-      <c r="AA106" s="340"/>
-      <c r="AB106" s="340"/>
-      <c r="AC106" s="340"/>
-      <c r="AD106" s="340"/>
-      <c r="AE106" s="340"/>
-      <c r="AF106" s="340"/>
-      <c r="AG106" s="340"/>
-      <c r="AH106" s="340"/>
-      <c r="AI106" s="340"/>
-      <c r="AJ106" s="340"/>
-      <c r="AK106" s="340"/>
-      <c r="AL106" s="340"/>
-      <c r="AM106" s="340"/>
-      <c r="AN106" s="340"/>
-      <c r="AO106" s="340"/>
-      <c r="AP106" s="340"/>
-      <c r="AQ106" s="340"/>
-      <c r="AR106" s="340"/>
-      <c r="AS106" s="340"/>
-      <c r="AT106" s="340"/>
-      <c r="AU106" s="340"/>
+      <c r="K106" s="338"/>
+      <c r="L106" s="338"/>
+      <c r="M106" s="338"/>
+      <c r="N106" s="338"/>
+      <c r="O106" s="338"/>
+      <c r="P106" s="338"/>
+      <c r="Q106" s="338"/>
+      <c r="R106" s="337"/>
+      <c r="S106" s="337"/>
+      <c r="T106" s="337"/>
+      <c r="U106" s="337"/>
+      <c r="V106" s="337"/>
+      <c r="W106" s="338"/>
+      <c r="X106" s="338"/>
+      <c r="Y106" s="337"/>
+      <c r="Z106" s="337"/>
+      <c r="AA106" s="337"/>
+      <c r="AB106" s="337"/>
+      <c r="AC106" s="337"/>
+      <c r="AD106" s="337"/>
+      <c r="AE106" s="337"/>
+      <c r="AF106" s="337"/>
+      <c r="AG106" s="337"/>
+      <c r="AH106" s="337"/>
+      <c r="AI106" s="337"/>
+      <c r="AJ106" s="337"/>
+      <c r="AK106" s="337"/>
+      <c r="AL106" s="337"/>
+      <c r="AM106" s="337"/>
+      <c r="AN106" s="337"/>
+      <c r="AO106" s="337"/>
+      <c r="AP106" s="337"/>
+      <c r="AQ106" s="337"/>
+      <c r="AR106" s="337"/>
+      <c r="AS106" s="337"/>
+      <c r="AT106" s="337"/>
+      <c r="AU106" s="337"/>
       <c r="AV106" s="18"/>
       <c r="AW106" s="138"/>
-      <c r="AX106" s="353"/>
+      <c r="AX106" s="350"/>
     </row>
     <row r="107" s="1" customFormat="1" customHeight="1" spans="1:50">
       <c r="A107" s="16"/>
@@ -20971,46 +20962,46 @@
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
-      <c r="K107" s="341"/>
-      <c r="L107" s="341"/>
-      <c r="M107" s="341"/>
-      <c r="N107" s="341"/>
-      <c r="O107" s="341"/>
-      <c r="P107" s="341"/>
-      <c r="Q107" s="341"/>
-      <c r="R107" s="340"/>
-      <c r="S107" s="340"/>
-      <c r="T107" s="340"/>
-      <c r="U107" s="340"/>
-      <c r="V107" s="340"/>
-      <c r="W107" s="341"/>
-      <c r="X107" s="341"/>
-      <c r="Y107" s="340"/>
-      <c r="Z107" s="340"/>
-      <c r="AA107" s="340"/>
-      <c r="AB107" s="340"/>
-      <c r="AC107" s="340"/>
-      <c r="AD107" s="340"/>
-      <c r="AE107" s="340"/>
-      <c r="AF107" s="340"/>
-      <c r="AG107" s="340"/>
-      <c r="AH107" s="340"/>
-      <c r="AI107" s="340"/>
-      <c r="AJ107" s="340"/>
-      <c r="AK107" s="340"/>
-      <c r="AL107" s="340"/>
-      <c r="AM107" s="340"/>
-      <c r="AN107" s="340"/>
-      <c r="AO107" s="340"/>
-      <c r="AP107" s="340"/>
-      <c r="AQ107" s="340"/>
-      <c r="AR107" s="340"/>
-      <c r="AS107" s="340"/>
-      <c r="AT107" s="340"/>
-      <c r="AU107" s="340"/>
+      <c r="K107" s="338"/>
+      <c r="L107" s="338"/>
+      <c r="M107" s="338"/>
+      <c r="N107" s="338"/>
+      <c r="O107" s="338"/>
+      <c r="P107" s="338"/>
+      <c r="Q107" s="338"/>
+      <c r="R107" s="337"/>
+      <c r="S107" s="337"/>
+      <c r="T107" s="337"/>
+      <c r="U107" s="337"/>
+      <c r="V107" s="337"/>
+      <c r="W107" s="338"/>
+      <c r="X107" s="338"/>
+      <c r="Y107" s="337"/>
+      <c r="Z107" s="337"/>
+      <c r="AA107" s="337"/>
+      <c r="AB107" s="337"/>
+      <c r="AC107" s="337"/>
+      <c r="AD107" s="337"/>
+      <c r="AE107" s="337"/>
+      <c r="AF107" s="337"/>
+      <c r="AG107" s="337"/>
+      <c r="AH107" s="337"/>
+      <c r="AI107" s="337"/>
+      <c r="AJ107" s="337"/>
+      <c r="AK107" s="337"/>
+      <c r="AL107" s="337"/>
+      <c r="AM107" s="337"/>
+      <c r="AN107" s="337"/>
+      <c r="AO107" s="337"/>
+      <c r="AP107" s="337"/>
+      <c r="AQ107" s="337"/>
+      <c r="AR107" s="337"/>
+      <c r="AS107" s="337"/>
+      <c r="AT107" s="337"/>
+      <c r="AU107" s="337"/>
       <c r="AV107" s="18"/>
       <c r="AW107" s="138"/>
-      <c r="AX107" s="353"/>
+      <c r="AX107" s="350"/>
     </row>
     <row r="108" s="1" customFormat="1" customHeight="1" spans="1:50">
       <c r="A108" s="16"/>
@@ -21023,46 +21014,46 @@
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
-      <c r="K108" s="341"/>
-      <c r="L108" s="341"/>
-      <c r="M108" s="341"/>
-      <c r="N108" s="341"/>
-      <c r="O108" s="341"/>
-      <c r="P108" s="341"/>
-      <c r="Q108" s="341"/>
-      <c r="R108" s="340"/>
-      <c r="S108" s="340"/>
-      <c r="T108" s="340"/>
-      <c r="U108" s="340"/>
-      <c r="V108" s="340"/>
-      <c r="W108" s="341"/>
-      <c r="X108" s="341"/>
-      <c r="Y108" s="340"/>
-      <c r="Z108" s="340"/>
-      <c r="AA108" s="340"/>
-      <c r="AB108" s="340"/>
-      <c r="AC108" s="340"/>
-      <c r="AD108" s="340"/>
-      <c r="AE108" s="340"/>
-      <c r="AF108" s="340"/>
-      <c r="AG108" s="340"/>
-      <c r="AH108" s="340"/>
-      <c r="AI108" s="340"/>
-      <c r="AJ108" s="340"/>
-      <c r="AK108" s="340"/>
-      <c r="AL108" s="340"/>
-      <c r="AM108" s="340"/>
-      <c r="AN108" s="340"/>
-      <c r="AO108" s="340"/>
-      <c r="AP108" s="340"/>
-      <c r="AQ108" s="340"/>
-      <c r="AR108" s="340"/>
-      <c r="AS108" s="340"/>
-      <c r="AT108" s="340"/>
-      <c r="AU108" s="340"/>
+      <c r="K108" s="338"/>
+      <c r="L108" s="338"/>
+      <c r="M108" s="338"/>
+      <c r="N108" s="338"/>
+      <c r="O108" s="338"/>
+      <c r="P108" s="338"/>
+      <c r="Q108" s="338"/>
+      <c r="R108" s="337"/>
+      <c r="S108" s="337"/>
+      <c r="T108" s="337"/>
+      <c r="U108" s="337"/>
+      <c r="V108" s="337"/>
+      <c r="W108" s="338"/>
+      <c r="X108" s="338"/>
+      <c r="Y108" s="337"/>
+      <c r="Z108" s="337"/>
+      <c r="AA108" s="337"/>
+      <c r="AB108" s="337"/>
+      <c r="AC108" s="337"/>
+      <c r="AD108" s="337"/>
+      <c r="AE108" s="337"/>
+      <c r="AF108" s="337"/>
+      <c r="AG108" s="337"/>
+      <c r="AH108" s="337"/>
+      <c r="AI108" s="337"/>
+      <c r="AJ108" s="337"/>
+      <c r="AK108" s="337"/>
+      <c r="AL108" s="337"/>
+      <c r="AM108" s="337"/>
+      <c r="AN108" s="337"/>
+      <c r="AO108" s="337"/>
+      <c r="AP108" s="337"/>
+      <c r="AQ108" s="337"/>
+      <c r="AR108" s="337"/>
+      <c r="AS108" s="337"/>
+      <c r="AT108" s="337"/>
+      <c r="AU108" s="337"/>
       <c r="AV108" s="18"/>
       <c r="AW108" s="138"/>
-      <c r="AX108" s="353"/>
+      <c r="AX108" s="350"/>
     </row>
     <row r="109" s="1" customFormat="1" customHeight="1" spans="1:50">
       <c r="A109" s="16"/>
@@ -21075,46 +21066,46 @@
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
-      <c r="K109" s="341"/>
-      <c r="L109" s="341"/>
-      <c r="M109" s="341"/>
-      <c r="N109" s="341"/>
-      <c r="O109" s="341"/>
-      <c r="P109" s="341"/>
-      <c r="Q109" s="341"/>
-      <c r="R109" s="340"/>
-      <c r="S109" s="340"/>
-      <c r="T109" s="340"/>
-      <c r="U109" s="340"/>
-      <c r="V109" s="340"/>
-      <c r="W109" s="341"/>
-      <c r="X109" s="341"/>
-      <c r="Y109" s="340"/>
-      <c r="Z109" s="340"/>
-      <c r="AA109" s="340"/>
-      <c r="AB109" s="340"/>
-      <c r="AC109" s="340"/>
-      <c r="AD109" s="340"/>
-      <c r="AE109" s="340"/>
-      <c r="AF109" s="340"/>
-      <c r="AG109" s="340"/>
-      <c r="AH109" s="340"/>
-      <c r="AI109" s="340"/>
-      <c r="AJ109" s="340"/>
-      <c r="AK109" s="340"/>
-      <c r="AL109" s="340"/>
-      <c r="AM109" s="340"/>
-      <c r="AN109" s="340"/>
-      <c r="AO109" s="340"/>
-      <c r="AP109" s="340"/>
-      <c r="AQ109" s="340"/>
-      <c r="AR109" s="340"/>
-      <c r="AS109" s="340"/>
-      <c r="AT109" s="340"/>
-      <c r="AU109" s="340"/>
+      <c r="K109" s="338"/>
+      <c r="L109" s="338"/>
+      <c r="M109" s="338"/>
+      <c r="N109" s="338"/>
+      <c r="O109" s="338"/>
+      <c r="P109" s="338"/>
+      <c r="Q109" s="338"/>
+      <c r="R109" s="337"/>
+      <c r="S109" s="337"/>
+      <c r="T109" s="337"/>
+      <c r="U109" s="337"/>
+      <c r="V109" s="337"/>
+      <c r="W109" s="338"/>
+      <c r="X109" s="338"/>
+      <c r="Y109" s="337"/>
+      <c r="Z109" s="337"/>
+      <c r="AA109" s="337"/>
+      <c r="AB109" s="337"/>
+      <c r="AC109" s="337"/>
+      <c r="AD109" s="337"/>
+      <c r="AE109" s="337"/>
+      <c r="AF109" s="337"/>
+      <c r="AG109" s="337"/>
+      <c r="AH109" s="337"/>
+      <c r="AI109" s="337"/>
+      <c r="AJ109" s="337"/>
+      <c r="AK109" s="337"/>
+      <c r="AL109" s="337"/>
+      <c r="AM109" s="337"/>
+      <c r="AN109" s="337"/>
+      <c r="AO109" s="337"/>
+      <c r="AP109" s="337"/>
+      <c r="AQ109" s="337"/>
+      <c r="AR109" s="337"/>
+      <c r="AS109" s="337"/>
+      <c r="AT109" s="337"/>
+      <c r="AU109" s="337"/>
       <c r="AV109" s="18"/>
       <c r="AW109" s="138"/>
-      <c r="AX109" s="353"/>
+      <c r="AX109" s="350"/>
     </row>
     <row r="110" s="1" customFormat="1" customHeight="1" spans="1:50">
       <c r="A110" s="16"/>
@@ -21127,518 +21118,518 @@
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
-      <c r="K110" s="341"/>
-      <c r="L110" s="341"/>
-      <c r="M110" s="341"/>
-      <c r="N110" s="341"/>
-      <c r="O110" s="341"/>
-      <c r="P110" s="341"/>
-      <c r="Q110" s="341"/>
-      <c r="R110" s="340"/>
-      <c r="S110" s="340"/>
-      <c r="T110" s="340"/>
-      <c r="U110" s="340"/>
-      <c r="V110" s="340"/>
-      <c r="W110" s="341"/>
-      <c r="X110" s="341"/>
-      <c r="Y110" s="340"/>
-      <c r="Z110" s="340"/>
-      <c r="AA110" s="340"/>
-      <c r="AB110" s="340"/>
-      <c r="AC110" s="340"/>
-      <c r="AD110" s="340"/>
-      <c r="AE110" s="340"/>
-      <c r="AF110" s="340"/>
-      <c r="AG110" s="340"/>
-      <c r="AH110" s="340"/>
-      <c r="AI110" s="340"/>
-      <c r="AJ110" s="340"/>
-      <c r="AK110" s="340"/>
-      <c r="AL110" s="340"/>
-      <c r="AM110" s="340"/>
-      <c r="AN110" s="340"/>
-      <c r="AO110" s="340"/>
-      <c r="AP110" s="340"/>
-      <c r="AQ110" s="340"/>
-      <c r="AR110" s="340"/>
-      <c r="AS110" s="340"/>
-      <c r="AT110" s="340"/>
-      <c r="AU110" s="340"/>
+      <c r="K110" s="338"/>
+      <c r="L110" s="338"/>
+      <c r="M110" s="338"/>
+      <c r="N110" s="338"/>
+      <c r="O110" s="338"/>
+      <c r="P110" s="338"/>
+      <c r="Q110" s="338"/>
+      <c r="R110" s="337"/>
+      <c r="S110" s="337"/>
+      <c r="T110" s="337"/>
+      <c r="U110" s="337"/>
+      <c r="V110" s="337"/>
+      <c r="W110" s="338"/>
+      <c r="X110" s="338"/>
+      <c r="Y110" s="337"/>
+      <c r="Z110" s="337"/>
+      <c r="AA110" s="337"/>
+      <c r="AB110" s="337"/>
+      <c r="AC110" s="337"/>
+      <c r="AD110" s="337"/>
+      <c r="AE110" s="337"/>
+      <c r="AF110" s="337"/>
+      <c r="AG110" s="337"/>
+      <c r="AH110" s="337"/>
+      <c r="AI110" s="337"/>
+      <c r="AJ110" s="337"/>
+      <c r="AK110" s="337"/>
+      <c r="AL110" s="337"/>
+      <c r="AM110" s="337"/>
+      <c r="AN110" s="337"/>
+      <c r="AO110" s="337"/>
+      <c r="AP110" s="337"/>
+      <c r="AQ110" s="337"/>
+      <c r="AR110" s="337"/>
+      <c r="AS110" s="337"/>
+      <c r="AT110" s="337"/>
+      <c r="AU110" s="337"/>
       <c r="AV110" s="18"/>
       <c r="AW110" s="138"/>
-      <c r="AX110" s="353"/>
+      <c r="AX110" s="350"/>
     </row>
     <row r="111" s="1" customFormat="1" customHeight="1" spans="1:50">
       <c r="A111" s="16"/>
       <c r="B111" s="23"/>
       <c r="C111" s="24"/>
-      <c r="D111" s="340"/>
-      <c r="E111" s="340"/>
-      <c r="F111" s="340"/>
-      <c r="G111" s="341"/>
-      <c r="H111" s="341"/>
-      <c r="I111" s="341"/>
-      <c r="J111" s="341"/>
-      <c r="K111" s="341"/>
-      <c r="L111" s="341"/>
-      <c r="M111" s="341"/>
-      <c r="N111" s="341"/>
-      <c r="O111" s="341"/>
-      <c r="P111" s="341"/>
-      <c r="Q111" s="341"/>
-      <c r="R111" s="340"/>
-      <c r="S111" s="340"/>
-      <c r="T111" s="340"/>
-      <c r="U111" s="340"/>
-      <c r="V111" s="340"/>
-      <c r="W111" s="341"/>
-      <c r="X111" s="341"/>
-      <c r="Y111" s="340"/>
-      <c r="Z111" s="340"/>
-      <c r="AA111" s="340"/>
-      <c r="AB111" s="340"/>
-      <c r="AC111" s="340"/>
-      <c r="AD111" s="340"/>
-      <c r="AE111" s="340"/>
-      <c r="AF111" s="340"/>
-      <c r="AG111" s="340"/>
-      <c r="AH111" s="340"/>
-      <c r="AI111" s="340"/>
-      <c r="AJ111" s="340"/>
-      <c r="AK111" s="340"/>
-      <c r="AL111" s="340"/>
-      <c r="AM111" s="340"/>
-      <c r="AN111" s="340"/>
-      <c r="AO111" s="340"/>
-      <c r="AP111" s="340"/>
-      <c r="AQ111" s="340"/>
-      <c r="AR111" s="340"/>
-      <c r="AS111" s="340"/>
-      <c r="AT111" s="340"/>
-      <c r="AU111" s="340"/>
+      <c r="D111" s="337"/>
+      <c r="E111" s="337"/>
+      <c r="F111" s="337"/>
+      <c r="G111" s="338"/>
+      <c r="H111" s="338"/>
+      <c r="I111" s="338"/>
+      <c r="J111" s="338"/>
+      <c r="K111" s="338"/>
+      <c r="L111" s="338"/>
+      <c r="M111" s="338"/>
+      <c r="N111" s="338"/>
+      <c r="O111" s="338"/>
+      <c r="P111" s="338"/>
+      <c r="Q111" s="338"/>
+      <c r="R111" s="337"/>
+      <c r="S111" s="337"/>
+      <c r="T111" s="337"/>
+      <c r="U111" s="337"/>
+      <c r="V111" s="337"/>
+      <c r="W111" s="338"/>
+      <c r="X111" s="338"/>
+      <c r="Y111" s="337"/>
+      <c r="Z111" s="337"/>
+      <c r="AA111" s="337"/>
+      <c r="AB111" s="337"/>
+      <c r="AC111" s="337"/>
+      <c r="AD111" s="337"/>
+      <c r="AE111" s="337"/>
+      <c r="AF111" s="337"/>
+      <c r="AG111" s="337"/>
+      <c r="AH111" s="337"/>
+      <c r="AI111" s="337"/>
+      <c r="AJ111" s="337"/>
+      <c r="AK111" s="337"/>
+      <c r="AL111" s="337"/>
+      <c r="AM111" s="337"/>
+      <c r="AN111" s="337"/>
+      <c r="AO111" s="337"/>
+      <c r="AP111" s="337"/>
+      <c r="AQ111" s="337"/>
+      <c r="AR111" s="337"/>
+      <c r="AS111" s="337"/>
+      <c r="AT111" s="337"/>
+      <c r="AU111" s="337"/>
       <c r="AV111" s="18"/>
       <c r="AW111" s="138"/>
-      <c r="AX111" s="353"/>
+      <c r="AX111" s="350"/>
     </row>
     <row r="112" s="1" customFormat="1" customHeight="1" spans="1:50">
       <c r="A112" s="16"/>
       <c r="B112" s="23"/>
       <c r="C112" s="24"/>
-      <c r="D112" s="340"/>
-      <c r="E112" s="340"/>
-      <c r="F112" s="340"/>
-      <c r="G112" s="341"/>
-      <c r="H112" s="341"/>
-      <c r="I112" s="341"/>
-      <c r="J112" s="341"/>
-      <c r="K112" s="341"/>
-      <c r="L112" s="341"/>
-      <c r="M112" s="341"/>
-      <c r="N112" s="341"/>
-      <c r="O112" s="341"/>
-      <c r="P112" s="341"/>
-      <c r="Q112" s="341"/>
-      <c r="R112" s="340"/>
-      <c r="S112" s="340"/>
-      <c r="T112" s="340"/>
-      <c r="U112" s="340"/>
-      <c r="V112" s="340"/>
-      <c r="W112" s="341"/>
-      <c r="X112" s="341"/>
-      <c r="Y112" s="340"/>
-      <c r="Z112" s="340"/>
-      <c r="AA112" s="340"/>
-      <c r="AB112" s="340"/>
-      <c r="AC112" s="340"/>
-      <c r="AD112" s="340"/>
-      <c r="AE112" s="340"/>
-      <c r="AF112" s="340"/>
-      <c r="AG112" s="340"/>
-      <c r="AH112" s="340"/>
-      <c r="AI112" s="340"/>
-      <c r="AJ112" s="340"/>
-      <c r="AK112" s="340"/>
-      <c r="AL112" s="340"/>
-      <c r="AM112" s="340"/>
-      <c r="AN112" s="340"/>
-      <c r="AO112" s="340"/>
-      <c r="AP112" s="340"/>
-      <c r="AQ112" s="340"/>
-      <c r="AR112" s="340"/>
-      <c r="AS112" s="340"/>
-      <c r="AT112" s="340"/>
-      <c r="AU112" s="340"/>
+      <c r="D112" s="337"/>
+      <c r="E112" s="337"/>
+      <c r="F112" s="337"/>
+      <c r="G112" s="338"/>
+      <c r="H112" s="338"/>
+      <c r="I112" s="338"/>
+      <c r="J112" s="338"/>
+      <c r="K112" s="338"/>
+      <c r="L112" s="338"/>
+      <c r="M112" s="338"/>
+      <c r="N112" s="338"/>
+      <c r="O112" s="338"/>
+      <c r="P112" s="338"/>
+      <c r="Q112" s="338"/>
+      <c r="R112" s="337"/>
+      <c r="S112" s="337"/>
+      <c r="T112" s="337"/>
+      <c r="U112" s="337"/>
+      <c r="V112" s="337"/>
+      <c r="W112" s="338"/>
+      <c r="X112" s="338"/>
+      <c r="Y112" s="337"/>
+      <c r="Z112" s="337"/>
+      <c r="AA112" s="337"/>
+      <c r="AB112" s="337"/>
+      <c r="AC112" s="337"/>
+      <c r="AD112" s="337"/>
+      <c r="AE112" s="337"/>
+      <c r="AF112" s="337"/>
+      <c r="AG112" s="337"/>
+      <c r="AH112" s="337"/>
+      <c r="AI112" s="337"/>
+      <c r="AJ112" s="337"/>
+      <c r="AK112" s="337"/>
+      <c r="AL112" s="337"/>
+      <c r="AM112" s="337"/>
+      <c r="AN112" s="337"/>
+      <c r="AO112" s="337"/>
+      <c r="AP112" s="337"/>
+      <c r="AQ112" s="337"/>
+      <c r="AR112" s="337"/>
+      <c r="AS112" s="337"/>
+      <c r="AT112" s="337"/>
+      <c r="AU112" s="337"/>
       <c r="AV112" s="18"/>
       <c r="AW112" s="138"/>
-      <c r="AX112" s="353"/>
+      <c r="AX112" s="350"/>
     </row>
     <row r="113" s="1" customFormat="1" customHeight="1" spans="1:50">
       <c r="A113" s="16"/>
       <c r="B113" s="23"/>
       <c r="C113" s="24"/>
-      <c r="D113" s="340"/>
-      <c r="E113" s="340"/>
-      <c r="F113" s="340"/>
-      <c r="G113" s="341"/>
-      <c r="H113" s="341"/>
-      <c r="I113" s="341"/>
-      <c r="J113" s="341"/>
-      <c r="K113" s="341"/>
-      <c r="L113" s="341"/>
-      <c r="M113" s="341"/>
-      <c r="N113" s="341"/>
-      <c r="O113" s="341"/>
-      <c r="P113" s="341"/>
-      <c r="Q113" s="341"/>
-      <c r="R113" s="340"/>
-      <c r="S113" s="340"/>
-      <c r="T113" s="340"/>
-      <c r="U113" s="340"/>
-      <c r="V113" s="340"/>
-      <c r="W113" s="341"/>
-      <c r="X113" s="341"/>
-      <c r="Y113" s="340"/>
-      <c r="Z113" s="340"/>
-      <c r="AA113" s="340"/>
-      <c r="AB113" s="340"/>
-      <c r="AC113" s="340"/>
-      <c r="AD113" s="340"/>
-      <c r="AE113" s="340"/>
-      <c r="AF113" s="340"/>
-      <c r="AG113" s="340"/>
-      <c r="AH113" s="340"/>
-      <c r="AI113" s="340"/>
-      <c r="AJ113" s="340"/>
-      <c r="AK113" s="340"/>
-      <c r="AL113" s="340"/>
-      <c r="AM113" s="340"/>
-      <c r="AN113" s="340"/>
-      <c r="AO113" s="340"/>
-      <c r="AP113" s="340"/>
-      <c r="AQ113" s="340"/>
-      <c r="AR113" s="340"/>
-      <c r="AS113" s="340"/>
-      <c r="AT113" s="340"/>
-      <c r="AU113" s="340"/>
+      <c r="D113" s="337"/>
+      <c r="E113" s="337"/>
+      <c r="F113" s="337"/>
+      <c r="G113" s="338"/>
+      <c r="H113" s="338"/>
+      <c r="I113" s="338"/>
+      <c r="J113" s="338"/>
+      <c r="K113" s="338"/>
+      <c r="L113" s="338"/>
+      <c r="M113" s="338"/>
+      <c r="N113" s="338"/>
+      <c r="O113" s="338"/>
+      <c r="P113" s="338"/>
+      <c r="Q113" s="338"/>
+      <c r="R113" s="337"/>
+      <c r="S113" s="337"/>
+      <c r="T113" s="337"/>
+      <c r="U113" s="337"/>
+      <c r="V113" s="337"/>
+      <c r="W113" s="338"/>
+      <c r="X113" s="338"/>
+      <c r="Y113" s="337"/>
+      <c r="Z113" s="337"/>
+      <c r="AA113" s="337"/>
+      <c r="AB113" s="337"/>
+      <c r="AC113" s="337"/>
+      <c r="AD113" s="337"/>
+      <c r="AE113" s="337"/>
+      <c r="AF113" s="337"/>
+      <c r="AG113" s="337"/>
+      <c r="AH113" s="337"/>
+      <c r="AI113" s="337"/>
+      <c r="AJ113" s="337"/>
+      <c r="AK113" s="337"/>
+      <c r="AL113" s="337"/>
+      <c r="AM113" s="337"/>
+      <c r="AN113" s="337"/>
+      <c r="AO113" s="337"/>
+      <c r="AP113" s="337"/>
+      <c r="AQ113" s="337"/>
+      <c r="AR113" s="337"/>
+      <c r="AS113" s="337"/>
+      <c r="AT113" s="337"/>
+      <c r="AU113" s="337"/>
       <c r="AV113" s="18"/>
       <c r="AW113" s="138"/>
-      <c r="AX113" s="353"/>
+      <c r="AX113" s="350"/>
     </row>
     <row r="114" s="1" customFormat="1" customHeight="1" spans="1:50">
       <c r="A114" s="16"/>
       <c r="B114" s="23"/>
       <c r="C114" s="24"/>
-      <c r="D114" s="340"/>
-      <c r="E114" s="340"/>
-      <c r="F114" s="340"/>
-      <c r="G114" s="341"/>
-      <c r="H114" s="341"/>
-      <c r="I114" s="341"/>
-      <c r="J114" s="341"/>
-      <c r="K114" s="341"/>
-      <c r="L114" s="341"/>
-      <c r="M114" s="341"/>
-      <c r="N114" s="341"/>
-      <c r="O114" s="341"/>
-      <c r="P114" s="341"/>
-      <c r="Q114" s="341"/>
-      <c r="R114" s="340"/>
-      <c r="S114" s="340"/>
-      <c r="T114" s="340"/>
-      <c r="U114" s="340"/>
-      <c r="V114" s="340"/>
-      <c r="W114" s="341"/>
-      <c r="X114" s="341"/>
-      <c r="Y114" s="340"/>
-      <c r="Z114" s="340"/>
-      <c r="AA114" s="340"/>
-      <c r="AB114" s="340"/>
-      <c r="AC114" s="340"/>
-      <c r="AD114" s="340"/>
-      <c r="AE114" s="340"/>
-      <c r="AF114" s="340"/>
-      <c r="AG114" s="340"/>
-      <c r="AH114" s="340"/>
-      <c r="AI114" s="340"/>
-      <c r="AJ114" s="340"/>
-      <c r="AK114" s="340"/>
-      <c r="AL114" s="340"/>
-      <c r="AM114" s="340"/>
-      <c r="AN114" s="340"/>
-      <c r="AO114" s="340"/>
-      <c r="AP114" s="340"/>
-      <c r="AQ114" s="340"/>
-      <c r="AR114" s="340"/>
-      <c r="AS114" s="340"/>
-      <c r="AT114" s="340"/>
-      <c r="AU114" s="340"/>
+      <c r="D114" s="337"/>
+      <c r="E114" s="337"/>
+      <c r="F114" s="337"/>
+      <c r="G114" s="338"/>
+      <c r="H114" s="338"/>
+      <c r="I114" s="338"/>
+      <c r="J114" s="338"/>
+      <c r="K114" s="338"/>
+      <c r="L114" s="338"/>
+      <c r="M114" s="338"/>
+      <c r="N114" s="338"/>
+      <c r="O114" s="338"/>
+      <c r="P114" s="338"/>
+      <c r="Q114" s="338"/>
+      <c r="R114" s="337"/>
+      <c r="S114" s="337"/>
+      <c r="T114" s="337"/>
+      <c r="U114" s="337"/>
+      <c r="V114" s="337"/>
+      <c r="W114" s="338"/>
+      <c r="X114" s="338"/>
+      <c r="Y114" s="337"/>
+      <c r="Z114" s="337"/>
+      <c r="AA114" s="337"/>
+      <c r="AB114" s="337"/>
+      <c r="AC114" s="337"/>
+      <c r="AD114" s="337"/>
+      <c r="AE114" s="337"/>
+      <c r="AF114" s="337"/>
+      <c r="AG114" s="337"/>
+      <c r="AH114" s="337"/>
+      <c r="AI114" s="337"/>
+      <c r="AJ114" s="337"/>
+      <c r="AK114" s="337"/>
+      <c r="AL114" s="337"/>
+      <c r="AM114" s="337"/>
+      <c r="AN114" s="337"/>
+      <c r="AO114" s="337"/>
+      <c r="AP114" s="337"/>
+      <c r="AQ114" s="337"/>
+      <c r="AR114" s="337"/>
+      <c r="AS114" s="337"/>
+      <c r="AT114" s="337"/>
+      <c r="AU114" s="337"/>
       <c r="AV114" s="18"/>
       <c r="AW114" s="138"/>
-      <c r="AX114" s="353"/>
+      <c r="AX114" s="350"/>
     </row>
     <row r="115" s="1" customFormat="1" customHeight="1" spans="1:50">
       <c r="A115" s="16"/>
       <c r="B115" s="23"/>
       <c r="C115" s="24"/>
-      <c r="D115" s="340"/>
-      <c r="E115" s="340"/>
-      <c r="F115" s="340"/>
-      <c r="G115" s="341"/>
-      <c r="H115" s="341"/>
-      <c r="I115" s="341"/>
-      <c r="J115" s="341"/>
-      <c r="K115" s="341"/>
-      <c r="L115" s="341"/>
-      <c r="M115" s="341"/>
-      <c r="N115" s="341"/>
-      <c r="O115" s="341"/>
-      <c r="P115" s="341"/>
-      <c r="Q115" s="341"/>
-      <c r="R115" s="340"/>
-      <c r="S115" s="340"/>
-      <c r="T115" s="340"/>
-      <c r="U115" s="340"/>
-      <c r="V115" s="340"/>
-      <c r="W115" s="341"/>
-      <c r="X115" s="341"/>
-      <c r="Y115" s="340"/>
-      <c r="Z115" s="340"/>
-      <c r="AA115" s="340"/>
-      <c r="AB115" s="340"/>
-      <c r="AC115" s="340"/>
-      <c r="AD115" s="340"/>
-      <c r="AE115" s="340"/>
-      <c r="AF115" s="340"/>
-      <c r="AG115" s="340"/>
-      <c r="AH115" s="340"/>
-      <c r="AI115" s="340"/>
-      <c r="AJ115" s="340"/>
-      <c r="AK115" s="340"/>
-      <c r="AL115" s="340"/>
-      <c r="AM115" s="340"/>
-      <c r="AN115" s="340"/>
-      <c r="AO115" s="340"/>
-      <c r="AP115" s="340"/>
-      <c r="AQ115" s="340"/>
-      <c r="AR115" s="340"/>
-      <c r="AS115" s="340"/>
-      <c r="AT115" s="340"/>
-      <c r="AU115" s="340"/>
+      <c r="D115" s="337"/>
+      <c r="E115" s="337"/>
+      <c r="F115" s="337"/>
+      <c r="G115" s="338"/>
+      <c r="H115" s="338"/>
+      <c r="I115" s="338"/>
+      <c r="J115" s="338"/>
+      <c r="K115" s="338"/>
+      <c r="L115" s="338"/>
+      <c r="M115" s="338"/>
+      <c r="N115" s="338"/>
+      <c r="O115" s="338"/>
+      <c r="P115" s="338"/>
+      <c r="Q115" s="338"/>
+      <c r="R115" s="337"/>
+      <c r="S115" s="337"/>
+      <c r="T115" s="337"/>
+      <c r="U115" s="337"/>
+      <c r="V115" s="337"/>
+      <c r="W115" s="338"/>
+      <c r="X115" s="338"/>
+      <c r="Y115" s="337"/>
+      <c r="Z115" s="337"/>
+      <c r="AA115" s="337"/>
+      <c r="AB115" s="337"/>
+      <c r="AC115" s="337"/>
+      <c r="AD115" s="337"/>
+      <c r="AE115" s="337"/>
+      <c r="AF115" s="337"/>
+      <c r="AG115" s="337"/>
+      <c r="AH115" s="337"/>
+      <c r="AI115" s="337"/>
+      <c r="AJ115" s="337"/>
+      <c r="AK115" s="337"/>
+      <c r="AL115" s="337"/>
+      <c r="AM115" s="337"/>
+      <c r="AN115" s="337"/>
+      <c r="AO115" s="337"/>
+      <c r="AP115" s="337"/>
+      <c r="AQ115" s="337"/>
+      <c r="AR115" s="337"/>
+      <c r="AS115" s="337"/>
+      <c r="AT115" s="337"/>
+      <c r="AU115" s="337"/>
       <c r="AV115" s="18"/>
       <c r="AW115" s="138"/>
-      <c r="AX115" s="353"/>
+      <c r="AX115" s="350"/>
     </row>
     <row r="116" s="1" customFormat="1" customHeight="1" spans="1:50">
       <c r="A116" s="16"/>
       <c r="B116" s="23"/>
       <c r="C116" s="24"/>
-      <c r="D116" s="340"/>
-      <c r="E116" s="340"/>
-      <c r="F116" s="340"/>
-      <c r="G116" s="341"/>
-      <c r="H116" s="341"/>
-      <c r="I116" s="341"/>
-      <c r="J116" s="341"/>
-      <c r="K116" s="341"/>
-      <c r="L116" s="341"/>
-      <c r="M116" s="341"/>
-      <c r="N116" s="341"/>
-      <c r="O116" s="341"/>
-      <c r="P116" s="341"/>
-      <c r="Q116" s="341"/>
-      <c r="R116" s="340"/>
-      <c r="S116" s="340"/>
-      <c r="T116" s="340"/>
-      <c r="U116" s="340"/>
-      <c r="V116" s="340"/>
-      <c r="W116" s="341"/>
-      <c r="X116" s="341"/>
-      <c r="Y116" s="340"/>
-      <c r="Z116" s="340"/>
-      <c r="AA116" s="340"/>
-      <c r="AB116" s="340"/>
-      <c r="AC116" s="340"/>
-      <c r="AD116" s="340"/>
-      <c r="AE116" s="340"/>
-      <c r="AF116" s="340"/>
-      <c r="AG116" s="340"/>
-      <c r="AH116" s="340"/>
-      <c r="AI116" s="340"/>
-      <c r="AJ116" s="340"/>
-      <c r="AK116" s="340"/>
-      <c r="AL116" s="340"/>
-      <c r="AM116" s="340"/>
-      <c r="AN116" s="340"/>
-      <c r="AO116" s="340"/>
-      <c r="AP116" s="340"/>
-      <c r="AQ116" s="340"/>
-      <c r="AR116" s="340"/>
-      <c r="AS116" s="340"/>
-      <c r="AT116" s="340"/>
-      <c r="AU116" s="340"/>
+      <c r="D116" s="337"/>
+      <c r="E116" s="337"/>
+      <c r="F116" s="337"/>
+      <c r="G116" s="338"/>
+      <c r="H116" s="338"/>
+      <c r="I116" s="338"/>
+      <c r="J116" s="338"/>
+      <c r="K116" s="338"/>
+      <c r="L116" s="338"/>
+      <c r="M116" s="338"/>
+      <c r="N116" s="338"/>
+      <c r="O116" s="338"/>
+      <c r="P116" s="338"/>
+      <c r="Q116" s="338"/>
+      <c r="R116" s="337"/>
+      <c r="S116" s="337"/>
+      <c r="T116" s="337"/>
+      <c r="U116" s="337"/>
+      <c r="V116" s="337"/>
+      <c r="W116" s="338"/>
+      <c r="X116" s="338"/>
+      <c r="Y116" s="337"/>
+      <c r="Z116" s="337"/>
+      <c r="AA116" s="337"/>
+      <c r="AB116" s="337"/>
+      <c r="AC116" s="337"/>
+      <c r="AD116" s="337"/>
+      <c r="AE116" s="337"/>
+      <c r="AF116" s="337"/>
+      <c r="AG116" s="337"/>
+      <c r="AH116" s="337"/>
+      <c r="AI116" s="337"/>
+      <c r="AJ116" s="337"/>
+      <c r="AK116" s="337"/>
+      <c r="AL116" s="337"/>
+      <c r="AM116" s="337"/>
+      <c r="AN116" s="337"/>
+      <c r="AO116" s="337"/>
+      <c r="AP116" s="337"/>
+      <c r="AQ116" s="337"/>
+      <c r="AR116" s="337"/>
+      <c r="AS116" s="337"/>
+      <c r="AT116" s="337"/>
+      <c r="AU116" s="337"/>
       <c r="AV116" s="18"/>
       <c r="AW116" s="138"/>
-      <c r="AX116" s="353"/>
+      <c r="AX116" s="350"/>
     </row>
     <row r="117" s="1" customFormat="1" customHeight="1" spans="1:50">
       <c r="A117" s="16"/>
       <c r="B117" s="23"/>
       <c r="C117" s="24"/>
-      <c r="D117" s="340"/>
-      <c r="E117" s="340"/>
-      <c r="F117" s="340"/>
-      <c r="G117" s="341"/>
-      <c r="H117" s="341"/>
-      <c r="I117" s="341"/>
-      <c r="J117" s="341"/>
-      <c r="K117" s="341"/>
-      <c r="L117" s="341"/>
-      <c r="M117" s="341"/>
-      <c r="N117" s="341"/>
-      <c r="O117" s="341"/>
-      <c r="P117" s="341"/>
-      <c r="Q117" s="341"/>
-      <c r="R117" s="340"/>
-      <c r="S117" s="340"/>
-      <c r="T117" s="340"/>
-      <c r="U117" s="340"/>
-      <c r="V117" s="340"/>
-      <c r="W117" s="341"/>
-      <c r="X117" s="341"/>
-      <c r="Y117" s="340"/>
-      <c r="Z117" s="340"/>
-      <c r="AA117" s="340"/>
-      <c r="AB117" s="340"/>
-      <c r="AC117" s="340"/>
-      <c r="AD117" s="340"/>
-      <c r="AE117" s="340"/>
-      <c r="AF117" s="340"/>
-      <c r="AG117" s="340"/>
-      <c r="AH117" s="340"/>
-      <c r="AI117" s="340"/>
-      <c r="AJ117" s="340"/>
-      <c r="AK117" s="340"/>
-      <c r="AL117" s="340"/>
-      <c r="AM117" s="340"/>
-      <c r="AN117" s="340"/>
-      <c r="AO117" s="340"/>
-      <c r="AP117" s="340"/>
-      <c r="AQ117" s="340"/>
-      <c r="AR117" s="340"/>
-      <c r="AS117" s="340"/>
-      <c r="AT117" s="340"/>
-      <c r="AU117" s="340"/>
+      <c r="D117" s="337"/>
+      <c r="E117" s="337"/>
+      <c r="F117" s="337"/>
+      <c r="G117" s="338"/>
+      <c r="H117" s="338"/>
+      <c r="I117" s="338"/>
+      <c r="J117" s="338"/>
+      <c r="K117" s="338"/>
+      <c r="L117" s="338"/>
+      <c r="M117" s="338"/>
+      <c r="N117" s="338"/>
+      <c r="O117" s="338"/>
+      <c r="P117" s="338"/>
+      <c r="Q117" s="338"/>
+      <c r="R117" s="337"/>
+      <c r="S117" s="337"/>
+      <c r="T117" s="337"/>
+      <c r="U117" s="337"/>
+      <c r="V117" s="337"/>
+      <c r="W117" s="338"/>
+      <c r="X117" s="338"/>
+      <c r="Y117" s="337"/>
+      <c r="Z117" s="337"/>
+      <c r="AA117" s="337"/>
+      <c r="AB117" s="337"/>
+      <c r="AC117" s="337"/>
+      <c r="AD117" s="337"/>
+      <c r="AE117" s="337"/>
+      <c r="AF117" s="337"/>
+      <c r="AG117" s="337"/>
+      <c r="AH117" s="337"/>
+      <c r="AI117" s="337"/>
+      <c r="AJ117" s="337"/>
+      <c r="AK117" s="337"/>
+      <c r="AL117" s="337"/>
+      <c r="AM117" s="337"/>
+      <c r="AN117" s="337"/>
+      <c r="AO117" s="337"/>
+      <c r="AP117" s="337"/>
+      <c r="AQ117" s="337"/>
+      <c r="AR117" s="337"/>
+      <c r="AS117" s="337"/>
+      <c r="AT117" s="337"/>
+      <c r="AU117" s="337"/>
       <c r="AV117" s="18"/>
       <c r="AW117" s="138"/>
-      <c r="AX117" s="353"/>
+      <c r="AX117" s="350"/>
     </row>
     <row r="118" s="1" customFormat="1" customHeight="1" spans="1:50">
       <c r="A118" s="16"/>
       <c r="B118" s="23"/>
       <c r="C118" s="24"/>
-      <c r="D118" s="340"/>
-      <c r="E118" s="340"/>
-      <c r="F118" s="340"/>
-      <c r="G118" s="341"/>
-      <c r="H118" s="341"/>
-      <c r="I118" s="341"/>
-      <c r="J118" s="341"/>
-      <c r="K118" s="341"/>
-      <c r="L118" s="341"/>
-      <c r="M118" s="341"/>
-      <c r="N118" s="341"/>
-      <c r="O118" s="341"/>
-      <c r="P118" s="341"/>
-      <c r="Q118" s="341"/>
-      <c r="R118" s="340"/>
-      <c r="S118" s="340"/>
-      <c r="T118" s="340"/>
-      <c r="U118" s="340"/>
-      <c r="V118" s="340"/>
-      <c r="W118" s="341"/>
-      <c r="X118" s="341"/>
-      <c r="Y118" s="340"/>
-      <c r="Z118" s="340"/>
-      <c r="AA118" s="340"/>
-      <c r="AB118" s="340"/>
-      <c r="AC118" s="340"/>
-      <c r="AD118" s="340"/>
-      <c r="AE118" s="340"/>
-      <c r="AF118" s="340"/>
-      <c r="AG118" s="340"/>
-      <c r="AH118" s="340"/>
-      <c r="AI118" s="340"/>
-      <c r="AJ118" s="340"/>
-      <c r="AK118" s="340"/>
-      <c r="AL118" s="340"/>
-      <c r="AM118" s="340"/>
-      <c r="AN118" s="340"/>
-      <c r="AO118" s="340"/>
-      <c r="AP118" s="340"/>
-      <c r="AQ118" s="340"/>
-      <c r="AR118" s="340"/>
-      <c r="AS118" s="340"/>
-      <c r="AT118" s="340"/>
-      <c r="AU118" s="340"/>
+      <c r="D118" s="337"/>
+      <c r="E118" s="337"/>
+      <c r="F118" s="337"/>
+      <c r="G118" s="338"/>
+      <c r="H118" s="338"/>
+      <c r="I118" s="338"/>
+      <c r="J118" s="338"/>
+      <c r="K118" s="338"/>
+      <c r="L118" s="338"/>
+      <c r="M118" s="338"/>
+      <c r="N118" s="338"/>
+      <c r="O118" s="338"/>
+      <c r="P118" s="338"/>
+      <c r="Q118" s="338"/>
+      <c r="R118" s="337"/>
+      <c r="S118" s="337"/>
+      <c r="T118" s="337"/>
+      <c r="U118" s="337"/>
+      <c r="V118" s="337"/>
+      <c r="W118" s="338"/>
+      <c r="X118" s="338"/>
+      <c r="Y118" s="337"/>
+      <c r="Z118" s="337"/>
+      <c r="AA118" s="337"/>
+      <c r="AB118" s="337"/>
+      <c r="AC118" s="337"/>
+      <c r="AD118" s="337"/>
+      <c r="AE118" s="337"/>
+      <c r="AF118" s="337"/>
+      <c r="AG118" s="337"/>
+      <c r="AH118" s="337"/>
+      <c r="AI118" s="337"/>
+      <c r="AJ118" s="337"/>
+      <c r="AK118" s="337"/>
+      <c r="AL118" s="337"/>
+      <c r="AM118" s="337"/>
+      <c r="AN118" s="337"/>
+      <c r="AO118" s="337"/>
+      <c r="AP118" s="337"/>
+      <c r="AQ118" s="337"/>
+      <c r="AR118" s="337"/>
+      <c r="AS118" s="337"/>
+      <c r="AT118" s="337"/>
+      <c r="AU118" s="337"/>
       <c r="AV118" s="18"/>
       <c r="AW118" s="138"/>
-      <c r="AX118" s="353"/>
+      <c r="AX118" s="350"/>
     </row>
     <row r="119" s="1" customFormat="1" customHeight="1" spans="1:50">
       <c r="A119" s="16"/>
       <c r="B119" s="23"/>
       <c r="C119" s="24"/>
-      <c r="D119" s="340"/>
-      <c r="E119" s="340"/>
-      <c r="F119" s="340"/>
-      <c r="G119" s="341"/>
-      <c r="H119" s="341"/>
-      <c r="I119" s="341"/>
-      <c r="J119" s="341"/>
-      <c r="K119" s="341"/>
-      <c r="L119" s="341"/>
-      <c r="M119" s="341"/>
-      <c r="N119" s="341"/>
-      <c r="O119" s="341"/>
-      <c r="P119" s="341"/>
-      <c r="Q119" s="341"/>
-      <c r="R119" s="340"/>
-      <c r="S119" s="340"/>
-      <c r="T119" s="340"/>
-      <c r="U119" s="340"/>
-      <c r="V119" s="340"/>
-      <c r="W119" s="341"/>
-      <c r="X119" s="341"/>
-      <c r="Y119" s="340"/>
-      <c r="Z119" s="340"/>
-      <c r="AA119" s="340"/>
-      <c r="AB119" s="340"/>
-      <c r="AC119" s="340"/>
-      <c r="AD119" s="340"/>
-      <c r="AE119" s="340"/>
-      <c r="AF119" s="340"/>
-      <c r="AG119" s="340"/>
-      <c r="AH119" s="340"/>
-      <c r="AI119" s="340"/>
-      <c r="AJ119" s="340"/>
-      <c r="AK119" s="340"/>
-      <c r="AL119" s="340"/>
-      <c r="AM119" s="340"/>
-      <c r="AN119" s="340"/>
-      <c r="AO119" s="340"/>
-      <c r="AP119" s="340"/>
-      <c r="AQ119" s="340"/>
-      <c r="AR119" s="340"/>
-      <c r="AS119" s="340"/>
-      <c r="AT119" s="340"/>
-      <c r="AU119" s="340"/>
+      <c r="D119" s="337"/>
+      <c r="E119" s="337"/>
+      <c r="F119" s="337"/>
+      <c r="G119" s="338"/>
+      <c r="H119" s="338"/>
+      <c r="I119" s="338"/>
+      <c r="J119" s="338"/>
+      <c r="K119" s="338"/>
+      <c r="L119" s="338"/>
+      <c r="M119" s="338"/>
+      <c r="N119" s="338"/>
+      <c r="O119" s="338"/>
+      <c r="P119" s="338"/>
+      <c r="Q119" s="338"/>
+      <c r="R119" s="337"/>
+      <c r="S119" s="337"/>
+      <c r="T119" s="337"/>
+      <c r="U119" s="337"/>
+      <c r="V119" s="337"/>
+      <c r="W119" s="338"/>
+      <c r="X119" s="338"/>
+      <c r="Y119" s="337"/>
+      <c r="Z119" s="337"/>
+      <c r="AA119" s="337"/>
+      <c r="AB119" s="337"/>
+      <c r="AC119" s="337"/>
+      <c r="AD119" s="337"/>
+      <c r="AE119" s="337"/>
+      <c r="AF119" s="337"/>
+      <c r="AG119" s="337"/>
+      <c r="AH119" s="337"/>
+      <c r="AI119" s="337"/>
+      <c r="AJ119" s="337"/>
+      <c r="AK119" s="337"/>
+      <c r="AL119" s="337"/>
+      <c r="AM119" s="337"/>
+      <c r="AN119" s="337"/>
+      <c r="AO119" s="337"/>
+      <c r="AP119" s="337"/>
+      <c r="AQ119" s="337"/>
+      <c r="AR119" s="337"/>
+      <c r="AS119" s="337"/>
+      <c r="AT119" s="337"/>
+      <c r="AU119" s="337"/>
       <c r="AV119" s="18"/>
       <c r="AW119" s="138"/>
-      <c r="AX119" s="353"/>
+      <c r="AX119" s="350"/>
     </row>
     <row r="120" s="1" customFormat="1" customHeight="1" spans="1:49">
       <c r="A120" s="177"/>
-      <c r="B120" s="346"/>
+      <c r="B120" s="343"/>
       <c r="C120" s="178"/>
       <c r="D120" s="178"/>
       <c r="E120" s="178"/>
@@ -21685,9 +21676,9 @@
       <c r="AT120" s="178"/>
       <c r="AU120" s="178"/>
       <c r="AV120" s="178"/>
-      <c r="AW120" s="243"/>
+      <c r="AW120" s="240"/>
     </row>
-    <row r="121" s="244" customFormat="1" ht="21" customHeight="1" spans="1:49">
+    <row r="121" s="241" customFormat="1" ht="21" customHeight="1" spans="1:49">
       <c r="A121" s="8" t="s">
         <v>0</v>
       </c>
@@ -21756,7 +21747,7 @@
       <c r="AV121" s="122"/>
       <c r="AW121" s="134"/>
     </row>
-    <row r="122" s="244" customFormat="1" ht="21" customHeight="1" spans="1:49">
+    <row r="122" s="241" customFormat="1" ht="21" customHeight="1" spans="1:49">
       <c r="A122" s="10"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -22843,7 +22834,7 @@
     </row>
     <row r="143" s="1" customFormat="1" customHeight="1" spans="1:49">
       <c r="A143" s="16"/>
-      <c r="B143" s="355" t="s">
+      <c r="B143" s="352" t="s">
         <v>42</v>
       </c>
       <c r="C143" s="24"/>
@@ -22897,52 +22888,52 @@
     <row r="144" s="1" customFormat="1" customHeight="1" spans="1:49">
       <c r="A144" s="16"/>
       <c r="B144" s="23"/>
-      <c r="C144" s="342"/>
-      <c r="D144" s="342"/>
-      <c r="E144" s="345"/>
-      <c r="F144" s="345"/>
-      <c r="G144" s="345"/>
-      <c r="H144" s="345"/>
-      <c r="I144" s="345"/>
-      <c r="J144" s="342"/>
-      <c r="K144" s="342"/>
-      <c r="L144" s="342"/>
-      <c r="M144" s="342"/>
-      <c r="N144" s="342"/>
-      <c r="O144" s="342"/>
-      <c r="P144" s="342"/>
-      <c r="Q144" s="342"/>
-      <c r="R144" s="342"/>
-      <c r="S144" s="342"/>
-      <c r="T144" s="342"/>
-      <c r="U144" s="342"/>
-      <c r="V144" s="342"/>
-      <c r="W144" s="342"/>
-      <c r="X144" s="342"/>
-      <c r="Y144" s="342"/>
-      <c r="Z144" s="342"/>
-      <c r="AA144" s="342"/>
-      <c r="AB144" s="342"/>
-      <c r="AC144" s="342"/>
-      <c r="AD144" s="342"/>
-      <c r="AE144" s="342"/>
-      <c r="AF144" s="342"/>
-      <c r="AG144" s="342"/>
-      <c r="AH144" s="342"/>
-      <c r="AI144" s="342"/>
-      <c r="AJ144" s="342"/>
-      <c r="AK144" s="342"/>
-      <c r="AL144" s="342"/>
-      <c r="AM144" s="342"/>
-      <c r="AN144" s="342"/>
-      <c r="AO144" s="342"/>
-      <c r="AP144" s="342"/>
-      <c r="AQ144" s="342"/>
-      <c r="AR144" s="342"/>
-      <c r="AS144" s="342"/>
-      <c r="AT144" s="342"/>
-      <c r="AU144" s="342"/>
-      <c r="AV144" s="342"/>
+      <c r="C144" s="339"/>
+      <c r="D144" s="339"/>
+      <c r="E144" s="342"/>
+      <c r="F144" s="342"/>
+      <c r="G144" s="342"/>
+      <c r="H144" s="342"/>
+      <c r="I144" s="342"/>
+      <c r="J144" s="339"/>
+      <c r="K144" s="339"/>
+      <c r="L144" s="339"/>
+      <c r="M144" s="339"/>
+      <c r="N144" s="339"/>
+      <c r="O144" s="339"/>
+      <c r="P144" s="339"/>
+      <c r="Q144" s="339"/>
+      <c r="R144" s="339"/>
+      <c r="S144" s="339"/>
+      <c r="T144" s="339"/>
+      <c r="U144" s="339"/>
+      <c r="V144" s="339"/>
+      <c r="W144" s="339"/>
+      <c r="X144" s="339"/>
+      <c r="Y144" s="339"/>
+      <c r="Z144" s="339"/>
+      <c r="AA144" s="339"/>
+      <c r="AB144" s="339"/>
+      <c r="AC144" s="339"/>
+      <c r="AD144" s="339"/>
+      <c r="AE144" s="339"/>
+      <c r="AF144" s="339"/>
+      <c r="AG144" s="339"/>
+      <c r="AH144" s="339"/>
+      <c r="AI144" s="339"/>
+      <c r="AJ144" s="339"/>
+      <c r="AK144" s="339"/>
+      <c r="AL144" s="339"/>
+      <c r="AM144" s="339"/>
+      <c r="AN144" s="339"/>
+      <c r="AO144" s="339"/>
+      <c r="AP144" s="339"/>
+      <c r="AQ144" s="339"/>
+      <c r="AR144" s="339"/>
+      <c r="AS144" s="339"/>
+      <c r="AT144" s="339"/>
+      <c r="AU144" s="339"/>
+      <c r="AV144" s="339"/>
       <c r="AW144" s="138"/>
     </row>
     <row r="145" s="1" customFormat="1" customHeight="1" spans="1:49">
@@ -23061,552 +23052,552 @@
       <c r="A147" s="16"/>
       <c r="B147" s="17"/>
       <c r="C147" s="18"/>
-      <c r="D147" s="356">
+      <c r="D147" s="353">
         <v>1</v>
       </c>
-      <c r="E147" s="357" t="s">
+      <c r="E147" s="354" t="s">
         <v>48</v>
       </c>
-      <c r="F147" s="358"/>
-      <c r="G147" s="359" t="s">
+      <c r="F147" s="355"/>
+      <c r="G147" s="356" t="s">
         <v>49</v>
       </c>
-      <c r="H147" s="360"/>
-      <c r="I147" s="360"/>
-      <c r="J147" s="360"/>
-      <c r="K147" s="374"/>
-      <c r="L147" s="375" t="s">
+      <c r="H147" s="357"/>
+      <c r="I147" s="357"/>
+      <c r="J147" s="357"/>
+      <c r="K147" s="371"/>
+      <c r="L147" s="372" t="s">
         <v>50</v>
       </c>
-      <c r="M147" s="360"/>
-      <c r="N147" s="360"/>
-      <c r="O147" s="360"/>
-      <c r="P147" s="360"/>
-      <c r="Q147" s="360"/>
-      <c r="R147" s="360"/>
-      <c r="S147" s="360"/>
-      <c r="T147" s="360"/>
-      <c r="U147" s="380"/>
-      <c r="V147" s="357" t="s">
+      <c r="M147" s="357"/>
+      <c r="N147" s="357"/>
+      <c r="O147" s="357"/>
+      <c r="P147" s="357"/>
+      <c r="Q147" s="357"/>
+      <c r="R147" s="357"/>
+      <c r="S147" s="357"/>
+      <c r="T147" s="357"/>
+      <c r="U147" s="377"/>
+      <c r="V147" s="354" t="s">
         <v>51</v>
       </c>
-      <c r="W147" s="358"/>
-      <c r="X147" s="359"/>
-      <c r="Y147" s="360"/>
-      <c r="Z147" s="360"/>
-      <c r="AA147" s="360"/>
-      <c r="AB147" s="360"/>
-      <c r="AC147" s="360"/>
-      <c r="AD147" s="360"/>
-      <c r="AE147" s="360"/>
-      <c r="AF147" s="360"/>
-      <c r="AG147" s="360"/>
-      <c r="AH147" s="360"/>
-      <c r="AI147" s="360"/>
-      <c r="AJ147" s="360"/>
-      <c r="AK147" s="360"/>
-      <c r="AL147" s="360"/>
-      <c r="AM147" s="360"/>
-      <c r="AN147" s="360"/>
-      <c r="AO147" s="360"/>
-      <c r="AP147" s="360"/>
-      <c r="AQ147" s="360"/>
-      <c r="AR147" s="360"/>
-      <c r="AS147" s="360"/>
-      <c r="AT147" s="360"/>
-      <c r="AU147" s="360"/>
-      <c r="AV147" s="380"/>
+      <c r="W147" s="355"/>
+      <c r="X147" s="356"/>
+      <c r="Y147" s="357"/>
+      <c r="Z147" s="357"/>
+      <c r="AA147" s="357"/>
+      <c r="AB147" s="357"/>
+      <c r="AC147" s="357"/>
+      <c r="AD147" s="357"/>
+      <c r="AE147" s="357"/>
+      <c r="AF147" s="357"/>
+      <c r="AG147" s="357"/>
+      <c r="AH147" s="357"/>
+      <c r="AI147" s="357"/>
+      <c r="AJ147" s="357"/>
+      <c r="AK147" s="357"/>
+      <c r="AL147" s="357"/>
+      <c r="AM147" s="357"/>
+      <c r="AN147" s="357"/>
+      <c r="AO147" s="357"/>
+      <c r="AP147" s="357"/>
+      <c r="AQ147" s="357"/>
+      <c r="AR147" s="357"/>
+      <c r="AS147" s="357"/>
+      <c r="AT147" s="357"/>
+      <c r="AU147" s="357"/>
+      <c r="AV147" s="377"/>
       <c r="AW147" s="138"/>
     </row>
     <row r="148" s="1" customFormat="1" customHeight="1" spans="1:49">
       <c r="A148" s="16"/>
       <c r="B148" s="17"/>
       <c r="C148" s="18"/>
-      <c r="D148" s="361">
+      <c r="D148" s="358">
         <v>2</v>
       </c>
-      <c r="E148" s="362" t="s">
+      <c r="E148" s="359" t="s">
         <v>48</v>
       </c>
-      <c r="F148" s="363"/>
-      <c r="G148" s="364" t="s">
+      <c r="F148" s="360"/>
+      <c r="G148" s="361" t="s">
         <v>52</v>
       </c>
-      <c r="H148" s="365"/>
-      <c r="I148" s="365"/>
-      <c r="J148" s="365"/>
-      <c r="K148" s="376"/>
-      <c r="L148" s="377" t="s">
+      <c r="H148" s="362"/>
+      <c r="I148" s="362"/>
+      <c r="J148" s="362"/>
+      <c r="K148" s="373"/>
+      <c r="L148" s="374" t="s">
         <v>53</v>
       </c>
-      <c r="M148" s="365"/>
-      <c r="N148" s="365"/>
-      <c r="O148" s="365"/>
-      <c r="P148" s="365"/>
-      <c r="Q148" s="365"/>
-      <c r="R148" s="365"/>
-      <c r="S148" s="365"/>
-      <c r="T148" s="365"/>
-      <c r="U148" s="381"/>
-      <c r="V148" s="362" t="s">
+      <c r="M148" s="362"/>
+      <c r="N148" s="362"/>
+      <c r="O148" s="362"/>
+      <c r="P148" s="362"/>
+      <c r="Q148" s="362"/>
+      <c r="R148" s="362"/>
+      <c r="S148" s="362"/>
+      <c r="T148" s="362"/>
+      <c r="U148" s="378"/>
+      <c r="V148" s="359" t="s">
         <v>51</v>
       </c>
-      <c r="W148" s="363"/>
-      <c r="X148" s="364"/>
-      <c r="Y148" s="365"/>
-      <c r="Z148" s="365"/>
-      <c r="AA148" s="365"/>
-      <c r="AB148" s="365"/>
-      <c r="AC148" s="365"/>
-      <c r="AD148" s="365"/>
-      <c r="AE148" s="365"/>
-      <c r="AF148" s="365"/>
-      <c r="AG148" s="365"/>
-      <c r="AH148" s="365"/>
-      <c r="AI148" s="365"/>
-      <c r="AJ148" s="365"/>
-      <c r="AK148" s="365"/>
-      <c r="AL148" s="365"/>
-      <c r="AM148" s="365"/>
-      <c r="AN148" s="365"/>
-      <c r="AO148" s="365"/>
-      <c r="AP148" s="365"/>
-      <c r="AQ148" s="365"/>
-      <c r="AR148" s="365"/>
-      <c r="AS148" s="365"/>
-      <c r="AT148" s="365"/>
-      <c r="AU148" s="365"/>
-      <c r="AV148" s="381"/>
+      <c r="W148" s="360"/>
+      <c r="X148" s="361"/>
+      <c r="Y148" s="362"/>
+      <c r="Z148" s="362"/>
+      <c r="AA148" s="362"/>
+      <c r="AB148" s="362"/>
+      <c r="AC148" s="362"/>
+      <c r="AD148" s="362"/>
+      <c r="AE148" s="362"/>
+      <c r="AF148" s="362"/>
+      <c r="AG148" s="362"/>
+      <c r="AH148" s="362"/>
+      <c r="AI148" s="362"/>
+      <c r="AJ148" s="362"/>
+      <c r="AK148" s="362"/>
+      <c r="AL148" s="362"/>
+      <c r="AM148" s="362"/>
+      <c r="AN148" s="362"/>
+      <c r="AO148" s="362"/>
+      <c r="AP148" s="362"/>
+      <c r="AQ148" s="362"/>
+      <c r="AR148" s="362"/>
+      <c r="AS148" s="362"/>
+      <c r="AT148" s="362"/>
+      <c r="AU148" s="362"/>
+      <c r="AV148" s="378"/>
       <c r="AW148" s="138"/>
     </row>
     <row r="149" s="1" customFormat="1" customHeight="1" spans="1:49">
       <c r="A149" s="16"/>
       <c r="B149" s="17"/>
       <c r="C149" s="18"/>
-      <c r="D149" s="361">
+      <c r="D149" s="358">
         <v>4</v>
       </c>
-      <c r="E149" s="362" t="s">
+      <c r="E149" s="359" t="s">
         <v>48</v>
       </c>
-      <c r="F149" s="363"/>
-      <c r="G149" s="364" t="s">
+      <c r="F149" s="360"/>
+      <c r="G149" s="361" t="s">
         <v>54</v>
       </c>
-      <c r="H149" s="365"/>
-      <c r="I149" s="365"/>
-      <c r="J149" s="365"/>
-      <c r="K149" s="376"/>
-      <c r="L149" s="377" t="s">
+      <c r="H149" s="362"/>
+      <c r="I149" s="362"/>
+      <c r="J149" s="362"/>
+      <c r="K149" s="373"/>
+      <c r="L149" s="374" t="s">
         <v>55</v>
       </c>
-      <c r="M149" s="365"/>
-      <c r="N149" s="365"/>
-      <c r="O149" s="365"/>
-      <c r="P149" s="365"/>
-      <c r="Q149" s="365"/>
-      <c r="R149" s="365"/>
-      <c r="S149" s="365"/>
-      <c r="T149" s="365"/>
-      <c r="U149" s="381"/>
-      <c r="V149" s="362" t="s">
+      <c r="M149" s="362"/>
+      <c r="N149" s="362"/>
+      <c r="O149" s="362"/>
+      <c r="P149" s="362"/>
+      <c r="Q149" s="362"/>
+      <c r="R149" s="362"/>
+      <c r="S149" s="362"/>
+      <c r="T149" s="362"/>
+      <c r="U149" s="378"/>
+      <c r="V149" s="359" t="s">
         <v>51</v>
       </c>
-      <c r="W149" s="363"/>
-      <c r="X149" s="364"/>
-      <c r="Y149" s="365"/>
-      <c r="Z149" s="365"/>
-      <c r="AA149" s="365"/>
-      <c r="AB149" s="365"/>
-      <c r="AC149" s="365"/>
-      <c r="AD149" s="365"/>
-      <c r="AE149" s="365"/>
-      <c r="AF149" s="365"/>
-      <c r="AG149" s="365"/>
-      <c r="AH149" s="365"/>
-      <c r="AI149" s="365"/>
-      <c r="AJ149" s="365"/>
-      <c r="AK149" s="365"/>
-      <c r="AL149" s="365"/>
-      <c r="AM149" s="365"/>
-      <c r="AN149" s="365"/>
-      <c r="AO149" s="365"/>
-      <c r="AP149" s="365"/>
-      <c r="AQ149" s="365"/>
-      <c r="AR149" s="365"/>
-      <c r="AS149" s="365"/>
-      <c r="AT149" s="365"/>
-      <c r="AU149" s="365"/>
-      <c r="AV149" s="381"/>
+      <c r="W149" s="360"/>
+      <c r="X149" s="361"/>
+      <c r="Y149" s="362"/>
+      <c r="Z149" s="362"/>
+      <c r="AA149" s="362"/>
+      <c r="AB149" s="362"/>
+      <c r="AC149" s="362"/>
+      <c r="AD149" s="362"/>
+      <c r="AE149" s="362"/>
+      <c r="AF149" s="362"/>
+      <c r="AG149" s="362"/>
+      <c r="AH149" s="362"/>
+      <c r="AI149" s="362"/>
+      <c r="AJ149" s="362"/>
+      <c r="AK149" s="362"/>
+      <c r="AL149" s="362"/>
+      <c r="AM149" s="362"/>
+      <c r="AN149" s="362"/>
+      <c r="AO149" s="362"/>
+      <c r="AP149" s="362"/>
+      <c r="AQ149" s="362"/>
+      <c r="AR149" s="362"/>
+      <c r="AS149" s="362"/>
+      <c r="AT149" s="362"/>
+      <c r="AU149" s="362"/>
+      <c r="AV149" s="378"/>
       <c r="AW149" s="138"/>
     </row>
     <row r="150" s="1" customFormat="1" customHeight="1" spans="1:49">
       <c r="A150" s="16"/>
       <c r="B150" s="17"/>
       <c r="C150" s="18"/>
-      <c r="D150" s="361">
+      <c r="D150" s="358">
         <v>5</v>
       </c>
-      <c r="E150" s="362"/>
-      <c r="F150" s="363"/>
-      <c r="G150" s="364"/>
-      <c r="H150" s="365"/>
-      <c r="I150" s="365"/>
-      <c r="J150" s="365"/>
-      <c r="K150" s="376"/>
-      <c r="L150" s="377"/>
-      <c r="M150" s="365"/>
-      <c r="N150" s="365"/>
-      <c r="O150" s="365"/>
-      <c r="P150" s="365"/>
-      <c r="Q150" s="365"/>
-      <c r="R150" s="365"/>
-      <c r="S150" s="365"/>
-      <c r="T150" s="365"/>
-      <c r="U150" s="381"/>
-      <c r="V150" s="362"/>
-      <c r="W150" s="363"/>
-      <c r="X150" s="364"/>
-      <c r="Y150" s="365"/>
-      <c r="Z150" s="365"/>
-      <c r="AA150" s="365"/>
-      <c r="AB150" s="365"/>
-      <c r="AC150" s="365"/>
-      <c r="AD150" s="365"/>
-      <c r="AE150" s="365"/>
-      <c r="AF150" s="365"/>
-      <c r="AG150" s="365"/>
-      <c r="AH150" s="365"/>
-      <c r="AI150" s="365"/>
-      <c r="AJ150" s="365"/>
-      <c r="AK150" s="365"/>
-      <c r="AL150" s="365"/>
-      <c r="AM150" s="365"/>
-      <c r="AN150" s="365"/>
-      <c r="AO150" s="365"/>
-      <c r="AP150" s="365"/>
-      <c r="AQ150" s="365"/>
-      <c r="AR150" s="365"/>
-      <c r="AS150" s="365"/>
-      <c r="AT150" s="365"/>
-      <c r="AU150" s="365"/>
-      <c r="AV150" s="381"/>
+      <c r="E150" s="359"/>
+      <c r="F150" s="360"/>
+      <c r="G150" s="361"/>
+      <c r="H150" s="362"/>
+      <c r="I150" s="362"/>
+      <c r="J150" s="362"/>
+      <c r="K150" s="373"/>
+      <c r="L150" s="374"/>
+      <c r="M150" s="362"/>
+      <c r="N150" s="362"/>
+      <c r="O150" s="362"/>
+      <c r="P150" s="362"/>
+      <c r="Q150" s="362"/>
+      <c r="R150" s="362"/>
+      <c r="S150" s="362"/>
+      <c r="T150" s="362"/>
+      <c r="U150" s="378"/>
+      <c r="V150" s="359"/>
+      <c r="W150" s="360"/>
+      <c r="X150" s="361"/>
+      <c r="Y150" s="362"/>
+      <c r="Z150" s="362"/>
+      <c r="AA150" s="362"/>
+      <c r="AB150" s="362"/>
+      <c r="AC150" s="362"/>
+      <c r="AD150" s="362"/>
+      <c r="AE150" s="362"/>
+      <c r="AF150" s="362"/>
+      <c r="AG150" s="362"/>
+      <c r="AH150" s="362"/>
+      <c r="AI150" s="362"/>
+      <c r="AJ150" s="362"/>
+      <c r="AK150" s="362"/>
+      <c r="AL150" s="362"/>
+      <c r="AM150" s="362"/>
+      <c r="AN150" s="362"/>
+      <c r="AO150" s="362"/>
+      <c r="AP150" s="362"/>
+      <c r="AQ150" s="362"/>
+      <c r="AR150" s="362"/>
+      <c r="AS150" s="362"/>
+      <c r="AT150" s="362"/>
+      <c r="AU150" s="362"/>
+      <c r="AV150" s="378"/>
       <c r="AW150" s="138"/>
     </row>
     <row r="151" s="1" customFormat="1" customHeight="1" spans="1:49">
       <c r="A151" s="16"/>
       <c r="B151" s="17"/>
       <c r="C151" s="18"/>
-      <c r="D151" s="361">
+      <c r="D151" s="358">
         <v>6</v>
       </c>
-      <c r="E151" s="362"/>
-      <c r="F151" s="363"/>
-      <c r="G151" s="364"/>
-      <c r="H151" s="365"/>
-      <c r="I151" s="365"/>
-      <c r="J151" s="365"/>
-      <c r="K151" s="376"/>
-      <c r="L151" s="377"/>
-      <c r="M151" s="365"/>
-      <c r="N151" s="365"/>
-      <c r="O151" s="365"/>
-      <c r="P151" s="365"/>
-      <c r="Q151" s="365"/>
-      <c r="R151" s="365"/>
-      <c r="S151" s="365"/>
-      <c r="T151" s="365"/>
-      <c r="U151" s="381"/>
-      <c r="V151" s="362"/>
-      <c r="W151" s="363"/>
-      <c r="X151" s="368"/>
-      <c r="Y151" s="369"/>
-      <c r="Z151" s="369"/>
-      <c r="AA151" s="369"/>
-      <c r="AB151" s="369"/>
-      <c r="AC151" s="369"/>
-      <c r="AD151" s="369"/>
-      <c r="AE151" s="369"/>
-      <c r="AF151" s="369"/>
-      <c r="AG151" s="369"/>
-      <c r="AH151" s="369"/>
-      <c r="AI151" s="369"/>
-      <c r="AJ151" s="369"/>
-      <c r="AK151" s="369"/>
-      <c r="AL151" s="369"/>
-      <c r="AM151" s="369"/>
-      <c r="AN151" s="369"/>
-      <c r="AO151" s="369"/>
-      <c r="AP151" s="369"/>
-      <c r="AQ151" s="369"/>
-      <c r="AR151" s="369"/>
-      <c r="AS151" s="369"/>
-      <c r="AT151" s="369"/>
-      <c r="AU151" s="369"/>
-      <c r="AV151" s="382"/>
+      <c r="E151" s="359"/>
+      <c r="F151" s="360"/>
+      <c r="G151" s="361"/>
+      <c r="H151" s="362"/>
+      <c r="I151" s="362"/>
+      <c r="J151" s="362"/>
+      <c r="K151" s="373"/>
+      <c r="L151" s="374"/>
+      <c r="M151" s="362"/>
+      <c r="N151" s="362"/>
+      <c r="O151" s="362"/>
+      <c r="P151" s="362"/>
+      <c r="Q151" s="362"/>
+      <c r="R151" s="362"/>
+      <c r="S151" s="362"/>
+      <c r="T151" s="362"/>
+      <c r="U151" s="378"/>
+      <c r="V151" s="359"/>
+      <c r="W151" s="360"/>
+      <c r="X151" s="365"/>
+      <c r="Y151" s="366"/>
+      <c r="Z151" s="366"/>
+      <c r="AA151" s="366"/>
+      <c r="AB151" s="366"/>
+      <c r="AC151" s="366"/>
+      <c r="AD151" s="366"/>
+      <c r="AE151" s="366"/>
+      <c r="AF151" s="366"/>
+      <c r="AG151" s="366"/>
+      <c r="AH151" s="366"/>
+      <c r="AI151" s="366"/>
+      <c r="AJ151" s="366"/>
+      <c r="AK151" s="366"/>
+      <c r="AL151" s="366"/>
+      <c r="AM151" s="366"/>
+      <c r="AN151" s="366"/>
+      <c r="AO151" s="366"/>
+      <c r="AP151" s="366"/>
+      <c r="AQ151" s="366"/>
+      <c r="AR151" s="366"/>
+      <c r="AS151" s="366"/>
+      <c r="AT151" s="366"/>
+      <c r="AU151" s="366"/>
+      <c r="AV151" s="379"/>
       <c r="AW151" s="138"/>
     </row>
     <row r="152" s="1" customFormat="1" customHeight="1" spans="1:49">
       <c r="A152" s="16"/>
       <c r="B152" s="17"/>
       <c r="C152" s="18"/>
-      <c r="D152" s="361">
+      <c r="D152" s="358">
         <v>7</v>
       </c>
-      <c r="E152" s="366"/>
-      <c r="F152" s="367"/>
-      <c r="G152" s="368"/>
-      <c r="H152" s="369"/>
-      <c r="I152" s="369"/>
-      <c r="J152" s="369"/>
-      <c r="K152" s="378"/>
-      <c r="L152" s="379"/>
-      <c r="M152" s="369"/>
-      <c r="N152" s="369"/>
-      <c r="O152" s="369"/>
-      <c r="P152" s="369"/>
-      <c r="Q152" s="369"/>
-      <c r="R152" s="369"/>
-      <c r="S152" s="369"/>
-      <c r="T152" s="369"/>
-      <c r="U152" s="382"/>
-      <c r="V152" s="366"/>
-      <c r="W152" s="367"/>
-      <c r="X152" s="368"/>
-      <c r="Y152" s="369"/>
-      <c r="Z152" s="369"/>
-      <c r="AA152" s="369"/>
-      <c r="AB152" s="369"/>
-      <c r="AC152" s="369"/>
-      <c r="AD152" s="369"/>
-      <c r="AE152" s="369"/>
-      <c r="AF152" s="369"/>
-      <c r="AG152" s="369"/>
-      <c r="AH152" s="369"/>
-      <c r="AI152" s="369"/>
-      <c r="AJ152" s="369"/>
-      <c r="AK152" s="369"/>
-      <c r="AL152" s="369"/>
-      <c r="AM152" s="369"/>
-      <c r="AN152" s="369"/>
-      <c r="AO152" s="369"/>
-      <c r="AP152" s="369"/>
-      <c r="AQ152" s="369"/>
-      <c r="AR152" s="369"/>
-      <c r="AS152" s="369"/>
-      <c r="AT152" s="369"/>
-      <c r="AU152" s="369"/>
-      <c r="AV152" s="382"/>
+      <c r="E152" s="363"/>
+      <c r="F152" s="364"/>
+      <c r="G152" s="365"/>
+      <c r="H152" s="366"/>
+      <c r="I152" s="366"/>
+      <c r="J152" s="366"/>
+      <c r="K152" s="375"/>
+      <c r="L152" s="376"/>
+      <c r="M152" s="366"/>
+      <c r="N152" s="366"/>
+      <c r="O152" s="366"/>
+      <c r="P152" s="366"/>
+      <c r="Q152" s="366"/>
+      <c r="R152" s="366"/>
+      <c r="S152" s="366"/>
+      <c r="T152" s="366"/>
+      <c r="U152" s="379"/>
+      <c r="V152" s="363"/>
+      <c r="W152" s="364"/>
+      <c r="X152" s="365"/>
+      <c r="Y152" s="366"/>
+      <c r="Z152" s="366"/>
+      <c r="AA152" s="366"/>
+      <c r="AB152" s="366"/>
+      <c r="AC152" s="366"/>
+      <c r="AD152" s="366"/>
+      <c r="AE152" s="366"/>
+      <c r="AF152" s="366"/>
+      <c r="AG152" s="366"/>
+      <c r="AH152" s="366"/>
+      <c r="AI152" s="366"/>
+      <c r="AJ152" s="366"/>
+      <c r="AK152" s="366"/>
+      <c r="AL152" s="366"/>
+      <c r="AM152" s="366"/>
+      <c r="AN152" s="366"/>
+      <c r="AO152" s="366"/>
+      <c r="AP152" s="366"/>
+      <c r="AQ152" s="366"/>
+      <c r="AR152" s="366"/>
+      <c r="AS152" s="366"/>
+      <c r="AT152" s="366"/>
+      <c r="AU152" s="366"/>
+      <c r="AV152" s="379"/>
       <c r="AW152" s="138"/>
     </row>
     <row r="153" s="1" customFormat="1" customHeight="1" spans="1:49">
       <c r="A153" s="16"/>
       <c r="B153" s="17"/>
       <c r="C153" s="18"/>
-      <c r="D153" s="361">
+      <c r="D153" s="358">
         <v>8</v>
       </c>
-      <c r="E153" s="366"/>
-      <c r="F153" s="367"/>
-      <c r="G153" s="368"/>
-      <c r="H153" s="369"/>
-      <c r="I153" s="369"/>
-      <c r="J153" s="369"/>
-      <c r="K153" s="378"/>
-      <c r="L153" s="379"/>
-      <c r="M153" s="369"/>
-      <c r="N153" s="369"/>
-      <c r="O153" s="369"/>
-      <c r="P153" s="369"/>
-      <c r="Q153" s="369"/>
-      <c r="R153" s="369"/>
-      <c r="S153" s="369"/>
-      <c r="T153" s="369"/>
-      <c r="U153" s="382"/>
-      <c r="V153" s="366"/>
-      <c r="W153" s="367"/>
-      <c r="X153" s="368"/>
-      <c r="Y153" s="369"/>
-      <c r="Z153" s="369"/>
-      <c r="AA153" s="369"/>
-      <c r="AB153" s="369"/>
-      <c r="AC153" s="369"/>
-      <c r="AD153" s="369"/>
-      <c r="AE153" s="369"/>
-      <c r="AF153" s="369"/>
-      <c r="AG153" s="369"/>
-      <c r="AH153" s="369"/>
-      <c r="AI153" s="369"/>
-      <c r="AJ153" s="369"/>
-      <c r="AK153" s="369"/>
-      <c r="AL153" s="369"/>
-      <c r="AM153" s="369"/>
-      <c r="AN153" s="369"/>
-      <c r="AO153" s="369"/>
-      <c r="AP153" s="369"/>
-      <c r="AQ153" s="369"/>
-      <c r="AR153" s="369"/>
-      <c r="AS153" s="369"/>
-      <c r="AT153" s="369"/>
-      <c r="AU153" s="369"/>
-      <c r="AV153" s="382"/>
+      <c r="E153" s="363"/>
+      <c r="F153" s="364"/>
+      <c r="G153" s="365"/>
+      <c r="H153" s="366"/>
+      <c r="I153" s="366"/>
+      <c r="J153" s="366"/>
+      <c r="K153" s="375"/>
+      <c r="L153" s="376"/>
+      <c r="M153" s="366"/>
+      <c r="N153" s="366"/>
+      <c r="O153" s="366"/>
+      <c r="P153" s="366"/>
+      <c r="Q153" s="366"/>
+      <c r="R153" s="366"/>
+      <c r="S153" s="366"/>
+      <c r="T153" s="366"/>
+      <c r="U153" s="379"/>
+      <c r="V153" s="363"/>
+      <c r="W153" s="364"/>
+      <c r="X153" s="365"/>
+      <c r="Y153" s="366"/>
+      <c r="Z153" s="366"/>
+      <c r="AA153" s="366"/>
+      <c r="AB153" s="366"/>
+      <c r="AC153" s="366"/>
+      <c r="AD153" s="366"/>
+      <c r="AE153" s="366"/>
+      <c r="AF153" s="366"/>
+      <c r="AG153" s="366"/>
+      <c r="AH153" s="366"/>
+      <c r="AI153" s="366"/>
+      <c r="AJ153" s="366"/>
+      <c r="AK153" s="366"/>
+      <c r="AL153" s="366"/>
+      <c r="AM153" s="366"/>
+      <c r="AN153" s="366"/>
+      <c r="AO153" s="366"/>
+      <c r="AP153" s="366"/>
+      <c r="AQ153" s="366"/>
+      <c r="AR153" s="366"/>
+      <c r="AS153" s="366"/>
+      <c r="AT153" s="366"/>
+      <c r="AU153" s="366"/>
+      <c r="AV153" s="379"/>
       <c r="AW153" s="138"/>
     </row>
     <row r="154" s="1" customFormat="1" customHeight="1" spans="1:49">
       <c r="A154" s="16"/>
       <c r="B154" s="17"/>
       <c r="C154" s="18"/>
-      <c r="D154" s="361">
+      <c r="D154" s="358">
         <v>9</v>
       </c>
-      <c r="E154" s="366"/>
-      <c r="F154" s="367"/>
-      <c r="G154" s="368"/>
-      <c r="H154" s="369"/>
-      <c r="I154" s="369"/>
-      <c r="J154" s="369"/>
-      <c r="K154" s="378"/>
-      <c r="L154" s="379"/>
-      <c r="M154" s="369"/>
-      <c r="N154" s="369"/>
-      <c r="O154" s="369"/>
-      <c r="P154" s="369"/>
-      <c r="Q154" s="369"/>
-      <c r="R154" s="369"/>
-      <c r="S154" s="369"/>
-      <c r="T154" s="369"/>
-      <c r="U154" s="382"/>
-      <c r="V154" s="366"/>
-      <c r="W154" s="367"/>
-      <c r="X154" s="368"/>
-      <c r="Y154" s="369"/>
-      <c r="Z154" s="369"/>
-      <c r="AA154" s="369"/>
-      <c r="AB154" s="369"/>
-      <c r="AC154" s="369"/>
-      <c r="AD154" s="369"/>
-      <c r="AE154" s="369"/>
-      <c r="AF154" s="369"/>
-      <c r="AG154" s="369"/>
-      <c r="AH154" s="369"/>
-      <c r="AI154" s="369"/>
-      <c r="AJ154" s="369"/>
-      <c r="AK154" s="369"/>
-      <c r="AL154" s="369"/>
-      <c r="AM154" s="369"/>
-      <c r="AN154" s="369"/>
-      <c r="AO154" s="369"/>
-      <c r="AP154" s="369"/>
-      <c r="AQ154" s="369"/>
-      <c r="AR154" s="369"/>
-      <c r="AS154" s="369"/>
-      <c r="AT154" s="369"/>
-      <c r="AU154" s="369"/>
-      <c r="AV154" s="382"/>
+      <c r="E154" s="363"/>
+      <c r="F154" s="364"/>
+      <c r="G154" s="365"/>
+      <c r="H154" s="366"/>
+      <c r="I154" s="366"/>
+      <c r="J154" s="366"/>
+      <c r="K154" s="375"/>
+      <c r="L154" s="376"/>
+      <c r="M154" s="366"/>
+      <c r="N154" s="366"/>
+      <c r="O154" s="366"/>
+      <c r="P154" s="366"/>
+      <c r="Q154" s="366"/>
+      <c r="R154" s="366"/>
+      <c r="S154" s="366"/>
+      <c r="T154" s="366"/>
+      <c r="U154" s="379"/>
+      <c r="V154" s="363"/>
+      <c r="W154" s="364"/>
+      <c r="X154" s="365"/>
+      <c r="Y154" s="366"/>
+      <c r="Z154" s="366"/>
+      <c r="AA154" s="366"/>
+      <c r="AB154" s="366"/>
+      <c r="AC154" s="366"/>
+      <c r="AD154" s="366"/>
+      <c r="AE154" s="366"/>
+      <c r="AF154" s="366"/>
+      <c r="AG154" s="366"/>
+      <c r="AH154" s="366"/>
+      <c r="AI154" s="366"/>
+      <c r="AJ154" s="366"/>
+      <c r="AK154" s="366"/>
+      <c r="AL154" s="366"/>
+      <c r="AM154" s="366"/>
+      <c r="AN154" s="366"/>
+      <c r="AO154" s="366"/>
+      <c r="AP154" s="366"/>
+      <c r="AQ154" s="366"/>
+      <c r="AR154" s="366"/>
+      <c r="AS154" s="366"/>
+      <c r="AT154" s="366"/>
+      <c r="AU154" s="366"/>
+      <c r="AV154" s="379"/>
       <c r="AW154" s="138"/>
     </row>
     <row r="155" s="1" customFormat="1" customHeight="1" spans="1:49">
       <c r="A155" s="16"/>
       <c r="B155" s="17"/>
       <c r="C155" s="18"/>
-      <c r="D155" s="370">
+      <c r="D155" s="367">
         <v>10</v>
       </c>
-      <c r="E155" s="366"/>
-      <c r="F155" s="367"/>
-      <c r="G155" s="368"/>
-      <c r="H155" s="369"/>
-      <c r="I155" s="369"/>
-      <c r="J155" s="369"/>
-      <c r="K155" s="378"/>
-      <c r="L155" s="379"/>
-      <c r="M155" s="369"/>
-      <c r="N155" s="369"/>
-      <c r="O155" s="369"/>
-      <c r="P155" s="369"/>
-      <c r="Q155" s="369"/>
-      <c r="R155" s="369"/>
-      <c r="S155" s="369"/>
-      <c r="T155" s="369"/>
-      <c r="U155" s="382"/>
-      <c r="V155" s="366"/>
-      <c r="W155" s="367"/>
-      <c r="X155" s="368"/>
-      <c r="Y155" s="369"/>
-      <c r="Z155" s="369"/>
-      <c r="AA155" s="369"/>
-      <c r="AB155" s="369"/>
-      <c r="AC155" s="369"/>
-      <c r="AD155" s="369"/>
-      <c r="AE155" s="369"/>
-      <c r="AF155" s="369"/>
-      <c r="AG155" s="369"/>
-      <c r="AH155" s="369"/>
-      <c r="AI155" s="369"/>
-      <c r="AJ155" s="369"/>
-      <c r="AK155" s="369"/>
-      <c r="AL155" s="369"/>
-      <c r="AM155" s="369"/>
-      <c r="AN155" s="369"/>
-      <c r="AO155" s="369"/>
-      <c r="AP155" s="369"/>
-      <c r="AQ155" s="369"/>
-      <c r="AR155" s="369"/>
-      <c r="AS155" s="369"/>
-      <c r="AT155" s="369"/>
-      <c r="AU155" s="369"/>
-      <c r="AV155" s="382"/>
+      <c r="E155" s="363"/>
+      <c r="F155" s="364"/>
+      <c r="G155" s="365"/>
+      <c r="H155" s="366"/>
+      <c r="I155" s="366"/>
+      <c r="J155" s="366"/>
+      <c r="K155" s="375"/>
+      <c r="L155" s="376"/>
+      <c r="M155" s="366"/>
+      <c r="N155" s="366"/>
+      <c r="O155" s="366"/>
+      <c r="P155" s="366"/>
+      <c r="Q155" s="366"/>
+      <c r="R155" s="366"/>
+      <c r="S155" s="366"/>
+      <c r="T155" s="366"/>
+      <c r="U155" s="379"/>
+      <c r="V155" s="363"/>
+      <c r="W155" s="364"/>
+      <c r="X155" s="365"/>
+      <c r="Y155" s="366"/>
+      <c r="Z155" s="366"/>
+      <c r="AA155" s="366"/>
+      <c r="AB155" s="366"/>
+      <c r="AC155" s="366"/>
+      <c r="AD155" s="366"/>
+      <c r="AE155" s="366"/>
+      <c r="AF155" s="366"/>
+      <c r="AG155" s="366"/>
+      <c r="AH155" s="366"/>
+      <c r="AI155" s="366"/>
+      <c r="AJ155" s="366"/>
+      <c r="AK155" s="366"/>
+      <c r="AL155" s="366"/>
+      <c r="AM155" s="366"/>
+      <c r="AN155" s="366"/>
+      <c r="AO155" s="366"/>
+      <c r="AP155" s="366"/>
+      <c r="AQ155" s="366"/>
+      <c r="AR155" s="366"/>
+      <c r="AS155" s="366"/>
+      <c r="AT155" s="366"/>
+      <c r="AU155" s="366"/>
+      <c r="AV155" s="379"/>
       <c r="AW155" s="138"/>
     </row>
     <row r="156" s="1" customFormat="1" customHeight="1" spans="1:49">
       <c r="A156" s="16"/>
       <c r="B156" s="17"/>
       <c r="C156" s="18"/>
-      <c r="D156" s="371"/>
-      <c r="E156" s="372"/>
-      <c r="F156" s="372"/>
+      <c r="D156" s="368"/>
+      <c r="E156" s="369"/>
+      <c r="F156" s="369"/>
       <c r="G156" s="44"/>
-      <c r="H156" s="373"/>
-      <c r="I156" s="373"/>
-      <c r="J156" s="373"/>
-      <c r="K156" s="373"/>
-      <c r="L156" s="373"/>
-      <c r="M156" s="373"/>
-      <c r="N156" s="373"/>
-      <c r="O156" s="373"/>
-      <c r="P156" s="373"/>
-      <c r="Q156" s="373"/>
-      <c r="R156" s="373"/>
-      <c r="S156" s="373"/>
-      <c r="T156" s="373"/>
-      <c r="U156" s="373"/>
-      <c r="V156" s="372"/>
-      <c r="W156" s="372"/>
-      <c r="X156" s="373"/>
-      <c r="Y156" s="373"/>
-      <c r="Z156" s="373"/>
-      <c r="AA156" s="373"/>
-      <c r="AB156" s="373"/>
-      <c r="AC156" s="373"/>
-      <c r="AD156" s="373"/>
-      <c r="AE156" s="373"/>
-      <c r="AF156" s="373"/>
-      <c r="AG156" s="373"/>
-      <c r="AH156" s="373"/>
-      <c r="AI156" s="373"/>
-      <c r="AJ156" s="373"/>
-      <c r="AK156" s="373"/>
-      <c r="AL156" s="373"/>
-      <c r="AM156" s="373"/>
-      <c r="AN156" s="373"/>
-      <c r="AO156" s="373"/>
-      <c r="AP156" s="373"/>
-      <c r="AQ156" s="373"/>
-      <c r="AR156" s="373"/>
-      <c r="AS156" s="373"/>
-      <c r="AT156" s="373"/>
-      <c r="AU156" s="373"/>
-      <c r="AV156" s="373"/>
+      <c r="H156" s="370"/>
+      <c r="I156" s="370"/>
+      <c r="J156" s="370"/>
+      <c r="K156" s="370"/>
+      <c r="L156" s="370"/>
+      <c r="M156" s="370"/>
+      <c r="N156" s="370"/>
+      <c r="O156" s="370"/>
+      <c r="P156" s="370"/>
+      <c r="Q156" s="370"/>
+      <c r="R156" s="370"/>
+      <c r="S156" s="370"/>
+      <c r="T156" s="370"/>
+      <c r="U156" s="370"/>
+      <c r="V156" s="369"/>
+      <c r="W156" s="369"/>
+      <c r="X156" s="370"/>
+      <c r="Y156" s="370"/>
+      <c r="Z156" s="370"/>
+      <c r="AA156" s="370"/>
+      <c r="AB156" s="370"/>
+      <c r="AC156" s="370"/>
+      <c r="AD156" s="370"/>
+      <c r="AE156" s="370"/>
+      <c r="AF156" s="370"/>
+      <c r="AG156" s="370"/>
+      <c r="AH156" s="370"/>
+      <c r="AI156" s="370"/>
+      <c r="AJ156" s="370"/>
+      <c r="AK156" s="370"/>
+      <c r="AL156" s="370"/>
+      <c r="AM156" s="370"/>
+      <c r="AN156" s="370"/>
+      <c r="AO156" s="370"/>
+      <c r="AP156" s="370"/>
+      <c r="AQ156" s="370"/>
+      <c r="AR156" s="370"/>
+      <c r="AS156" s="370"/>
+      <c r="AT156" s="370"/>
+      <c r="AU156" s="370"/>
+      <c r="AV156" s="370"/>
       <c r="AW156" s="138"/>
     </row>
     <row r="157" s="1" customFormat="1" customHeight="1" spans="1:49">
@@ -23765,55 +23756,55 @@
       <c r="AW159" s="138"/>
     </row>
     <row r="160" s="2" customFormat="1" customHeight="1" spans="1:49">
-      <c r="A160" s="248"/>
-      <c r="B160" s="249"/>
-      <c r="C160" s="249"/>
-      <c r="D160" s="249"/>
-      <c r="E160" s="249"/>
-      <c r="F160" s="249"/>
-      <c r="G160" s="249"/>
-      <c r="H160" s="249"/>
-      <c r="I160" s="249"/>
-      <c r="J160" s="249"/>
-      <c r="K160" s="249"/>
-      <c r="L160" s="249"/>
-      <c r="M160" s="249"/>
-      <c r="N160" s="249"/>
-      <c r="O160" s="249"/>
-      <c r="P160" s="249"/>
-      <c r="Q160" s="249"/>
-      <c r="R160" s="249"/>
-      <c r="S160" s="249"/>
-      <c r="T160" s="249"/>
-      <c r="U160" s="249"/>
-      <c r="V160" s="249"/>
-      <c r="W160" s="249"/>
-      <c r="X160" s="249"/>
-      <c r="Y160" s="249"/>
-      <c r="Z160" s="249"/>
-      <c r="AA160" s="249"/>
-      <c r="AB160" s="249"/>
-      <c r="AC160" s="249"/>
-      <c r="AD160" s="249"/>
-      <c r="AE160" s="249"/>
-      <c r="AF160" s="249"/>
-      <c r="AG160" s="249"/>
-      <c r="AH160" s="249"/>
-      <c r="AI160" s="249"/>
-      <c r="AJ160" s="249"/>
-      <c r="AK160" s="249"/>
-      <c r="AL160" s="249"/>
-      <c r="AM160" s="249"/>
-      <c r="AN160" s="249"/>
-      <c r="AO160" s="249"/>
-      <c r="AP160" s="249"/>
-      <c r="AQ160" s="249"/>
-      <c r="AR160" s="249"/>
-      <c r="AS160" s="249"/>
-      <c r="AT160" s="249"/>
-      <c r="AU160" s="249"/>
-      <c r="AV160" s="249"/>
-      <c r="AW160" s="332"/>
+      <c r="A160" s="245"/>
+      <c r="B160" s="246"/>
+      <c r="C160" s="246"/>
+      <c r="D160" s="246"/>
+      <c r="E160" s="246"/>
+      <c r="F160" s="246"/>
+      <c r="G160" s="246"/>
+      <c r="H160" s="246"/>
+      <c r="I160" s="246"/>
+      <c r="J160" s="246"/>
+      <c r="K160" s="246"/>
+      <c r="L160" s="246"/>
+      <c r="M160" s="246"/>
+      <c r="N160" s="246"/>
+      <c r="O160" s="246"/>
+      <c r="P160" s="246"/>
+      <c r="Q160" s="246"/>
+      <c r="R160" s="246"/>
+      <c r="S160" s="246"/>
+      <c r="T160" s="246"/>
+      <c r="U160" s="246"/>
+      <c r="V160" s="246"/>
+      <c r="W160" s="246"/>
+      <c r="X160" s="246"/>
+      <c r="Y160" s="246"/>
+      <c r="Z160" s="246"/>
+      <c r="AA160" s="246"/>
+      <c r="AB160" s="246"/>
+      <c r="AC160" s="246"/>
+      <c r="AD160" s="246"/>
+      <c r="AE160" s="246"/>
+      <c r="AF160" s="246"/>
+      <c r="AG160" s="246"/>
+      <c r="AH160" s="246"/>
+      <c r="AI160" s="246"/>
+      <c r="AJ160" s="246"/>
+      <c r="AK160" s="246"/>
+      <c r="AL160" s="246"/>
+      <c r="AM160" s="246"/>
+      <c r="AN160" s="246"/>
+      <c r="AO160" s="246"/>
+      <c r="AP160" s="246"/>
+      <c r="AQ160" s="246"/>
+      <c r="AR160" s="246"/>
+      <c r="AS160" s="246"/>
+      <c r="AT160" s="246"/>
+      <c r="AU160" s="246"/>
+      <c r="AV160" s="246"/>
+      <c r="AW160" s="329"/>
     </row>
   </sheetData>
   <mergeCells count="200">
@@ -24036,7 +24027,7 @@
   <dimension ref="A1:BJ173"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="AI160" sqref="AI160"/>
+      <selection activeCell="AH152" sqref="AH152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66666666666667" defaultRowHeight="13.5" customHeight="1"/>
@@ -28941,7 +28932,7 @@
       <c r="A87" s="16"/>
       <c r="B87" s="17"/>
       <c r="C87" s="18"/>
-      <c r="D87" s="384" t="s">
+      <c r="D87" s="381" t="s">
         <v>87</v>
       </c>
       <c r="E87" s="24"/>
@@ -31073,7 +31064,7 @@
       <c r="A127" s="16"/>
       <c r="B127" s="17"/>
       <c r="C127" s="18"/>
-      <c r="D127" s="384" t="s">
+      <c r="D127" s="381" t="s">
         <v>97</v>
       </c>
       <c r="E127" s="24"/>
@@ -31344,7 +31335,7 @@
       </c>
       <c r="AM131" s="67"/>
       <c r="AN131" s="214"/>
-      <c r="AO131" s="232"/>
+      <c r="AO131" s="230"/>
       <c r="AP131" s="67"/>
       <c r="AQ131" s="67"/>
       <c r="AR131" s="67"/>
@@ -32142,7 +32133,7 @@
       <c r="AR145" s="202"/>
       <c r="AS145" s="202"/>
       <c r="AT145" s="202"/>
-      <c r="AU145" s="233"/>
+      <c r="AU145" s="231"/>
       <c r="AV145" s="24"/>
       <c r="AW145" s="138"/>
       <c r="AX145" s="7"/>
@@ -32202,11 +32193,11 @@
       <c r="AR146" s="217"/>
       <c r="AS146" s="217"/>
       <c r="AT146" s="217"/>
-      <c r="AU146" s="234"/>
+      <c r="AU146" s="232"/>
       <c r="AV146" s="24"/>
       <c r="AW146" s="138"/>
       <c r="AX146" s="7"/>
-      <c r="AY146" s="240" t="s">
+      <c r="AY146" s="237" t="s">
         <v>114</v>
       </c>
     </row>
@@ -32265,11 +32256,11 @@
       <c r="AR147" s="220"/>
       <c r="AS147" s="220"/>
       <c r="AT147" s="220"/>
-      <c r="AU147" s="235"/>
+      <c r="AU147" s="233"/>
       <c r="AV147" s="24"/>
       <c r="AW147" s="138"/>
       <c r="AX147" s="7"/>
-      <c r="AY147" s="240" t="s">
+      <c r="AY147" s="237" t="s">
         <v>116</v>
       </c>
     </row>
@@ -32328,11 +32319,11 @@
       <c r="AR148" s="220"/>
       <c r="AS148" s="220"/>
       <c r="AT148" s="220"/>
-      <c r="AU148" s="235"/>
+      <c r="AU148" s="233"/>
       <c r="AV148" s="24"/>
       <c r="AW148" s="138"/>
       <c r="AX148" s="7"/>
-      <c r="AY148" s="241" t="s">
+      <c r="AY148" s="238" t="s">
         <v>119</v>
       </c>
     </row>
@@ -32391,24 +32382,24 @@
       <c r="AR149" s="225"/>
       <c r="AS149" s="225"/>
       <c r="AT149" s="225"/>
-      <c r="AU149" s="236"/>
+      <c r="AU149" s="234"/>
       <c r="AV149" s="24"/>
       <c r="AW149" s="138"/>
       <c r="AX149" s="7"/>
-      <c r="AY149" s="242" t="s">
+      <c r="AY149" s="239" t="s">
         <v>122</v>
       </c>
-      <c r="AZ149" s="242"/>
-      <c r="BA149" s="242"/>
-      <c r="BB149" s="242"/>
-      <c r="BC149" s="242"/>
-      <c r="BD149" s="242"/>
-      <c r="BE149" s="242"/>
-      <c r="BF149" s="242"/>
-      <c r="BG149" s="242"/>
-      <c r="BH149" s="242"/>
-      <c r="BI149" s="242"/>
-      <c r="BJ149" s="242"/>
+      <c r="AZ149" s="239"/>
+      <c r="BA149" s="239"/>
+      <c r="BB149" s="239"/>
+      <c r="BC149" s="239"/>
+      <c r="BD149" s="239"/>
+      <c r="BE149" s="239"/>
+      <c r="BF149" s="239"/>
+      <c r="BG149" s="239"/>
+      <c r="BH149" s="239"/>
+      <c r="BI149" s="239"/>
+      <c r="BJ149" s="239"/>
     </row>
     <row r="150" s="1" customFormat="1" customHeight="1" spans="1:50">
       <c r="A150" s="16"/>
@@ -32671,7 +32662,7 @@
       <c r="AR154" s="193"/>
       <c r="AS154" s="193"/>
       <c r="AT154" s="193"/>
-      <c r="AU154" s="237"/>
+      <c r="AU154" s="235"/>
       <c r="AV154" s="24"/>
       <c r="AW154" s="138"/>
       <c r="AX154" s="7"/>
@@ -32789,7 +32780,7 @@
       <c r="AR156" s="205"/>
       <c r="AS156" s="205"/>
       <c r="AT156" s="205"/>
-      <c r="AU156" s="238"/>
+      <c r="AU156" s="236"/>
       <c r="AV156" s="24"/>
       <c r="AW156" s="138"/>
       <c r="AX156" s="7"/>
@@ -32906,7 +32897,7 @@
       <c r="C159" s="18"/>
       <c r="D159" s="145"/>
       <c r="E159" s="145"/>
-      <c r="F159" s="385" t="s">
+      <c r="F159" s="382" t="s">
         <v>131</v>
       </c>
       <c r="G159" s="159"/>
@@ -32960,7 +32951,7 @@
       <c r="C160" s="18"/>
       <c r="D160" s="145"/>
       <c r="E160" s="158"/>
-      <c r="F160" s="385" t="s">
+      <c r="F160" s="382" t="s">
         <v>132</v>
       </c>
       <c r="G160" s="159"/>
@@ -33048,20 +33039,20 @@
       <c r="AG161" s="163"/>
       <c r="AH161" s="163"/>
       <c r="AI161" s="191"/>
-      <c r="AJ161" s="226" t="s">
+      <c r="AJ161" s="162" t="s">
         <v>135</v>
       </c>
-      <c r="AK161" s="227"/>
-      <c r="AL161" s="227"/>
-      <c r="AM161" s="227"/>
-      <c r="AN161" s="227"/>
-      <c r="AO161" s="227"/>
-      <c r="AP161" s="227"/>
-      <c r="AQ161" s="227"/>
-      <c r="AR161" s="227"/>
-      <c r="AS161" s="227"/>
-      <c r="AT161" s="227"/>
-      <c r="AU161" s="239"/>
+      <c r="AK161" s="163"/>
+      <c r="AL161" s="163"/>
+      <c r="AM161" s="163"/>
+      <c r="AN161" s="163"/>
+      <c r="AO161" s="163"/>
+      <c r="AP161" s="163"/>
+      <c r="AQ161" s="163"/>
+      <c r="AR161" s="163"/>
+      <c r="AS161" s="163"/>
+      <c r="AT161" s="163"/>
+      <c r="AU161" s="191"/>
       <c r="AV161" s="24"/>
       <c r="AW161" s="138"/>
       <c r="AX161" s="7"/>
@@ -33105,7 +33096,7 @@
       <c r="AF162" s="199"/>
       <c r="AG162" s="199"/>
       <c r="AH162" s="199"/>
-      <c r="AI162" s="228"/>
+      <c r="AI162" s="226"/>
       <c r="AJ162" s="216" t="s">
         <v>138</v>
       </c>
@@ -33119,7 +33110,7 @@
       <c r="AR162" s="199"/>
       <c r="AS162" s="199"/>
       <c r="AT162" s="199"/>
-      <c r="AU162" s="228"/>
+      <c r="AU162" s="226"/>
       <c r="AV162" s="24"/>
       <c r="AW162" s="138"/>
       <c r="AX162" s="7"/>
@@ -33163,8 +33154,8 @@
       <c r="AF163" s="201"/>
       <c r="AG163" s="201"/>
       <c r="AH163" s="201"/>
-      <c r="AI163" s="229"/>
-      <c r="AJ163" s="230" t="s">
+      <c r="AI163" s="227"/>
+      <c r="AJ163" s="228" t="s">
         <v>141</v>
       </c>
       <c r="AK163" s="201"/>
@@ -33177,7 +33168,7 @@
       <c r="AR163" s="201"/>
       <c r="AS163" s="201"/>
       <c r="AT163" s="201"/>
-      <c r="AU163" s="229"/>
+      <c r="AU163" s="227"/>
       <c r="AV163" s="24"/>
       <c r="AW163" s="138"/>
       <c r="AX163" s="7"/>
@@ -33218,7 +33209,7 @@
       <c r="AG164" s="159"/>
       <c r="AH164" s="159"/>
       <c r="AI164" s="159"/>
-      <c r="AJ164" s="231"/>
+      <c r="AJ164" s="229"/>
       <c r="AK164" s="159"/>
       <c r="AL164" s="159"/>
       <c r="AM164" s="159"/>
@@ -33272,7 +33263,7 @@
       <c r="AG165" s="159"/>
       <c r="AH165" s="159"/>
       <c r="AI165" s="159"/>
-      <c r="AJ165" s="231"/>
+      <c r="AJ165" s="229"/>
       <c r="AK165" s="159"/>
       <c r="AL165" s="159"/>
       <c r="AM165" s="159"/>
@@ -33326,7 +33317,7 @@
       <c r="AG166" s="159"/>
       <c r="AH166" s="159"/>
       <c r="AI166" s="159"/>
-      <c r="AJ166" s="231"/>
+      <c r="AJ166" s="229"/>
       <c r="AK166" s="159"/>
       <c r="AL166" s="159"/>
       <c r="AM166" s="159"/>
@@ -33380,7 +33371,7 @@
       <c r="AG167" s="159"/>
       <c r="AH167" s="159"/>
       <c r="AI167" s="159"/>
-      <c r="AJ167" s="231"/>
+      <c r="AJ167" s="229"/>
       <c r="AK167" s="159"/>
       <c r="AL167" s="159"/>
       <c r="AM167" s="159"/>
@@ -33434,7 +33425,7 @@
       <c r="AG168" s="159"/>
       <c r="AH168" s="159"/>
       <c r="AI168" s="159"/>
-      <c r="AJ168" s="231"/>
+      <c r="AJ168" s="229"/>
       <c r="AK168" s="159"/>
       <c r="AL168" s="159"/>
       <c r="AM168" s="159"/>
@@ -33488,7 +33479,7 @@
       <c r="AG169" s="159"/>
       <c r="AH169" s="159"/>
       <c r="AI169" s="159"/>
-      <c r="AJ169" s="231"/>
+      <c r="AJ169" s="229"/>
       <c r="AK169" s="159"/>
       <c r="AL169" s="159"/>
       <c r="AM169" s="159"/>
@@ -33540,7 +33531,7 @@
       <c r="AG170" s="159"/>
       <c r="AH170" s="159"/>
       <c r="AI170" s="159"/>
-      <c r="AJ170" s="231"/>
+      <c r="AJ170" s="229"/>
       <c r="AK170" s="159"/>
       <c r="AL170" s="159"/>
       <c r="AM170" s="159"/>
@@ -33605,7 +33596,7 @@
       <c r="AT171" s="178"/>
       <c r="AU171" s="178"/>
       <c r="AV171" s="178"/>
-      <c r="AW171" s="243"/>
+      <c r="AW171" s="240"/>
       <c r="AX171" s="7"/>
     </row>
     <row r="172" s="1" customFormat="1" customHeight="1" spans="1:49">
